--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carol-Gu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9000E924-047A-4A55-99DB-41A5F504F4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED8EB5-EA58-43C6-8ADE-095D314111A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -554,7 +554,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -608,6 +608,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -693,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,10 +1032,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:N69"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1102,8 +1112,8 @@
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
+      <c r="C2" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>17</v>
@@ -1174,7 +1184,9 @@
       <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1215,7 +1227,9 @@
       <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1256,7 +1270,9 @@
       <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,8 +1282,8 @@
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
+      <c r="C6" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -1307,8 +1323,8 @@
       <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
+      <c r="C7" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -1348,8 +1364,8 @@
       <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
+      <c r="C8" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
@@ -1389,8 +1405,8 @@
       <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
+      <c r="C9" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
@@ -1430,8 +1446,8 @@
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
+      <c r="C10" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
@@ -1471,8 +1487,8 @@
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
+      <c r="C11" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -1512,8 +1528,8 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
+      <c r="C12" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
@@ -1553,8 +1569,8 @@
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
+      <c r="C13" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
@@ -1594,8 +1610,8 @@
       <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
+      <c r="C14" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
@@ -1635,8 +1651,8 @@
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
+      <c r="C15" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>17</v>
@@ -1676,8 +1692,8 @@
       <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
+      <c r="C16" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>17</v>
@@ -1717,8 +1733,8 @@
       <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
+      <c r="C17" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
@@ -1758,8 +1774,8 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
+      <c r="C18" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
@@ -1789,7 +1805,7 @@
       <c r="M18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1799,8 +1815,8 @@
       <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
+      <c r="C19" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -1840,8 +1856,8 @@
       <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
+      <c r="C20" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -1881,8 +1897,8 @@
       <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
+      <c r="C21" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -1922,8 +1938,8 @@
       <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
+      <c r="C22" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
@@ -1963,8 +1979,8 @@
       <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
+      <c r="C23" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -2004,8 +2020,8 @@
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
+      <c r="C24" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
@@ -2046,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>87</v>
@@ -2087,7 +2103,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>87</v>
@@ -2424,8 +2440,8 @@
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>16</v>
+      <c r="C34" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>103</v>
@@ -2506,8 +2522,8 @@
       <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>16</v>
+      <c r="C36" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>17</v>
@@ -2997,8 +3013,8 @@
       <c r="B49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>16</v>
+      <c r="C49" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>17</v>
@@ -3038,8 +3054,8 @@
       <c r="B50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>16</v>
+      <c r="C50" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>17</v>
@@ -3079,8 +3095,8 @@
       <c r="B51" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>16</v>
+      <c r="C51" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>17</v>
@@ -3120,8 +3136,8 @@
       <c r="B52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>16</v>
+      <c r="C52" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>17</v>
@@ -3161,8 +3177,8 @@
       <c r="B53" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>16</v>
+      <c r="C53" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>17</v>
@@ -3202,8 +3218,8 @@
       <c r="B54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>16</v>
+      <c r="C54" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>17</v>
@@ -3243,8 +3259,8 @@
       <c r="B55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>16</v>
+      <c r="C55" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>17</v>
@@ -3284,8 +3300,8 @@
       <c r="B56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>16</v>
+      <c r="C56" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>17</v>
@@ -3325,8 +3341,8 @@
       <c r="B57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>16</v>
+      <c r="C57" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>17</v>
@@ -3366,8 +3382,8 @@
       <c r="B58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>16</v>
+      <c r="C58" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>17</v>
@@ -3407,8 +3423,8 @@
       <c r="B59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>16</v>
+      <c r="C59" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>17</v>
@@ -3448,8 +3464,8 @@
       <c r="B60" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>16</v>
+      <c r="C60" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>17</v>
@@ -3489,8 +3505,8 @@
       <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>16</v>
+      <c r="C61" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>17</v>
@@ -3530,8 +3546,8 @@
       <c r="B62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>16</v>
+      <c r="C62" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>17</v>
@@ -3571,8 +3587,8 @@
       <c r="B63" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>16</v>
+      <c r="C63" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>17</v>
@@ -3612,8 +3628,8 @@
       <c r="B64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>16</v>
+      <c r="C64" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>17</v>
@@ -3653,8 +3669,8 @@
       <c r="B65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>16</v>
+      <c r="C65" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>17</v>
@@ -3694,8 +3710,8 @@
       <c r="B66" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>16</v>
+      <c r="C66" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>17</v>
@@ -3735,8 +3751,8 @@
       <c r="B67" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>16</v>
+      <c r="C67" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>17</v>
@@ -3776,8 +3792,8 @@
       <c r="B68" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>16</v>
+      <c r="C68" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>17</v>
@@ -3817,8 +3833,8 @@
       <c r="B69" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>16</v>
+      <c r="C69" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>17</v>
@@ -10371,7 +10387,7 @@
   </sheetData>
   <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10379,7 +10395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED8EB5-EA58-43C6-8ADE-095D314111A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28654EFA-4EF9-41B8-81C9-567921330A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,6 +812,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1035,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1183,9 @@
       <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="43">
+        <v>44118</v>
+      </c>
       <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1223,7 +1228,9 @@
       <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="43">
+        <v>44112</v>
+      </c>
       <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="42" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="6" t="s">

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28654EFA-4EF9-41B8-81C9-567921330A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C677BC5-B0A2-4D75-A92B-7893A0B1512A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1273,8 +1273,10 @@
       <c r="K5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="43">
+        <v>44118</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="6" t="s">

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C677BC5-B0A2-4D75-A92B-7893A0B1512A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141F5C5-F165-428D-8BD9-449A90818EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Instruções" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relatório!$A$1:$O$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relatório!$A$1:$O$69</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -543,6 +543,9 @@
   <si>
     <t>Mapear os erros. Aqui tem duas coisas importantes: só temos UMA planilha de controle
 Não podemos ter repetição do IDs</t>
+  </si>
+  <si>
+    <t>O Talkback lê algo irreconhecível</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +819,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,10 +1044,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1156,8 +1165,8 @@
       <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
+      <c r="C3" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -1201,8 +1210,8 @@
       <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
+      <c r="C4" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -1246,8 +1255,8 @@
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
+      <c r="C5" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -1455,7 +1464,7 @@
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="45" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1824,8 +1833,8 @@
       <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>134</v>
+      <c r="C19" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -1851,11 +1860,15 @@
       <c r="K19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="43">
+        <v>44118</v>
+      </c>
       <c r="M19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1865,8 +1878,8 @@
       <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>134</v>
+      <c r="C20" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -1892,11 +1905,15 @@
       <c r="K20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="43">
+        <v>44118</v>
+      </c>
       <c r="M20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1906,8 +1923,8 @@
       <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>134</v>
+      <c r="C21" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -1933,11 +1950,15 @@
       <c r="K21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="43">
+        <v>44118</v>
+      </c>
       <c r="M21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,11 +3152,15 @@
       <c r="K51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="43">
+        <v>44118</v>
+      </c>
       <c r="M51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="6"/>
+      <c r="N51" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3719,8 +3744,8 @@
       <c r="B66" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>134</v>
+      <c r="C66" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>17</v>
@@ -3746,22 +3771,26 @@
       <c r="K66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L66" s="12"/>
+      <c r="L66" s="43">
+        <v>44118</v>
+      </c>
       <c r="M66" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="6"/>
+      <c r="N66" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O66" s="10"/>
     </row>
     <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>134</v>
+      <c r="C67" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>17</v>
@@ -3787,11 +3816,15 @@
       <c r="K67" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L67" s="12"/>
+      <c r="L67" s="43">
+        <v>44118</v>
+      </c>
       <c r="M67" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N67" s="6"/>
+      <c r="N67" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O67" s="10"/>
     </row>
     <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3858,7 +3891,7 @@
         <v>77</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>81</v>
@@ -10394,7 +10427,7 @@
       <c r="M1000" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O69" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10405,7 +10438,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141F5C5-F165-428D-8BD9-449A90818EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3228E-627C-4860-B33E-1E5B8FBB9A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -1044,10 +1044,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1151,11 +1151,15 @@
       <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8">
+        <v>44122</v>
+      </c>
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141F5C5-F165-428D-8BD9-449A90818EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5FCBA-F8AD-42A8-A8CA-6E43328BA0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -455,9 +455,6 @@
     <t>pixel.php</t>
   </si>
   <si>
-    <t>No card "Fique por dentro", o usuario tentou acessar clicando na imagem ou titulo, mas apenas o texto era o link</t>
-  </si>
-  <si>
     <t>Ajuste da ancora</t>
   </si>
   <si>
@@ -483,9 +480,6 @@
   </si>
   <si>
     <t>Sem acesso a seta no rodapé, para retornar ao topo da página</t>
-  </si>
-  <si>
-    <t>Impossivel acessar a seta no rodapé para retornar ao topo da página, através do teclado</t>
   </si>
   <si>
     <t>impede a utilização</t>
@@ -546,6 +540,14 @@
   </si>
   <si>
     <t>O Talkback lê algo irreconhecível</t>
+  </si>
+  <si>
+    <t>No card "Fique por dentro", o usuario tentou acessar clicando na 
+imagem ou titulo, mas apenas o texto era o link</t>
+  </si>
+  <si>
+    <t>Impossivel acessar a seta no rodapé para retornar ao topo da página, 
+através do teclado</t>
   </si>
 </sst>
 </file>
@@ -557,7 +559,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -618,6 +620,13 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -703,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,12 +829,16 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,22 +1057,22 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="53.85546875" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" customWidth="1"/>
+    <col min="8" max="8" width="60" customWidth="1"/>
     <col min="9" max="9" width="58.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
@@ -1117,7 +1130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1166,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -1211,7 +1224,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -1256,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>17</v>
@@ -1300,8 +1313,8 @@
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>134</v>
+      <c r="C6" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
@@ -1327,11 +1340,15 @@
       <c r="K6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="43">
+        <v>44119</v>
+      </c>
       <c r="M6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1464,7 +1481,7 @@
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1834,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
@@ -1879,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>17</v>
@@ -1924,7 +1941,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
@@ -2381,7 +2398,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2403,7 +2420,7 @@
       <c r="G32" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="45" t="s">
         <v>101</v>
       </c>
       <c r="I32" s="18" t="s">
@@ -2422,7 +2439,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2444,7 +2461,7 @@
       <c r="G33" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="45" t="s">
         <v>102</v>
       </c>
       <c r="I33" s="18" t="s">
@@ -2865,11 +2882,11 @@
       <c r="G44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>91</v>
@@ -2897,16 +2914,16 @@
         <v>83</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="J45" s="27">
         <v>43840</v>
@@ -2936,16 +2953,16 @@
         <v>83</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J46" s="27">
         <v>43840</v>
@@ -2975,16 +2992,16 @@
         <v>83</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J47" s="27">
         <v>43840</v>
@@ -2997,7 +3014,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3014,16 +3031,16 @@
         <v>83</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>151</v>
+      <c r="H48" s="46" t="s">
+        <v>170</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J48" s="27">
         <v>43840</v>
@@ -3655,7 +3672,7 @@
       <c r="N63" s="6"/>
       <c r="O63" s="10"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3696,15 +3713,15 @@
       <c r="N64" s="6"/>
       <c r="O64" s="10"/>
     </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>134</v>
+      <c r="C65" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>17</v>
@@ -3730,11 +3747,15 @@
       <c r="K65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L65" s="12"/>
+      <c r="L65" s="43">
+        <v>44118</v>
+      </c>
       <c r="M65" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="6"/>
+      <c r="N65" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O65" s="10"/>
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3745,7 +3766,7 @@
         <v>46</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>17</v>
@@ -3786,11 +3807,11 @@
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>17</v>
@@ -3891,7 +3912,7 @@
         <v>77</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>81</v>
@@ -3970,6 +3991,7 @@
       <c r="E78" s="29"/>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
+      <c r="K78" s="47"/>
       <c r="M78" s="28"/>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10438,7 +10460,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10461,7 +10483,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10470,7 +10492,7 @@
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10479,7 +10501,7 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10490,10 +10512,10 @@
     </row>
     <row r="7" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10501,7 +10523,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10509,22 +10531,22 @@
         <v>86</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10544,17 +10566,17 @@
     </row>
     <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11564,26 +11586,26 @@
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A3228E-627C-4860-B33E-1E5B8FBB9A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5EBBDA-D5D0-4D5F-BB87-3B618625A902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -818,9 +818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,10 +1041,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1465,7 @@
       <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2013,8 +2010,8 @@
       <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>134</v>
+      <c r="C23" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>17</v>
@@ -2040,11 +2037,15 @@
       <c r="K23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="43">
+        <v>44126</v>
+      </c>
       <c r="M23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,7 +3791,7 @@
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="34" t="s">
@@ -3879,8 +3880,8 @@
       <c r="B69" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>134</v>
+      <c r="C69" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>17</v>
@@ -3906,11 +3907,15 @@
       <c r="K69" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="12"/>
+      <c r="L69" s="43">
+        <v>44126</v>
+      </c>
       <c r="M69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N69" s="6"/>
+      <c r="N69" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O69" s="10"/>
     </row>
     <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5EBBDA-D5D0-4D5F-BB87-3B618625A902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF89D37-0890-4482-8651-368497282994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,6 +822,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1047,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1335,15 +1338,15 @@
       <c r="N6" s="6"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>134</v>
+      <c r="C7" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>17</v>
@@ -1360,7 +1363,7 @@
       <c r="H7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="45" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1369,11 +1372,15 @@
       <c r="K7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="43">
+        <v>44126</v>
+      </c>
       <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,7 +1421,7 @@
       <c r="M8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10447,7 +10454,7 @@
   <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASSILVESTREPAULA\Documents\GitHub\PIXELS\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF89D37-0890-4482-8651-368497282994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00736DC1-D67C-4AED-AC45-01F1D11E704E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,6 +825,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,10 +1047,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1417,11 +1420,15 @@
       <c r="K8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="43">
+        <v>44119</v>
+      </c>
       <c r="M8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,11 +1465,15 @@
       <c r="K9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="43">
+        <v>44119</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,11 +1510,15 @@
       <c r="K10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="43">
+        <v>44119</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1540,11 +1555,15 @@
       <c r="K11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="43">
+        <v>44119</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1581,11 +1600,15 @@
       <c r="K12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="43">
+        <v>44119</v>
+      </c>
       <c r="M12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,11 +1645,15 @@
       <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="43">
+        <v>44126</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,11 +1690,15 @@
       <c r="K14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="43">
+        <v>44126</v>
+      </c>
       <c r="M14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,11 +1735,15 @@
       <c r="K15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="43">
+        <v>44126</v>
+      </c>
       <c r="M15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1745,11 +1780,15 @@
       <c r="K16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="43">
+        <v>44126</v>
+      </c>
       <c r="M16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,11 +2253,15 @@
       <c r="K27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="19"/>
+      <c r="L27" s="43">
+        <v>44126</v>
+      </c>
       <c r="M27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="O27" s="23" t="s">
         <v>92</v>
       </c>
@@ -2257,11 +2300,15 @@
       <c r="K28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="19"/>
+      <c r="L28" s="43">
+        <v>44126</v>
+      </c>
       <c r="M28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="O28" s="23" t="s">
         <v>92</v>
       </c>
@@ -2300,11 +2347,15 @@
       <c r="K29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="19"/>
+      <c r="L29" s="43">
+        <v>44126</v>
+      </c>
       <c r="M29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="O29" s="23" t="s">
         <v>92</v>
       </c>
@@ -2343,11 +2394,11 @@
       <c r="K30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="43"/>
       <c r="M30" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="46"/>
       <c r="O30" s="23" t="s">
         <v>92</v>
       </c>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50419C1A-7D31-4688-8B4A-19A8C451A53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7671CD0B-1C54-4245-BF9C-1D7CC0B67FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="1575" windowWidth="17730" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -806,9 +803,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +852,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,10 +1255,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1514,28 +1525,28 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="53">
         <v>44126</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="50" t="s">
         <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1547,7 +1558,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1568,7 +1579,7 @@
       <c r="H7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1604,7 +1615,7 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1685,7 +1696,7 @@
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1862,7 +1873,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2015,10 +2026,10 @@
       <c r="G17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="10" t="s">
@@ -2027,7 +2038,7 @@
       <c r="K17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="10" t="s">
         <v>73</v>
       </c>
@@ -2056,10 +2067,10 @@
       <c r="G18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -2068,11 +2079,11 @@
       <c r="K18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,7 +2135,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2214,7 +2225,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2232,10 +2243,10 @@
       <c r="G22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="10" t="s">
@@ -2244,7 +2255,7 @@
       <c r="K22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="10" t="s">
         <v>35</v>
       </c>
@@ -2255,7 +2266,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2330,7 +2341,7 @@
       <c r="K24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="17"/>
       <c r="M24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2343,28 +2354,28 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -2373,55 +2384,55 @@
       <c r="K25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="22" t="s">
+      <c r="L25" s="23"/>
+      <c r="M25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="22"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="28" t="s">
         <v>91</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="28" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="31" t="s">
+      <c r="N26" s="27"/>
+      <c r="O26" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2429,46 +2440,46 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="21" t="s">
         <v>92</v>
       </c>
       <c r="L27" s="9">
         <v>44126</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2476,46 +2487,46 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="21" t="s">
         <v>92</v>
       </c>
       <c r="L28" s="9">
         <v>44126</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2523,46 +2534,46 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="21" t="s">
         <v>92</v>
       </c>
       <c r="L29" s="9">
         <v>44126</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="31" t="s">
+      <c r="O29" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2570,42 +2581,42 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="28" t="s">
+      <c r="L30" s="32"/>
+      <c r="M30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="31" t="s">
+      <c r="N30" s="27"/>
+      <c r="O30" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2613,124 +2624,124 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="28" t="s">
         <v>82</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="28" t="s">
+      <c r="L31" s="33"/>
+      <c r="M31" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="35"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="28" t="s">
         <v>82</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="28" t="s">
+      <c r="L32" s="36"/>
+      <c r="M32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="35"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="34"/>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="28" t="s">
         <v>82</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="28" t="s">
+      <c r="L33" s="36"/>
+      <c r="M33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="35"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="34"/>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -2742,35 +2753,35 @@
       <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="52" t="s">
+      <c r="E34" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="52" t="s">
+      <c r="N34" s="50" t="s">
         <v>25</v>
       </c>
       <c r="O34" s="5"/>
@@ -2779,42 +2790,42 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="28" t="s">
+      <c r="L35" s="59"/>
+      <c r="M35" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="22"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -2823,38 +2834,38 @@
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="10" t="s">
+      <c r="L36" s="60"/>
+      <c r="M36" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="10"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,17 +2890,17 @@
       <c r="G37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="11" t="s">
         <v>118</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K37" s="10"/>
-      <c r="L37" s="16"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="5"/>
@@ -2898,7 +2909,7 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2916,17 +2927,17 @@
       <c r="G38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="11" t="s">
         <v>122</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K38" s="10"/>
-      <c r="L38" s="16"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="5"/>
@@ -2935,7 +2946,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2953,17 +2964,17 @@
       <c r="G39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="11" t="s">
         <v>125</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K39" s="10"/>
-      <c r="L39" s="16"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="5"/>
@@ -2972,7 +2983,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2990,17 +3001,17 @@
       <c r="G40" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="11" t="s">
         <v>128</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K40" s="10"/>
-      <c r="L40" s="16"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="5"/>
@@ -3009,7 +3020,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3027,15 +3038,15 @@
       <c r="G41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K41" s="10"/>
-      <c r="L41" s="16"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="5"/>
@@ -3044,7 +3055,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3062,17 +3073,17 @@
       <c r="G42" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="11" t="s">
         <v>135</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K42" s="10"/>
-      <c r="L42" s="16"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="5"/>
@@ -3099,17 +3110,17 @@
       <c r="G43" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>139</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K43" s="10"/>
-      <c r="L43" s="16"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="5"/>
@@ -3118,7 +3129,7 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3136,17 +3147,17 @@
       <c r="G44" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>92</v>
       </c>
       <c r="K44" s="10"/>
-      <c r="L44" s="16"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="5"/>
@@ -3155,16 +3166,16 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -3173,37 +3184,37 @@
       <c r="G45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J45" s="39">
+      <c r="J45" s="37">
         <v>43840</v>
       </c>
       <c r="K45" s="10"/>
-      <c r="L45" s="16"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="10" t="s">
         <v>63</v>
       </c>
       <c r="N45" s="10"/>
-      <c r="O45" s="5"/>
+      <c r="O45" s="61"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -3212,17 +3223,17 @@
       <c r="G46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J46" s="39">
+      <c r="J46" s="37">
         <v>43840</v>
       </c>
       <c r="K46" s="10"/>
-      <c r="L46" s="16"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="10" t="s">
         <v>63</v>
       </c>
@@ -3233,16 +3244,16 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -3251,17 +3262,17 @@
       <c r="G47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="37">
         <v>43840</v>
       </c>
       <c r="K47" s="10"/>
-      <c r="L47" s="16"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="10" t="s">
         <v>63</v>
       </c>
@@ -3272,16 +3283,16 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -3290,17 +3301,17 @@
       <c r="G48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="37">
         <v>43840</v>
       </c>
       <c r="K48" s="10"/>
-      <c r="L48" s="16"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="10" t="s">
         <v>63</v>
       </c>
@@ -3314,38 +3325,42 @@
       <c r="B49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10" t="s">
+      <c r="L49" s="53">
+        <v>44126</v>
+      </c>
+      <c r="M49" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="N49" s="10"/>
+      <c r="N49" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3355,38 +3370,42 @@
       <c r="B50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10" t="s">
+      <c r="L50" s="53">
+        <v>44126</v>
+      </c>
+      <c r="M50" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="10"/>
+      <c r="N50" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3441,79 +3460,87 @@
       <c r="B52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10" t="s">
+      <c r="L52" s="53">
+        <v>44126</v>
+      </c>
+      <c r="M52" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N52" s="10"/>
+      <c r="N52" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10" t="s">
+      <c r="L53" s="53">
+        <v>44126</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N53" s="10"/>
+      <c r="N53" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3532,16 +3559,16 @@
       <c r="E54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="38" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J54" s="10" t="s">
@@ -3550,7 +3577,7 @@
       <c r="K54" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="16"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="10" t="s">
         <v>25</v>
       </c>
@@ -3579,10 +3606,10 @@
       <c r="G55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J55" s="10" t="s">
@@ -3591,7 +3618,7 @@
       <c r="K55" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="16"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="10" t="s">
         <v>25</v>
       </c>
@@ -3620,10 +3647,10 @@
       <c r="G56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="11" t="s">
         <v>46</v>
       </c>
       <c r="J56" s="10" t="s">
@@ -3632,7 +3659,7 @@
       <c r="K56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="16"/>
+      <c r="L56" s="15"/>
       <c r="M56" s="10" t="s">
         <v>25</v>
       </c>
@@ -3661,10 +3688,10 @@
       <c r="G57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J57" s="10" t="s">
@@ -3673,7 +3700,7 @@
       <c r="K57" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="16"/>
+      <c r="L57" s="15"/>
       <c r="M57" s="10" t="s">
         <v>25</v>
       </c>
@@ -3702,10 +3729,10 @@
       <c r="G58" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J58" s="10" t="s">
@@ -3714,7 +3741,7 @@
       <c r="K58" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="16"/>
+      <c r="L58" s="15"/>
       <c r="M58" s="10" t="s">
         <v>25</v>
       </c>
@@ -3743,10 +3770,10 @@
       <c r="G59" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="11" t="s">
         <v>62</v>
       </c>
       <c r="J59" s="10" t="s">
@@ -3755,7 +3782,7 @@
       <c r="K59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="16"/>
+      <c r="L59" s="15"/>
       <c r="M59" s="10" t="s">
         <v>63</v>
       </c>
@@ -3766,7 +3793,7 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3784,10 +3811,10 @@
       <c r="G60" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="11" t="s">
         <v>62</v>
       </c>
       <c r="J60" s="10" t="s">
@@ -3796,7 +3823,7 @@
       <c r="K60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L60" s="16"/>
+      <c r="L60" s="15"/>
       <c r="M60" s="10" t="s">
         <v>63</v>
       </c>
@@ -3825,10 +3852,10 @@
       <c r="G61" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J61" s="10" t="s">
@@ -3837,7 +3864,7 @@
       <c r="K61" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L61" s="16"/>
+      <c r="L61" s="15"/>
       <c r="M61" s="10" t="s">
         <v>63</v>
       </c>
@@ -3866,10 +3893,10 @@
       <c r="G62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="11" t="s">
         <v>62</v>
       </c>
       <c r="J62" s="10" t="s">
@@ -3878,7 +3905,7 @@
       <c r="K62" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L62" s="16"/>
+      <c r="L62" s="15"/>
       <c r="M62" s="10" t="s">
         <v>63</v>
       </c>
@@ -3907,10 +3934,10 @@
       <c r="G63" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H63" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J63" s="10" t="s">
@@ -3919,7 +3946,7 @@
       <c r="K63" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L63" s="16"/>
+      <c r="L63" s="15"/>
       <c r="M63" s="10" t="s">
         <v>73</v>
       </c>
@@ -3948,10 +3975,10 @@
       <c r="G64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J64" s="10" t="s">
@@ -3960,7 +3987,7 @@
       <c r="K64" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="16"/>
+      <c r="L64" s="15"/>
       <c r="M64" s="10" t="s">
         <v>73</v>
       </c>
@@ -3974,45 +4001,49 @@
       <c r="B65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="10" t="s">
+      <c r="L65" s="9">
+        <v>44118</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N65" s="10"/>
+      <c r="N65" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O65" s="5"/>
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -4102,7 +4133,7 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -4120,10 +4151,10 @@
       <c r="G68" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="11" t="s">
         <v>82</v>
       </c>
       <c r="J68" s="10" t="s">
@@ -4132,7 +4163,7 @@
       <c r="K68" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L68" s="16"/>
+      <c r="L68" s="15"/>
       <c r="M68" s="10" t="s">
         <v>35</v>
       </c>
@@ -4143,7 +4174,7 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -5140,26 +5171,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5167,13 +5198,13 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5181,66 +5212,66 @@
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="47" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="47" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6251,25 +6282,25 @@
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>171</v>
       </c>
     </row>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7671CD0B-1C54-4245-BF9C-1D7CC0B67FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A1847-4F6C-4480-9CB7-1EFCB3B9A568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relatório!$A$1:$O$69</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -707,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,9 +766,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,7 +779,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,10 +1260,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1275,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="53.85546875" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" customWidth="1"/>
+    <col min="8" max="8" width="66.5703125" customWidth="1"/>
     <col min="9" max="9" width="58.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
@@ -1525,28 +1530,28 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="51">
         <v>44126</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="48" t="s">
         <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1696,7 +1701,7 @@
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2228,38 +2233,42 @@
       <c r="B22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="10" t="s">
+      <c r="L22" s="9">
+        <v>44126</v>
+      </c>
+      <c r="M22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="10"/>
+      <c r="N22" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,7 +2350,9 @@
       <c r="K24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="6">
+        <v>44122</v>
+      </c>
       <c r="M24" s="2" t="s">
         <v>63</v>
       </c>
@@ -2354,28 +2365,28 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -2384,55 +2395,57 @@
       <c r="K25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="21" t="s">
+      <c r="L25" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M25" s="20" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="21"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="26" t="s">
         <v>91</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="27" t="s">
+      <c r="L26" s="27"/>
+      <c r="M26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="30" t="s">
+      <c r="N26" s="25"/>
+      <c r="O26" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2440,46 +2453,46 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="20" t="s">
         <v>92</v>
       </c>
       <c r="L27" s="9">
         <v>44126</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="30" t="s">
+      <c r="O27" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2487,46 +2500,46 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>92</v>
       </c>
       <c r="L28" s="9">
         <v>44126</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="30" t="s">
+      <c r="O28" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2534,46 +2547,46 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>31</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>92</v>
       </c>
       <c r="L29" s="9">
         <v>44126</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="30" t="s">
+      <c r="O29" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2581,42 +2594,42 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="26" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="27" t="s">
+      <c r="L30" s="30"/>
+      <c r="M30" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="30" t="s">
+      <c r="N30" s="25"/>
+      <c r="O30" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2624,124 +2637,124 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="27" t="s">
+      <c r="L31" s="31"/>
+      <c r="M31" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="34"/>
-    </row>
-    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="25"/>
+      <c r="O31" s="32"/>
+    </row>
+    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="27" t="s">
+      <c r="L32" s="34"/>
+      <c r="M32" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="34"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="25"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="26" t="s">
         <v>82</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="27" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="34"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="32"/>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -2753,35 +2766,35 @@
       <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="I34" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50" t="s">
+      <c r="L34" s="48"/>
+      <c r="M34" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="50" t="s">
+      <c r="N34" s="48" t="s">
         <v>25</v>
       </c>
       <c r="O34" s="5"/>
@@ -2790,42 +2803,42 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="57" t="s">
+      <c r="L35" s="57"/>
+      <c r="M35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="50"/>
-      <c r="O35" s="21"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -2837,35 +2850,35 @@
       <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="50" t="s">
+      <c r="L36" s="58"/>
+      <c r="M36" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="50"/>
+      <c r="N36" s="48"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,7 +2922,7 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2946,7 +2959,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2983,7 +2996,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3020,7 +3033,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3055,7 +3068,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3129,7 +3142,7 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3166,16 +3179,16 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -3190,7 +3203,7 @@
       <c r="I45" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="35">
         <v>43840</v>
       </c>
       <c r="K45" s="10"/>
@@ -3199,22 +3212,22 @@
         <v>63</v>
       </c>
       <c r="N45" s="10"/>
-      <c r="O45" s="61"/>
+      <c r="O45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -3229,7 +3242,7 @@
       <c r="I46" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="35">
         <v>43840</v>
       </c>
       <c r="K46" s="10"/>
@@ -3244,16 +3257,16 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -3268,7 +3281,7 @@
       <c r="I47" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="35">
         <v>43840</v>
       </c>
       <c r="K47" s="10"/>
@@ -3283,16 +3296,16 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -3307,7 +3320,7 @@
       <c r="I48" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="35">
         <v>43840</v>
       </c>
       <c r="K48" s="10"/>
@@ -3328,34 +3341,34 @@
       <c r="C49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="51" t="s">
+      <c r="H49" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="53">
+      <c r="L49" s="51">
         <v>44126</v>
       </c>
-      <c r="M49" s="50" t="s">
+      <c r="M49" s="48" t="s">
         <v>34</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3373,34 +3386,34 @@
       <c r="C50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="51" t="s">
+      <c r="H50" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="51" t="s">
+      <c r="I50" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="53">
+      <c r="L50" s="51">
         <v>44126</v>
       </c>
-      <c r="M50" s="50" t="s">
+      <c r="M50" s="48" t="s">
         <v>34</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -3463,34 +3476,34 @@
       <c r="C52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="G52" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H52" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="51" t="s">
+      <c r="I52" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="50" t="s">
+      <c r="J52" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="53">
+      <c r="L52" s="51">
         <v>44126</v>
       </c>
-      <c r="M52" s="50" t="s">
+      <c r="M52" s="48" t="s">
         <v>35</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -3508,31 +3521,31 @@
       <c r="C53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J53" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="53">
+      <c r="L53" s="51">
         <v>44126</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -3559,7 +3572,7 @@
       <c r="E54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="36" t="s">
         <v>51</v>
       </c>
       <c r="G54" s="10" t="s">
@@ -4004,10 +4017,10 @@
       <c r="C65" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="48" t="s">
         <v>113</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -4136,38 +4149,42 @@
       <c r="B68" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="C68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L68" s="15"/>
-      <c r="M68" s="10" t="s">
+      <c r="L68" s="9">
+        <v>44126</v>
+      </c>
+      <c r="M68" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="10"/>
+      <c r="N68" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5171,17 +5188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5189,8 +5206,8 @@
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5198,13 +5215,13 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5212,66 +5229,66 @@
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="40" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="46" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6282,25 +6299,25 @@
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>171</v>
       </c>
     </row>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A1847-4F6C-4480-9CB7-1EFCB3B9A568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCA9F3F-8AF5-476C-8CF9-D4B051139BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
-    <sheet name="Legenda" sheetId="2" r:id="rId2"/>
-    <sheet name="Instruções" sheetId="3" r:id="rId3"/>
+    <sheet name="Custos" sheetId="4" r:id="rId2"/>
+    <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relatório!$A$1:$O$69</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -547,34 +547,98 @@
     <t>(é possível acrescentar outros testes)</t>
   </si>
   <si>
-    <t>Passo 01:</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir funções no grupo, em, especial precisamos ter um Coordenador
-Também precisamos de alguém para verificar se todos os testes foram feitos
-</t>
-  </si>
-  <si>
-    <t>Passo 02:</t>
-  </si>
-  <si>
-    <t>Mapear os erros. Aqui tem duas coisas importantes: só temos UMA planilha de controle
-Não podemos ter repetição do IDs</t>
+    <t>Tempo Estimado para testa/min</t>
+  </si>
+  <si>
+    <t>Tempo Estimado para manutenção/min</t>
+  </si>
+  <si>
+    <t>Responsavel</t>
+  </si>
+  <si>
+    <t>Tempo Gasto/min</t>
+  </si>
+  <si>
+    <t>Prog.Senior</t>
+  </si>
+  <si>
+    <t>Prog.Junior</t>
+  </si>
+  <si>
+    <t>Designer UI/UX</t>
+  </si>
+  <si>
+    <t>Impossivel acessar a seta no rodapé para retornar ao topo da página, 
+através do teclado</t>
+  </si>
+  <si>
+    <t>Não Possui link para conteudo Principal</t>
+  </si>
+  <si>
+    <t>index/animacacao/desenho/modelagem/ilustracao/art</t>
+  </si>
+  <si>
+    <t>Todas as paginas não possui link para no inicio para levar ao 
+conteudo h1</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Custo Real</t>
+  </si>
+  <si>
+    <t>Tempo gasto em hora</t>
+  </si>
+  <si>
+    <t>Total gasto  teste</t>
+  </si>
+  <si>
+    <t>Tempo estimado para melhorias</t>
+  </si>
+  <si>
+    <t>valor/hora</t>
+  </si>
+  <si>
+    <t>CALCULO DE HORA ORÇADAS / HORA GASTAS</t>
+  </si>
+  <si>
+    <t>HORAS</t>
+  </si>
+  <si>
+    <t>Custo real</t>
+  </si>
+  <si>
+    <t>Custo previsto</t>
+  </si>
+  <si>
+    <t>CUSTO</t>
+  </si>
+  <si>
+    <t>Implantação do Open Graph</t>
+  </si>
+  <si>
+    <t>Implatação do sammary card Twitter</t>
+  </si>
+  <si>
+    <t>Comum para todas as Paginas</t>
+  </si>
+  <si>
+    <t>Melhoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$ &quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -626,8 +690,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +765,44 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFE6B9B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFA6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -712,11 +825,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -808,12 +967,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,9 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,6 +1024,162 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,11 +1565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G55:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1530,28 +1836,28 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="48">
         <v>44126</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="45" t="s">
         <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1701,7 +2007,7 @@
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2236,34 +2542,34 @@
       <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="45" t="s">
         <v>75</v>
       </c>
       <c r="L22" s="9">
         <v>44126</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="45" t="s">
         <v>35</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2766,35 +3072,35 @@
       <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="49" t="s">
+      <c r="I34" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48" t="s">
+      <c r="L34" s="45"/>
+      <c r="M34" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="48" t="s">
+      <c r="N34" s="45" t="s">
         <v>25</v>
       </c>
       <c r="O34" s="5"/>
@@ -2809,35 +3115,37 @@
       <c r="C35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="56" t="s">
+      <c r="H35" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="48" t="s">
+      <c r="K35" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="55" t="s">
+      <c r="L35" s="54"/>
+      <c r="M35" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="48"/>
+      <c r="N35" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2850,35 +3158,37 @@
       <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="48" t="s">
+      <c r="J36" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="58"/>
-      <c r="M36" s="48" t="s">
+      <c r="L36" s="55"/>
+      <c r="M36" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="48"/>
+      <c r="N36" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2891,31 +3201,35 @@
       <c r="C37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2928,31 +3242,35 @@
       <c r="C38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2965,31 +3283,35 @@
       <c r="C39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3002,31 +3324,33 @@
       <c r="C40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="97"/>
+      <c r="N40" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,34 +3509,36 @@
       <c r="C45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="99">
         <v>43840</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="10" t="s">
+      <c r="K45" s="97"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="59"/>
+      <c r="N45" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="56"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -3224,33 +3550,35 @@
       <c r="C46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J46" s="99">
         <v>43840</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="10" t="s">
+      <c r="K46" s="97"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="N46" s="10"/>
+      <c r="N46" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,33 +3591,35 @@
       <c r="C47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="99">
         <v>43840</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="10" t="s">
+      <c r="K47" s="97"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="10"/>
+      <c r="N47" s="97" t="s">
+        <v>87</v>
+      </c>
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3302,33 +3632,35 @@
       <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="99">
         <v>43840</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="10" t="s">
+      <c r="K48" s="97"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="N48" s="10"/>
+      <c r="N48" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3341,34 +3673,34 @@
       <c r="C49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="49" t="s">
+      <c r="H49" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="49" t="s">
+      <c r="I49" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="48" t="s">
+      <c r="K49" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="51">
+      <c r="L49" s="48">
         <v>44126</v>
       </c>
-      <c r="M49" s="48" t="s">
+      <c r="M49" s="45" t="s">
         <v>34</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3386,34 +3718,34 @@
       <c r="C50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="49" t="s">
+      <c r="H50" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="49" t="s">
+      <c r="I50" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="J50" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="48" t="s">
+      <c r="K50" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="51">
+      <c r="L50" s="48">
         <v>44126</v>
       </c>
-      <c r="M50" s="48" t="s">
+      <c r="M50" s="45" t="s">
         <v>34</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -3476,34 +3808,34 @@
       <c r="C52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="49" t="s">
+      <c r="I52" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="48" t="s">
+      <c r="J52" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K52" s="48" t="s">
+      <c r="K52" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="51">
+      <c r="L52" s="48">
         <v>44126</v>
       </c>
-      <c r="M52" s="48" t="s">
+      <c r="M52" s="45" t="s">
         <v>35</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -3521,31 +3853,31 @@
       <c r="C53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="49" t="s">
+      <c r="H53" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="48" t="s">
+      <c r="J53" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="51">
+      <c r="L53" s="48">
         <v>44126</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -3566,35 +3898,37 @@
       <c r="C54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="10" t="s">
+      <c r="L54" s="100"/>
+      <c r="M54" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="N54" s="10"/>
+      <c r="N54" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3607,35 +3941,37 @@
       <c r="C55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="15"/>
-      <c r="M55" s="10" t="s">
+      <c r="L55" s="100"/>
+      <c r="M55" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="10"/>
+      <c r="N55" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3648,35 +3984,37 @@
       <c r="C56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" s="10" t="s">
+      <c r="L56" s="100"/>
+      <c r="M56" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="10"/>
+      <c r="N56" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,35 +4027,37 @@
       <c r="C57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="15"/>
-      <c r="M57" s="10" t="s">
+      <c r="L57" s="100"/>
+      <c r="M57" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="N57" s="10"/>
+      <c r="N57" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,35 +4070,37 @@
       <c r="C58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="10" t="s">
+      <c r="L58" s="100"/>
+      <c r="M58" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="10"/>
+      <c r="N58" s="101" t="s">
+        <v>87</v>
+      </c>
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4017,10 +4359,10 @@
       <c r="C65" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="45" t="s">
         <v>113</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -4152,37 +4494,37 @@
       <c r="C68" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="48" t="s">
+      <c r="G68" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H68" s="49" t="s">
+      <c r="H68" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I68" s="49" t="s">
+      <c r="I68" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J68" s="48" t="s">
+      <c r="J68" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K68" s="48" t="s">
+      <c r="K68" s="45" t="s">
         <v>75</v>
       </c>
       <c r="L68" s="9">
         <v>44126</v>
       </c>
-      <c r="M68" s="48" t="s">
+      <c r="M68" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="48" t="s">
+      <c r="N68" s="45" t="s">
         <v>35</v>
       </c>
       <c r="O68" s="5"/>
@@ -5171,6 +5513,2536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCABBE-0E49-485E-803F-BC21345278E9}">
+  <dimension ref="A1:J80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="57">
+        <v>20</v>
+      </c>
+      <c r="E2" s="58">
+        <v>360</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="60">
+        <v>75</v>
+      </c>
+      <c r="H2" s="87">
+        <f>(E2/60)*G2</f>
+        <v>450</v>
+      </c>
+      <c r="I2" s="2">
+        <v>400</v>
+      </c>
+      <c r="J2" s="80">
+        <f>(I2/60)*G2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="57">
+        <v>60</v>
+      </c>
+      <c r="E3" s="58">
+        <v>60</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H3" s="87">
+        <f t="shared" ref="H3:H66" si="0">(E3/60)*G3</f>
+        <v>52.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="80">
+        <f>(I3/60)*G3</f>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="57">
+        <v>10</v>
+      </c>
+      <c r="E4" s="58">
+        <v>10</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H4" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="80">
+        <f>(I4/60)*G4</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="57">
+        <v>10</v>
+      </c>
+      <c r="E5" s="58">
+        <v>10</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H5" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I5" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" s="80">
+        <f>(I5/60)*G5</f>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="57">
+        <v>15</v>
+      </c>
+      <c r="E6" s="58">
+        <v>20</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H6" s="87">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="80">
+        <f>(I6/60)*G6</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="57">
+        <v>15</v>
+      </c>
+      <c r="E7" s="58">
+        <v>10</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="60">
+        <v>75</v>
+      </c>
+      <c r="H7" s="87">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="80">
+        <f>(I7/60)*G7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="57">
+        <v>10</v>
+      </c>
+      <c r="E8" s="58">
+        <v>10</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H8" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="80">
+        <f>(I8/60)*G8</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="57">
+        <v>10</v>
+      </c>
+      <c r="E9" s="58">
+        <v>10</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H9" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="80">
+        <f>(I9/60)*G9</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="57">
+        <v>10</v>
+      </c>
+      <c r="E10" s="58">
+        <v>10</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H10" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="80">
+        <f>(I10/60)*G10</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="57">
+        <v>10</v>
+      </c>
+      <c r="E11" s="58">
+        <v>10</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H11" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="80">
+        <f>(I11/60)*G11</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="57">
+        <v>10</v>
+      </c>
+      <c r="E12" s="58">
+        <v>10</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H12" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="80">
+        <f>(I12/60)*G12</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="57">
+        <v>10</v>
+      </c>
+      <c r="E13" s="58">
+        <v>10</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="80">
+        <f>(I13/60)*G13</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="57">
+        <v>15</v>
+      </c>
+      <c r="E14" s="58">
+        <v>10</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="80">
+        <f>(I14/60)*G14</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="57">
+        <v>15</v>
+      </c>
+      <c r="E15" s="58">
+        <v>10</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H15" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="80">
+        <f>(I15/60)*G15</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="57">
+        <v>10</v>
+      </c>
+      <c r="E16" s="58">
+        <v>10</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H16" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="80">
+        <f>(I16/60)*G16</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="57">
+        <v>10</v>
+      </c>
+      <c r="E17" s="58">
+        <v>10</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H17" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="80">
+        <f>(I17/60)*G17</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="57">
+        <v>10</v>
+      </c>
+      <c r="E18" s="58">
+        <v>10</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H18" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="80">
+        <f>(I18/60)*G18</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="57">
+        <v>10</v>
+      </c>
+      <c r="E19" s="58">
+        <v>10</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H19" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="80">
+        <f>(I19/60)*G19</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="57">
+        <v>10</v>
+      </c>
+      <c r="E20" s="58">
+        <v>10</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H20" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="80">
+        <f>(I20/60)*G20</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="57">
+        <v>15</v>
+      </c>
+      <c r="E21" s="58">
+        <v>10</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H21" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="80">
+        <f>(I21/60)*G21</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="57">
+        <v>15</v>
+      </c>
+      <c r="E22" s="58">
+        <v>15</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="60">
+        <v>75</v>
+      </c>
+      <c r="H22" s="87">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="I22" s="2">
+        <v>40</v>
+      </c>
+      <c r="J22" s="80">
+        <f>(I22/60)*G22</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="57">
+        <v>15</v>
+      </c>
+      <c r="E23" s="58">
+        <v>15</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="60">
+        <v>75</v>
+      </c>
+      <c r="H23" s="87">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="I23" s="2">
+        <v>30</v>
+      </c>
+      <c r="J23" s="80">
+        <f>(I23/60)*G23</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="57">
+        <v>30</v>
+      </c>
+      <c r="E24" s="58">
+        <v>15</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="60">
+        <v>75</v>
+      </c>
+      <c r="H24" s="87">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+      <c r="J24" s="80">
+        <f>(I24/60)*G24</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="57">
+        <v>30</v>
+      </c>
+      <c r="E25" s="58">
+        <v>15</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="60">
+        <v>75</v>
+      </c>
+      <c r="H25" s="87">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" s="80">
+        <f>(I25/60)*G25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="65">
+        <v>20</v>
+      </c>
+      <c r="E26" s="66">
+        <v>20</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H26" s="87">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="80">
+        <f>(I26/60)*G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="65">
+        <v>15</v>
+      </c>
+      <c r="E27" s="66">
+        <v>10</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H27" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="80">
+        <f>(I27/60)*G27</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="65">
+        <v>15</v>
+      </c>
+      <c r="E28" s="66">
+        <v>10</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H28" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="80">
+        <f>(I28/60)*G28</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="65">
+        <v>15</v>
+      </c>
+      <c r="E29" s="66">
+        <v>10</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H29" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="80">
+        <f>(I29/60)*G29</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="65">
+        <v>15</v>
+      </c>
+      <c r="E30" s="66">
+        <v>10</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H30" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="80">
+        <f>(I30/60)*G30</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="65">
+        <v>10</v>
+      </c>
+      <c r="E31" s="66">
+        <v>15</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H31" s="87">
+        <f t="shared" si="0"/>
+        <v>13.125</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="80">
+        <f>(I31/60)*G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="65">
+        <v>10</v>
+      </c>
+      <c r="E32" s="66">
+        <v>15</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H32" s="87">
+        <f t="shared" si="0"/>
+        <v>13.125</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="80">
+        <f>(I32/60)*G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="65">
+        <v>10</v>
+      </c>
+      <c r="E33" s="66">
+        <v>15</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H33" s="87">
+        <f t="shared" si="0"/>
+        <v>13.125</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="80">
+        <f>(I33/60)*G33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="57">
+        <v>10</v>
+      </c>
+      <c r="E34" s="58">
+        <v>60</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="60">
+        <v>75</v>
+      </c>
+      <c r="H34" s="87">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="80">
+        <f>(I34/60)*G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="57">
+        <v>10</v>
+      </c>
+      <c r="E35" s="58">
+        <v>30</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="60">
+        <v>75</v>
+      </c>
+      <c r="H35" s="87">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="80">
+        <f>(I35/60)*G35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="57">
+        <v>10</v>
+      </c>
+      <c r="E36" s="58">
+        <v>30</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="60">
+        <v>75</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="80">
+        <f>(I36/60)*G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="57">
+        <v>10</v>
+      </c>
+      <c r="E37" s="58">
+        <v>30</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="60">
+        <v>75</v>
+      </c>
+      <c r="H37" s="87">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="80">
+        <f>(I37/60)*G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="57">
+        <v>10</v>
+      </c>
+      <c r="E38" s="58">
+        <v>20</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H38" s="87">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="80">
+        <f>(I38/60)*G38</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="57">
+        <v>10</v>
+      </c>
+      <c r="E39" s="58">
+        <v>20</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H39" s="87">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10</v>
+      </c>
+      <c r="J39" s="80">
+        <f>(I39/60)*G39</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="57">
+        <v>10</v>
+      </c>
+      <c r="E40" s="58">
+        <v>60</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H40" s="87">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>30</v>
+      </c>
+      <c r="J40" s="80">
+        <f>(I40/60)*G40</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="57">
+        <v>10</v>
+      </c>
+      <c r="E41" s="58">
+        <v>60</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H41" s="87">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="80">
+        <f>(I41/60)*G41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="57">
+        <v>10</v>
+      </c>
+      <c r="E42" s="58">
+        <v>15</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H42" s="87">
+        <f t="shared" si="0"/>
+        <v>13.125</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="80">
+        <f>(I42/60)*G42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="57">
+        <v>10</v>
+      </c>
+      <c r="E43" s="58">
+        <v>20</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H43" s="87">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="80">
+        <f>(I43/60)*G43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="92" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="65">
+        <v>10</v>
+      </c>
+      <c r="E44" s="66">
+        <v>20</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="89">
+        <v>52.5</v>
+      </c>
+      <c r="H44" s="90">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="91">
+        <f>(I44/60)*G44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="57">
+        <v>10</v>
+      </c>
+      <c r="E45" s="58">
+        <v>10</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H45" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5</v>
+      </c>
+      <c r="J45" s="80">
+        <f>(I45/60)*G45</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="57">
+        <v>10</v>
+      </c>
+      <c r="E46" s="58">
+        <v>10</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H46" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5</v>
+      </c>
+      <c r="J46" s="80">
+        <f>(I46/60)*G46</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="57">
+        <v>10</v>
+      </c>
+      <c r="E47" s="58">
+        <v>10</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H47" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I47" s="2">
+        <v>5</v>
+      </c>
+      <c r="J47" s="80">
+        <f>(I47/60)*G47</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="57">
+        <v>10</v>
+      </c>
+      <c r="E48" s="58">
+        <v>15</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H48" s="87">
+        <f t="shared" si="0"/>
+        <v>13.125</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="80">
+        <f>(I48/60)*G48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="57">
+        <v>20</v>
+      </c>
+      <c r="E49" s="58">
+        <v>10</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H49" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="80">
+        <f>(I49/60)*G49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="57">
+        <v>10</v>
+      </c>
+      <c r="E50" s="58">
+        <v>10</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H50" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="80">
+        <f>(I50/60)*G50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="57">
+        <v>10</v>
+      </c>
+      <c r="E51" s="58">
+        <v>10</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H51" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="80">
+        <f>(I51/60)*G51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="57">
+        <v>10</v>
+      </c>
+      <c r="E52" s="58">
+        <v>10</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H52" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I52" s="2">
+        <v>5</v>
+      </c>
+      <c r="J52" s="80">
+        <f>(I52/60)*G52</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="57">
+        <v>15</v>
+      </c>
+      <c r="E53" s="58">
+        <v>15</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H53" s="87">
+        <f t="shared" si="0"/>
+        <v>13.125</v>
+      </c>
+      <c r="I53" s="2">
+        <v>15</v>
+      </c>
+      <c r="J53" s="80">
+        <f>(I53/60)*G53</f>
+        <v>13.125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="57">
+        <v>10</v>
+      </c>
+      <c r="E54" s="58">
+        <v>10</v>
+      </c>
+      <c r="F54" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H54" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I54" s="2">
+        <v>10</v>
+      </c>
+      <c r="J54" s="80">
+        <f>(I54/60)*G54</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="57">
+        <v>10</v>
+      </c>
+      <c r="E55" s="58">
+        <v>10</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H55" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I55" s="2">
+        <v>10</v>
+      </c>
+      <c r="J55" s="80">
+        <f>(I55/60)*G55</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="57">
+        <v>10</v>
+      </c>
+      <c r="E56" s="58">
+        <v>10</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H56" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I56" s="2">
+        <v>10</v>
+      </c>
+      <c r="J56" s="80">
+        <f>(I56/60)*G56</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="57">
+        <v>10</v>
+      </c>
+      <c r="E57" s="58">
+        <v>10</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H57" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I57" s="2">
+        <v>10</v>
+      </c>
+      <c r="J57" s="80">
+        <f>(I57/60)*G57</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="57">
+        <v>15</v>
+      </c>
+      <c r="E58" s="58">
+        <v>10</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H58" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I58" s="2">
+        <v>10</v>
+      </c>
+      <c r="J58" s="80">
+        <f>(I58/60)*G58</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="57">
+        <v>10</v>
+      </c>
+      <c r="E59" s="58">
+        <v>10</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H59" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I59" s="2">
+        <v>10</v>
+      </c>
+      <c r="J59" s="80">
+        <f>(I59/60)*G59</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="57">
+        <v>15</v>
+      </c>
+      <c r="E60" s="58">
+        <v>10</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H60" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I60" s="2">
+        <v>10</v>
+      </c>
+      <c r="J60" s="80">
+        <f>(I60/60)*G60</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="57">
+        <v>15</v>
+      </c>
+      <c r="E61" s="58">
+        <v>10</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H61" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+      <c r="J61" s="80">
+        <f>(I61/60)*G61</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="57">
+        <v>10</v>
+      </c>
+      <c r="E62" s="58">
+        <v>10</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H62" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I62" s="2">
+        <v>10</v>
+      </c>
+      <c r="J62" s="80">
+        <f>(I62/60)*G62</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="57">
+        <v>10</v>
+      </c>
+      <c r="E63" s="58">
+        <v>10</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H63" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+      <c r="J63" s="80">
+        <f>(I63/60)*G63</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="57">
+        <v>10</v>
+      </c>
+      <c r="E64" s="58">
+        <v>10</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H64" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10</v>
+      </c>
+      <c r="J64" s="80">
+        <f>(I64/60)*G64</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="57">
+        <v>10</v>
+      </c>
+      <c r="E65" s="58">
+        <v>10</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H65" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I65" s="2">
+        <v>10</v>
+      </c>
+      <c r="J65" s="80">
+        <f>(I65/60)*G65</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="57">
+        <v>10</v>
+      </c>
+      <c r="E66" s="58">
+        <v>10</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H66" s="87">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="I66" s="2">
+        <v>10</v>
+      </c>
+      <c r="J66" s="80">
+        <f>(I66/60)*G66</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="57">
+        <v>10</v>
+      </c>
+      <c r="E67" s="58">
+        <v>10</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="60">
+        <v>52.5</v>
+      </c>
+      <c r="H67" s="87">
+        <f t="shared" ref="H67:H72" si="1">(E67/60)*G67</f>
+        <v>8.75</v>
+      </c>
+      <c r="I67" s="2">
+        <v>10</v>
+      </c>
+      <c r="J67" s="80">
+        <f>(I67/60)*G67</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="57">
+        <v>20</v>
+      </c>
+      <c r="E68" s="58">
+        <v>30</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" s="60">
+        <v>75</v>
+      </c>
+      <c r="H68" s="87">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I68" s="2">
+        <v>10</v>
+      </c>
+      <c r="J68" s="80">
+        <f>(I68/60)*G68</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="70">
+        <v>20</v>
+      </c>
+      <c r="E69" s="71">
+        <v>30</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="81">
+        <v>75</v>
+      </c>
+      <c r="H69" s="87">
+        <f>(E69/60)*G69</f>
+        <v>37.5</v>
+      </c>
+      <c r="I69" s="2">
+        <v>10</v>
+      </c>
+      <c r="J69" s="80">
+        <f>(I69/60)*G69</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="104"/>
+      <c r="E70" s="105">
+        <v>420</v>
+      </c>
+      <c r="F70" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" s="107">
+        <v>75</v>
+      </c>
+      <c r="H70" s="108">
+        <f>(E70/60)*G70</f>
+        <v>525</v>
+      </c>
+      <c r="I70" s="109">
+        <v>300</v>
+      </c>
+      <c r="J70" s="110">
+        <f>(I70/60)*G70</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="104"/>
+      <c r="E71" s="105">
+        <v>420</v>
+      </c>
+      <c r="F71" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G71" s="107">
+        <v>75</v>
+      </c>
+      <c r="H71" s="108">
+        <f>(E71/60)*G71</f>
+        <v>525</v>
+      </c>
+      <c r="I71" s="109">
+        <v>200</v>
+      </c>
+      <c r="J71" s="110">
+        <f>(I71/60)*G71</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="113">
+        <v>30</v>
+      </c>
+      <c r="E72" s="114">
+        <v>480</v>
+      </c>
+      <c r="F72" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="G72" s="116">
+        <v>52.5</v>
+      </c>
+      <c r="H72" s="108">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="I72" s="109">
+        <v>120</v>
+      </c>
+      <c r="J72" s="110">
+        <f>(I72/60)*G72</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="94"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="77"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C74" s="72"/>
+      <c r="D74" s="73"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="94"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C76" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="79">
+        <f>SUM(D2:D72)/60</f>
+        <v>15.416666666666666</v>
+      </c>
+      <c r="E76" s="80">
+        <f>D76*60</f>
+        <v>925</v>
+      </c>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C77" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="79">
+        <f>SUM(E2:E72)/60</f>
+        <v>46</v>
+      </c>
+      <c r="E77" s="80">
+        <f>SUM(H2:H72)</f>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C78" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="79">
+        <f>SUM(I2:I72)/60</f>
+        <v>27.583333333333332</v>
+      </c>
+      <c r="E78" s="80">
+        <f>SUM(J2:J72)</f>
+        <v>1841.875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C79" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="79">
+        <f>D76+D77</f>
+        <v>61.416666666666664</v>
+      </c>
+      <c r="E79" s="80">
+        <f>E76+E77</f>
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C80" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="79">
+        <f>D76+D78</f>
+        <v>43</v>
+      </c>
+      <c r="E80" s="80">
+        <f>E76+E78</f>
+        <v>2766.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
@@ -5188,17 +8060,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5206,8 +8078,8 @@
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5215,13 +8087,13 @@
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5229,66 +8101,66 @@
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="43" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="43" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6281,1045 +9153,4 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="26" width="11.5703125"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCA9F3F-8AF5-476C-8CF9-D4B051139BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE67A27-D1E7-4B68-ACDC-19D2383AF568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -636,7 +636,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="167" formatCode="&quot;R$ &quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1082,7 +1082,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1101,7 +1101,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,10 +1110,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1156,13 +1156,13 @@
     <xf numFmtId="2" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1566,10 +1566,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G55:G56"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2750,7 +2750,9 @@
       <c r="M26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="O26" s="28" t="s">
         <v>93</v>
       </c>
@@ -5516,7 +5518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCABBE-0E49-485E-803F-BC21345278E9}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
@@ -5596,7 +5598,7 @@
         <v>400</v>
       </c>
       <c r="J2" s="80">
-        <f>(I2/60)*G2</f>
+        <f t="shared" ref="J2:J33" si="0">(I2/60)*G2</f>
         <v>500</v>
       </c>
     </row>
@@ -5623,14 +5625,14 @@
         <v>52.5</v>
       </c>
       <c r="H3" s="87">
-        <f t="shared" ref="H3:H66" si="0">(E3/60)*G3</f>
+        <f t="shared" ref="H3:H66" si="1">(E3/60)*G3</f>
         <v>52.5</v>
       </c>
       <c r="I3" s="2">
         <v>50</v>
       </c>
       <c r="J3" s="80">
-        <f>(I3/60)*G3</f>
+        <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
     </row>
@@ -5657,14 +5659,14 @@
         <v>52.5</v>
       </c>
       <c r="H4" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="80">
-        <f>(I4/60)*G4</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5691,14 +5693,14 @@
         <v>52.5</v>
       </c>
       <c r="H5" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I5" s="2">
         <v>18</v>
       </c>
       <c r="J5" s="80">
-        <f>(I5/60)*G5</f>
+        <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
     </row>
@@ -5725,14 +5727,14 @@
         <v>52.5</v>
       </c>
       <c r="H6" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" s="80">
-        <f>(I6/60)*G6</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
@@ -5759,14 +5761,14 @@
         <v>75</v>
       </c>
       <c r="H7" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="I7" s="2">
         <v>20</v>
       </c>
       <c r="J7" s="80">
-        <f>(I7/60)*G7</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -5793,14 +5795,14 @@
         <v>52.5</v>
       </c>
       <c r="H8" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="80">
-        <f>(I8/60)*G8</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5827,14 +5829,14 @@
         <v>52.5</v>
       </c>
       <c r="H9" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="80">
-        <f>(I9/60)*G9</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5861,14 +5863,14 @@
         <v>52.5</v>
       </c>
       <c r="H10" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="80">
-        <f>(I10/60)*G10</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5895,14 +5897,14 @@
         <v>52.5</v>
       </c>
       <c r="H11" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="80">
-        <f>(I11/60)*G11</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5929,14 +5931,14 @@
         <v>52.5</v>
       </c>
       <c r="H12" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="80">
-        <f>(I12/60)*G12</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5963,14 +5965,14 @@
         <v>52.5</v>
       </c>
       <c r="H13" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="80">
-        <f>(I13/60)*G13</f>
         <v>8.75</v>
       </c>
     </row>
@@ -5997,14 +5999,14 @@
         <v>52.5</v>
       </c>
       <c r="H14" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="80">
-        <f>(I14/60)*G14</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6031,14 +6033,14 @@
         <v>52.5</v>
       </c>
       <c r="H15" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="80">
-        <f>(I15/60)*G15</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6065,14 +6067,14 @@
         <v>52.5</v>
       </c>
       <c r="H16" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I16" s="2">
-        <v>10</v>
-      </c>
-      <c r="J16" s="80">
-        <f>(I16/60)*G16</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6099,14 +6101,14 @@
         <v>52.5</v>
       </c>
       <c r="H17" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="80">
-        <f>(I17/60)*G17</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6133,14 +6135,14 @@
         <v>52.5</v>
       </c>
       <c r="H18" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I18" s="2">
-        <v>10</v>
-      </c>
-      <c r="J18" s="80">
-        <f>(I18/60)*G18</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6167,14 +6169,14 @@
         <v>52.5</v>
       </c>
       <c r="H19" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I19" s="2">
-        <v>10</v>
-      </c>
-      <c r="J19" s="80">
-        <f>(I19/60)*G19</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6201,14 +6203,14 @@
         <v>52.5</v>
       </c>
       <c r="H20" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I20" s="2">
-        <v>10</v>
-      </c>
-      <c r="J20" s="80">
-        <f>(I20/60)*G20</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6235,14 +6237,14 @@
         <v>52.5</v>
       </c>
       <c r="H21" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="80">
-        <f>(I21/60)*G21</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6269,14 +6271,14 @@
         <v>75</v>
       </c>
       <c r="H22" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I22" s="2">
         <v>40</v>
       </c>
       <c r="J22" s="80">
-        <f>(I22/60)*G22</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -6303,14 +6305,14 @@
         <v>75</v>
       </c>
       <c r="H23" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I23" s="2">
         <v>30</v>
       </c>
       <c r="J23" s="80">
-        <f>(I23/60)*G23</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
@@ -6337,14 +6339,14 @@
         <v>75</v>
       </c>
       <c r="H24" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I24" s="2">
         <v>20</v>
       </c>
       <c r="J24" s="80">
-        <f>(I24/60)*G24</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -6371,14 +6373,14 @@
         <v>75</v>
       </c>
       <c r="H25" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I25" s="2">
         <v>20</v>
       </c>
       <c r="J25" s="80">
-        <f>(I25/60)*G25</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -6405,12 +6407,12 @@
         <v>52.5</v>
       </c>
       <c r="H26" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="80">
-        <f>(I26/60)*G26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6437,14 +6439,14 @@
         <v>52.5</v>
       </c>
       <c r="H27" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I27" s="2">
-        <v>10</v>
-      </c>
-      <c r="J27" s="80">
-        <f>(I27/60)*G27</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6471,14 +6473,14 @@
         <v>52.5</v>
       </c>
       <c r="H28" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="J28" s="80">
-        <f>(I28/60)*G28</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6505,14 +6507,14 @@
         <v>52.5</v>
       </c>
       <c r="H29" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I29" s="2">
-        <v>10</v>
-      </c>
-      <c r="J29" s="80">
-        <f>(I29/60)*G29</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6539,14 +6541,14 @@
         <v>52.5</v>
       </c>
       <c r="H30" s="87">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="80">
         <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="I30" s="2">
-        <v>10</v>
-      </c>
-      <c r="J30" s="80">
-        <f>(I30/60)*G30</f>
         <v>8.75</v>
       </c>
     </row>
@@ -6573,12 +6575,12 @@
         <v>52.5</v>
       </c>
       <c r="H31" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="80">
-        <f>(I31/60)*G31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6605,12 +6607,12 @@
         <v>52.5</v>
       </c>
       <c r="H32" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="80">
-        <f>(I32/60)*G32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6637,12 +6639,12 @@
         <v>52.5</v>
       </c>
       <c r="H33" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="80">
-        <f>(I33/60)*G33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6669,12 +6671,12 @@
         <v>75</v>
       </c>
       <c r="H34" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="80">
-        <f>(I34/60)*G34</f>
+        <f t="shared" ref="J34:J65" si="2">(I34/60)*G34</f>
         <v>0</v>
       </c>
     </row>
@@ -6701,12 +6703,12 @@
         <v>75</v>
       </c>
       <c r="H35" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="80">
-        <f>(I35/60)*G35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6733,12 +6735,12 @@
         <v>75</v>
       </c>
       <c r="H36" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="80">
-        <f>(I36/60)*G36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6765,12 +6767,12 @@
         <v>75</v>
       </c>
       <c r="H37" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="80">
-        <f>(I37/60)*G37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6797,14 +6799,14 @@
         <v>52.5</v>
       </c>
       <c r="H38" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I38" s="2">
         <v>10</v>
       </c>
       <c r="J38" s="80">
-        <f>(I38/60)*G38</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -6831,14 +6833,14 @@
         <v>52.5</v>
       </c>
       <c r="H39" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I39" s="2">
         <v>10</v>
       </c>
       <c r="J39" s="80">
-        <f>(I39/60)*G39</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -6865,14 +6867,14 @@
         <v>52.5</v>
       </c>
       <c r="H40" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="I40" s="2">
         <v>30</v>
       </c>
       <c r="J40" s="80">
-        <f>(I40/60)*G40</f>
+        <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
     </row>
@@ -6899,12 +6901,12 @@
         <v>52.5</v>
       </c>
       <c r="H41" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="80">
-        <f>(I41/60)*G41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6931,12 +6933,12 @@
         <v>52.5</v>
       </c>
       <c r="H42" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="80">
-        <f>(I42/60)*G42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6963,12 +6965,12 @@
         <v>52.5</v>
       </c>
       <c r="H43" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="80">
-        <f>(I43/60)*G43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6995,12 +6997,12 @@
         <v>52.5</v>
       </c>
       <c r="H44" s="90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="91">
-        <f>(I44/60)*G44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7027,14 +7029,14 @@
         <v>52.5</v>
       </c>
       <c r="H45" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I45" s="2">
         <v>5</v>
       </c>
       <c r="J45" s="80">
-        <f>(I45/60)*G45</f>
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
@@ -7061,14 +7063,14 @@
         <v>52.5</v>
       </c>
       <c r="H46" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I46" s="2">
         <v>5</v>
       </c>
       <c r="J46" s="80">
-        <f>(I46/60)*G46</f>
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
@@ -7095,14 +7097,14 @@
         <v>52.5</v>
       </c>
       <c r="H47" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I47" s="2">
         <v>5</v>
       </c>
       <c r="J47" s="80">
-        <f>(I47/60)*G47</f>
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
@@ -7129,12 +7131,12 @@
         <v>52.5</v>
       </c>
       <c r="H48" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I48" s="68"/>
       <c r="J48" s="80">
-        <f>(I48/60)*G48</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7161,12 +7163,12 @@
         <v>52.5</v>
       </c>
       <c r="H49" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="80">
-        <f>(I49/60)*G49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7193,12 +7195,12 @@
         <v>52.5</v>
       </c>
       <c r="H50" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="80">
-        <f>(I50/60)*G50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7225,12 +7227,12 @@
         <v>52.5</v>
       </c>
       <c r="H51" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="80">
-        <f>(I51/60)*G51</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7257,14 +7259,14 @@
         <v>52.5</v>
       </c>
       <c r="H52" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I52" s="2">
         <v>5</v>
       </c>
       <c r="J52" s="80">
-        <f>(I52/60)*G52</f>
+        <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
@@ -7291,14 +7293,14 @@
         <v>52.5</v>
       </c>
       <c r="H53" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I53" s="2">
         <v>15</v>
       </c>
       <c r="J53" s="80">
-        <f>(I53/60)*G53</f>
+        <f t="shared" si="2"/>
         <v>13.125</v>
       </c>
     </row>
@@ -7325,14 +7327,14 @@
         <v>52.5</v>
       </c>
       <c r="H54" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I54" s="2">
         <v>10</v>
       </c>
       <c r="J54" s="80">
-        <f>(I54/60)*G54</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7359,14 +7361,14 @@
         <v>52.5</v>
       </c>
       <c r="H55" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I55" s="2">
         <v>10</v>
       </c>
       <c r="J55" s="80">
-        <f>(I55/60)*G55</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7393,14 +7395,14 @@
         <v>52.5</v>
       </c>
       <c r="H56" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I56" s="2">
         <v>10</v>
       </c>
       <c r="J56" s="80">
-        <f>(I56/60)*G56</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7427,14 +7429,14 @@
         <v>52.5</v>
       </c>
       <c r="H57" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I57" s="2">
         <v>10</v>
       </c>
       <c r="J57" s="80">
-        <f>(I57/60)*G57</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7461,14 +7463,14 @@
         <v>52.5</v>
       </c>
       <c r="H58" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I58" s="2">
         <v>10</v>
       </c>
       <c r="J58" s="80">
-        <f>(I58/60)*G58</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7495,14 +7497,14 @@
         <v>52.5</v>
       </c>
       <c r="H59" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I59" s="2">
         <v>10</v>
       </c>
       <c r="J59" s="80">
-        <f>(I59/60)*G59</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7529,14 +7531,14 @@
         <v>52.5</v>
       </c>
       <c r="H60" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I60" s="2">
         <v>10</v>
       </c>
       <c r="J60" s="80">
-        <f>(I60/60)*G60</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7563,14 +7565,14 @@
         <v>52.5</v>
       </c>
       <c r="H61" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I61" s="2">
         <v>10</v>
       </c>
       <c r="J61" s="80">
-        <f>(I61/60)*G61</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7597,14 +7599,14 @@
         <v>52.5</v>
       </c>
       <c r="H62" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I62" s="2">
         <v>10</v>
       </c>
       <c r="J62" s="80">
-        <f>(I62/60)*G62</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7631,14 +7633,14 @@
         <v>52.5</v>
       </c>
       <c r="H63" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I63" s="2">
         <v>10</v>
       </c>
       <c r="J63" s="80">
-        <f>(I63/60)*G63</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7665,14 +7667,14 @@
         <v>52.5</v>
       </c>
       <c r="H64" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I64" s="2">
         <v>10</v>
       </c>
       <c r="J64" s="80">
-        <f>(I64/60)*G64</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7699,14 +7701,14 @@
         <v>52.5</v>
       </c>
       <c r="H65" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I65" s="2">
         <v>10</v>
       </c>
       <c r="J65" s="80">
-        <f>(I65/60)*G65</f>
+        <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7733,14 +7735,14 @@
         <v>52.5</v>
       </c>
       <c r="H66" s="87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I66" s="2">
         <v>10</v>
       </c>
       <c r="J66" s="80">
-        <f>(I66/60)*G66</f>
+        <f t="shared" ref="J66:J97" si="3">(I66/60)*G66</f>
         <v>8.75</v>
       </c>
     </row>
@@ -7767,14 +7769,14 @@
         <v>52.5</v>
       </c>
       <c r="H67" s="87">
-        <f t="shared" ref="H67:H72" si="1">(E67/60)*G67</f>
+        <f t="shared" ref="H67:H72" si="4">(E67/60)*G67</f>
         <v>8.75</v>
       </c>
       <c r="I67" s="2">
         <v>10</v>
       </c>
       <c r="J67" s="80">
-        <f>(I67/60)*G67</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -7801,14 +7803,14 @@
         <v>75</v>
       </c>
       <c r="H68" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
       <c r="I68" s="2">
         <v>10</v>
       </c>
       <c r="J68" s="80">
-        <f>(I68/60)*G68</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
@@ -7842,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="J69" s="80">
-        <f>(I69/60)*G69</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
@@ -7874,7 +7876,7 @@
         <v>300</v>
       </c>
       <c r="J70" s="110">
-        <f>(I70/60)*G70</f>
+        <f t="shared" si="3"/>
         <v>375</v>
       </c>
     </row>
@@ -7906,7 +7908,7 @@
         <v>200</v>
       </c>
       <c r="J71" s="110">
-        <f>(I71/60)*G71</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -7933,14 +7935,14 @@
         <v>52.5</v>
       </c>
       <c r="H72" s="108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="I72" s="109">
         <v>120</v>
       </c>
       <c r="J72" s="110">
-        <f>(I72/60)*G72</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\novo\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE67A27-D1E7-4B68-ACDC-19D2383AF568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6DA2F4-3E7F-4D00-BD1E-E7422DBF3152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -353,14 +353,6 @@
     <t>pixelArtistas.php?artista=artistas</t>
   </si>
   <si>
-    <t>Após escolher o artista que você quer acessar, não conseguimos 
-retornar ao link "artistas" a não ser pelo nome</t>
-  </si>
-  <si>
-    <t>Após escolher o artista que você quer acessar, não conseguimos 
-retornar ao link "artistas" a não ser pelo meno</t>
-  </si>
-  <si>
     <t>Vitoria</t>
   </si>
   <si>
@@ -625,6 +617,17 @@
   </si>
   <si>
     <t>Melhoria</t>
+  </si>
+  <si>
+    <t>Após escolher o artista que você quer acessar, não conseguimos 
+retornar ao link "artistas" a não ser pelomenu</t>
+  </si>
+  <si>
+    <t>Após escolher o artista que você quer acessar, não conseguimos 
+retornar ao link "artistas" a não ser pelo menu</t>
+  </si>
+  <si>
+    <t>Item repetido</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,10 +966,6 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,10 +1017,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1181,6 +1176,10 @@
     <xf numFmtId="2" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,11 +1564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1836,28 +1835,28 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="46">
         <v>44126</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="43" t="s">
         <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -2007,7 +2006,7 @@
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2542,34 +2541,34 @@
       <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="43" t="s">
         <v>75</v>
       </c>
       <c r="L22" s="9">
         <v>44126</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="43" t="s">
         <v>35</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2719,8 +2718,8 @@
       <c r="B26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
+      <c r="C26" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>88</v>
@@ -2905,8 +2904,8 @@
       <c r="B30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>94</v>
+      <c r="C30" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>88</v>
@@ -2948,8 +2947,8 @@
       <c r="B31" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>94</v>
+      <c r="C31" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>88</v>
@@ -2989,38 +2988,40 @@
       <c r="B32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="26" t="s">
+      <c r="H32" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="25" t="s">
+      <c r="L32" s="114"/>
+      <c r="M32" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="O32" s="32"/>
     </row>
     <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -3030,39 +3031,43 @@
       <c r="B33" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="26" t="s">
+      <c r="H33" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="25" t="s">
+      <c r="L33" s="114"/>
+      <c r="M33" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N33" s="25"/>
-      <c r="O33" s="32"/>
+      <c r="N33" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -3074,35 +3079,37 @@
       <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="G34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="I34" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="46" t="s">
+      <c r="J34" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45" t="s">
+      <c r="L34" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="43" t="s">
         <v>25</v>
       </c>
       <c r="O34" s="5"/>
@@ -3117,35 +3124,37 @@
       <c r="C35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="I35" s="53" t="s">
+      <c r="H35" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="45" t="s">
+      <c r="K35" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="L35" s="54"/>
-      <c r="M35" s="52" t="s">
+      <c r="L35" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M35" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="45" t="s">
+      <c r="N35" s="43" t="s">
         <v>25</v>
       </c>
       <c r="O35" s="20"/>
@@ -3160,35 +3169,37 @@
       <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="45" t="s">
+      <c r="E36" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="46" t="s">
+      <c r="I36" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="55"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="45" t="s">
+      <c r="N36" s="43" t="s">
         <v>87</v>
       </c>
       <c r="O36" s="2"/>
@@ -3200,36 +3211,40 @@
       <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="97" t="s">
+      <c r="C37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="G37" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="97" t="s">
+      <c r="I37" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="97" t="s">
+      <c r="J37" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="97"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="97" t="s">
+      <c r="K37" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M37" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="97" t="s">
+      <c r="N37" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O37" s="5"/>
@@ -3241,36 +3256,40 @@
       <c r="B38" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="97" t="s">
+      <c r="C38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="97" t="s">
+      <c r="I38" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="97" t="s">
+      <c r="J38" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="K38" s="97"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="97" t="s">
+      <c r="K38" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M38" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="97" t="s">
+      <c r="N38" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O38" s="5"/>
@@ -3282,36 +3301,40 @@
       <c r="B39" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="97" t="s">
+      <c r="C39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="97" t="s">
+      <c r="J39" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="K39" s="97"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="97" t="s">
+      <c r="K39" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M39" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="97" t="s">
+      <c r="N39" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O39" s="5"/>
@@ -3323,34 +3346,40 @@
       <c r="B40" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" s="97" t="s">
+      <c r="C40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="97" t="s">
+      <c r="J40" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="97"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97" t="s">
+      <c r="K40" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="6">
+        <v>44122</v>
+      </c>
+      <c r="M40" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O40" s="5"/>
@@ -3362,23 +3391,23 @@
       <c r="B41" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>94</v>
+      <c r="C41" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
@@ -3397,26 +3426,26 @@
       <c r="B42" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>94</v>
+      <c r="C42" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="I42" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>92</v>
@@ -3434,26 +3463,26 @@
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>16</v>
+      <c r="C43" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="I43" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>92</v>
@@ -3471,26 +3500,26 @@
       <c r="B44" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>16</v>
+      <c r="C44" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="I44" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>92</v>
@@ -3508,39 +3537,39 @@
       <c r="B45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="96" t="s">
+      <c r="C45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="97" t="s">
+      <c r="F45" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="J45" s="99">
+      <c r="J45" s="95">
         <v>43840</v>
       </c>
-      <c r="K45" s="97"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="97" t="s">
+      <c r="K45" s="93"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="97" t="s">
+      <c r="N45" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="56"/>
+      <c r="O45" s="52"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -3549,36 +3578,36 @@
       <c r="B46" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="96" t="s">
+      <c r="C46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" s="97" t="s">
+      <c r="F46" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="I46" s="98" t="s">
+      <c r="H46" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="J46" s="99">
+      <c r="I46" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="J46" s="95">
         <v>43840</v>
       </c>
-      <c r="K46" s="97"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="97" t="s">
+      <c r="K46" s="93"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="N46" s="97" t="s">
+      <c r="N46" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O46" s="5"/>
@@ -3590,36 +3619,36 @@
       <c r="B47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="96" t="s">
+      <c r="C47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="97" t="s">
+      <c r="F47" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="I47" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="J47" s="99">
+      <c r="H47" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="95">
         <v>43840</v>
       </c>
-      <c r="K47" s="97"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="97" t="s">
+      <c r="K47" s="93"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="N47" s="97" t="s">
+      <c r="N47" s="93" t="s">
         <v>87</v>
       </c>
       <c r="O47" s="5"/>
@@ -3631,36 +3660,36 @@
       <c r="B48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="96" t="s">
+      <c r="C48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="97" t="s">
+      <c r="F48" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="I48" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="99">
+      <c r="H48" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="95">
         <v>43840</v>
       </c>
-      <c r="K48" s="97"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="97" t="s">
+      <c r="K48" s="93"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="N48" s="97" t="s">
+      <c r="N48" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O48" s="5"/>
@@ -3675,34 +3704,34 @@
       <c r="C49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="45" t="s">
+      <c r="E49" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="46" t="s">
+      <c r="H49" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="I49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J49" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="45" t="s">
+      <c r="K49" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="48">
+      <c r="L49" s="46">
         <v>44126</v>
       </c>
-      <c r="M49" s="45" t="s">
+      <c r="M49" s="43" t="s">
         <v>34</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3720,34 +3749,34 @@
       <c r="C50" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="45" t="s">
+      <c r="E50" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="46" t="s">
+      <c r="H50" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="46" t="s">
+      <c r="I50" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="45" t="s">
+      <c r="J50" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="45" t="s">
+      <c r="K50" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="48">
+      <c r="L50" s="46">
         <v>44126</v>
       </c>
-      <c r="M50" s="45" t="s">
+      <c r="M50" s="43" t="s">
         <v>34</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -3769,7 +3798,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>39</v>
@@ -3810,34 +3839,34 @@
       <c r="C52" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="45" t="s">
+      <c r="E52" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="47" t="s">
+      <c r="H52" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="46" t="s">
+      <c r="I52" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="45" t="s">
+      <c r="J52" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K52" s="45" t="s">
+      <c r="K52" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="48">
+      <c r="L52" s="46">
         <v>44126</v>
       </c>
-      <c r="M52" s="45" t="s">
+      <c r="M52" s="43" t="s">
         <v>35</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -3855,31 +3884,31 @@
       <c r="C53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="45" t="s">
+      <c r="E53" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J53" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="45" t="s">
+      <c r="K53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="L53" s="48">
+      <c r="L53" s="46">
         <v>44126</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -3897,38 +3926,38 @@
       <c r="B54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="97" t="s">
+      <c r="C54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="102" t="s">
+      <c r="E54" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="97" t="s">
+      <c r="G54" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="98" t="s">
+      <c r="H54" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="98" t="s">
+      <c r="I54" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="97" t="s">
+      <c r="J54" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="97" t="s">
+      <c r="K54" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="L54" s="100"/>
-      <c r="M54" s="97" t="s">
+      <c r="L54" s="96"/>
+      <c r="M54" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N54" s="97" t="s">
+      <c r="N54" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="5"/>
@@ -3940,38 +3969,38 @@
       <c r="B55" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="97" t="s">
+      <c r="C55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="97" t="s">
+      <c r="E55" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="97" t="s">
+      <c r="G55" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="98" t="s">
+      <c r="H55" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="98" t="s">
+      <c r="I55" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="97" t="s">
+      <c r="J55" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="97" t="s">
+      <c r="K55" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="100"/>
-      <c r="M55" s="97" t="s">
+      <c r="L55" s="96"/>
+      <c r="M55" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="97" t="s">
+      <c r="N55" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O55" s="5"/>
@@ -3983,38 +4012,38 @@
       <c r="B56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="97" t="s">
+      <c r="C56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" s="97" t="s">
+      <c r="E56" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="97" t="s">
+      <c r="G56" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="98" t="s">
+      <c r="H56" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="98" t="s">
+      <c r="I56" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="97" t="s">
+      <c r="J56" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="K56" s="97" t="s">
+      <c r="K56" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="100"/>
-      <c r="M56" s="97" t="s">
+      <c r="L56" s="96"/>
+      <c r="M56" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="97" t="s">
+      <c r="N56" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O56" s="5"/>
@@ -4026,38 +4055,38 @@
       <c r="B57" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="97" t="s">
+      <c r="C57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" s="97" t="s">
+      <c r="E57" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="97" t="s">
+      <c r="G57" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="98" t="s">
+      <c r="H57" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="98" t="s">
+      <c r="I57" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="97" t="s">
+      <c r="J57" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="97" t="s">
+      <c r="K57" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="100"/>
-      <c r="M57" s="97" t="s">
+      <c r="L57" s="96"/>
+      <c r="M57" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N57" s="97" t="s">
+      <c r="N57" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="5"/>
@@ -4069,38 +4098,38 @@
       <c r="B58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="97" t="s">
+      <c r="C58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" s="97" t="s">
+      <c r="E58" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="97" t="s">
+      <c r="G58" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="98" t="s">
+      <c r="H58" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="98" t="s">
+      <c r="I58" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="97" t="s">
+      <c r="J58" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="K58" s="97" t="s">
+      <c r="K58" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="100"/>
-      <c r="M58" s="97" t="s">
+      <c r="L58" s="96"/>
+      <c r="M58" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="101" t="s">
+      <c r="N58" s="97" t="s">
         <v>87</v>
       </c>
       <c r="O58" s="5"/>
@@ -4112,38 +4141,42 @@
       <c r="B59" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="C59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="15"/>
-      <c r="M59" s="10" t="s">
+      <c r="L59" s="9">
+        <v>44126</v>
+      </c>
+      <c r="M59" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="10"/>
+      <c r="N59" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,38 +4186,42 @@
       <c r="B60" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="E60" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="L60" s="15"/>
-      <c r="M60" s="10" t="s">
+      <c r="L60" s="9">
+        <v>44126</v>
+      </c>
+      <c r="M60" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="N60" s="10"/>
+      <c r="N60" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4194,38 +4231,42 @@
       <c r="B61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="C61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L61" s="15"/>
-      <c r="M61" s="10" t="s">
+      <c r="L61" s="9">
+        <v>44126</v>
+      </c>
+      <c r="M61" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="N61" s="10"/>
+      <c r="N61" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,38 +4276,42 @@
       <c r="B62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="C62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="E62" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="L62" s="15"/>
-      <c r="M62" s="10" t="s">
+      <c r="L62" s="9">
+        <v>44126</v>
+      </c>
+      <c r="M62" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="N62" s="10"/>
+      <c r="N62" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4276,14 +4321,14 @@
       <c r="B63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>16</v>
+      <c r="C63" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>39</v>
@@ -4307,7 +4352,9 @@
       <c r="M63" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N63" s="10"/>
+      <c r="N63" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4317,14 +4364,14 @@
       <c r="B64" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>16</v>
+      <c r="C64" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>39</v>
@@ -4361,11 +4408,11 @@
       <c r="C65" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="45" t="s">
-        <v>113</v>
+      <c r="E65" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>39</v>
@@ -4410,7 +4457,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>39</v>
@@ -4455,7 +4502,7 @@
         <v>17</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>77</v>
@@ -4496,37 +4543,37 @@
       <c r="C68" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="45" t="s">
+      <c r="E68" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H68" s="46" t="s">
+      <c r="H68" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I68" s="46" t="s">
+      <c r="I68" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K68" s="45" t="s">
+      <c r="K68" s="43" t="s">
         <v>75</v>
       </c>
       <c r="L68" s="9">
         <v>44126</v>
       </c>
-      <c r="M68" s="45" t="s">
+      <c r="M68" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="45" t="s">
+      <c r="N68" s="43" t="s">
         <v>35</v>
       </c>
       <c r="O68" s="5"/>
@@ -4545,7 +4592,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>79</v>
@@ -4554,7 +4601,7 @@
         <v>78</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>82</v>
@@ -5516,10 +5563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCABBE-0E49-485E-803F-BC21345278E9}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5537,35 +5584,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="G1" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="86" t="s">
-        <v>179</v>
+      <c r="J1" s="82" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5578,27 +5625,27 @@
       <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="53">
         <v>20</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="54">
         <v>360</v>
       </c>
-      <c r="F2" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="60">
+      <c r="F2" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="56">
         <v>75</v>
       </c>
-      <c r="H2" s="87">
+      <c r="H2" s="83">
         <f>(E2/60)*G2</f>
         <v>450</v>
       </c>
       <c r="I2" s="2">
         <v>400</v>
       </c>
-      <c r="J2" s="80">
-        <f t="shared" ref="J2:J33" si="0">(I2/60)*G2</f>
+      <c r="J2" s="76">
+        <f t="shared" ref="J2:J32" si="0">(I2/60)*G2</f>
         <v>500</v>
       </c>
     </row>
@@ -5612,26 +5659,26 @@
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="53">
         <v>60</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>60</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="60">
+      <c r="F3" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="56">
         <v>52.5</v>
       </c>
-      <c r="H3" s="87">
-        <f t="shared" ref="H3:H66" si="1">(E3/60)*G3</f>
+      <c r="H3" s="83">
+        <f t="shared" ref="H3:H65" si="1">(E3/60)*G3</f>
         <v>52.5</v>
       </c>
       <c r="I3" s="2">
         <v>50</v>
       </c>
-      <c r="J3" s="80">
+      <c r="J3" s="76">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
@@ -5646,26 +5693,26 @@
       <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="57">
-        <v>10</v>
-      </c>
-      <c r="E4" s="58">
-        <v>10</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="60">
+      <c r="D4" s="53">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
+        <v>10</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="56">
         <v>52.5</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="80">
+      <c r="J4" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5680,26 +5727,26 @@
       <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="57">
-        <v>10</v>
-      </c>
-      <c r="E5" s="58">
-        <v>10</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="60">
+      <c r="D5" s="53">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
+        <v>10</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="56">
         <v>52.5</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I5" s="2">
         <v>18</v>
       </c>
-      <c r="J5" s="80">
+      <c r="J5" s="76">
         <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
@@ -5714,26 +5761,26 @@
       <c r="C6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="53">
         <v>15</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="54">
         <v>20</v>
       </c>
-      <c r="F6" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="60">
+      <c r="F6" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="56">
         <v>52.5</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="83">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="76">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -5748,32 +5795,32 @@
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="53">
         <v>15</v>
       </c>
-      <c r="E7" s="58">
-        <v>10</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="60">
+      <c r="E7" s="54">
+        <v>10</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="56">
         <v>75</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="83">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="I7" s="2">
         <v>20</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="76">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -5782,26 +5829,26 @@
       <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="57">
-        <v>10</v>
-      </c>
-      <c r="E8" s="58">
-        <v>10</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="60">
+      <c r="D8" s="53">
+        <v>10</v>
+      </c>
+      <c r="E8" s="54">
+        <v>10</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="56">
         <v>52.5</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="80">
+      <c r="J8" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5816,26 +5863,26 @@
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="57">
-        <v>10</v>
-      </c>
-      <c r="E9" s="58">
-        <v>10</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="60">
+      <c r="D9" s="53">
+        <v>10</v>
+      </c>
+      <c r="E9" s="54">
+        <v>10</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="56">
         <v>52.5</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="80">
+      <c r="J9" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5850,26 +5897,26 @@
       <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="57">
-        <v>10</v>
-      </c>
-      <c r="E10" s="58">
-        <v>10</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="60">
+      <c r="D10" s="53">
+        <v>10</v>
+      </c>
+      <c r="E10" s="54">
+        <v>10</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="56">
         <v>52.5</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5884,26 +5931,26 @@
       <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="57">
-        <v>10</v>
-      </c>
-      <c r="E11" s="58">
-        <v>10</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="60">
+      <c r="D11" s="53">
+        <v>10</v>
+      </c>
+      <c r="E11" s="54">
+        <v>10</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="56">
         <v>52.5</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="80">
+      <c r="J11" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5918,26 +5965,26 @@
       <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="57">
-        <v>10</v>
-      </c>
-      <c r="E12" s="58">
-        <v>10</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="60">
+      <c r="D12" s="53">
+        <v>10</v>
+      </c>
+      <c r="E12" s="54">
+        <v>10</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="56">
         <v>52.5</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5952,26 +5999,26 @@
       <c r="C13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="57">
-        <v>10</v>
-      </c>
-      <c r="E13" s="58">
-        <v>10</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="60">
+      <c r="D13" s="53">
+        <v>10</v>
+      </c>
+      <c r="E13" s="54">
+        <v>10</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="56">
         <v>52.5</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5986,26 +6033,26 @@
       <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="53">
         <v>15</v>
       </c>
-      <c r="E14" s="58">
-        <v>10</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="60">
+      <c r="E14" s="54">
+        <v>10</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="56">
         <v>52.5</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6020,26 +6067,26 @@
       <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="53">
         <v>15</v>
       </c>
-      <c r="E15" s="58">
-        <v>10</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="60">
+      <c r="E15" s="54">
+        <v>10</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="56">
         <v>52.5</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="80">
+      <c r="J15" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6054,26 +6101,26 @@
       <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="57">
-        <v>10</v>
-      </c>
-      <c r="E16" s="58">
-        <v>10</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="60">
+      <c r="D16" s="53">
+        <v>10</v>
+      </c>
+      <c r="E16" s="54">
+        <v>10</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="56">
         <v>52.5</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6088,26 +6135,26 @@
       <c r="C17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="57">
-        <v>10</v>
-      </c>
-      <c r="E17" s="58">
-        <v>10</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="60">
+      <c r="D17" s="53">
+        <v>10</v>
+      </c>
+      <c r="E17" s="54">
+        <v>10</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="56">
         <v>52.5</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6122,26 +6169,26 @@
       <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="57">
-        <v>10</v>
-      </c>
-      <c r="E18" s="58">
-        <v>10</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="60">
+      <c r="D18" s="53">
+        <v>10</v>
+      </c>
+      <c r="E18" s="54">
+        <v>10</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="56">
         <v>52.5</v>
       </c>
-      <c r="H18" s="87">
+      <c r="H18" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6156,26 +6203,26 @@
       <c r="C19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="57">
-        <v>10</v>
-      </c>
-      <c r="E19" s="58">
-        <v>10</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="60">
+      <c r="D19" s="53">
+        <v>10</v>
+      </c>
+      <c r="E19" s="54">
+        <v>10</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="56">
         <v>52.5</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="80">
+      <c r="J19" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6190,26 +6237,26 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="57">
-        <v>10</v>
-      </c>
-      <c r="E20" s="58">
-        <v>10</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="60">
+      <c r="D20" s="53">
+        <v>10</v>
+      </c>
+      <c r="E20" s="54">
+        <v>10</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="56">
         <v>52.5</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6224,26 +6271,26 @@
       <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="53">
         <v>15</v>
       </c>
-      <c r="E21" s="58">
-        <v>10</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="60">
+      <c r="E21" s="54">
+        <v>10</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="56">
         <v>52.5</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6258,26 +6305,26 @@
       <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="53">
         <v>15</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <v>15</v>
       </c>
-      <c r="F22" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="60">
+      <c r="F22" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="56">
         <v>75</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="83">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I22" s="2">
         <v>40</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="76">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -6292,26 +6339,26 @@
       <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="53">
         <v>15</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <v>15</v>
       </c>
-      <c r="F23" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="60">
+      <c r="F23" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="56">
         <v>75</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="83">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I23" s="2">
         <v>30</v>
       </c>
-      <c r="J23" s="80">
+      <c r="J23" s="76">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -6326,716 +6373,728 @@
       <c r="C24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="53">
         <v>30</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="54">
         <v>15</v>
       </c>
-      <c r="F24" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="60">
+      <c r="F24" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="56">
         <v>75</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="83">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I24" s="2">
         <v>20</v>
       </c>
-      <c r="J24" s="80">
+      <c r="J24" s="76">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="53">
         <v>30</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="54">
         <v>15</v>
       </c>
-      <c r="F25" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="60">
+      <c r="F25" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="56">
         <v>75</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="83">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I25" s="2">
         <v>20</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="76">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="61">
         <v>20</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="62">
         <v>20</v>
       </c>
-      <c r="F26" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="60">
+      <c r="F26" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="56">
         <v>52.5</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="83">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="80">
+      <c r="J26" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="61">
         <v>15</v>
       </c>
-      <c r="E27" s="66">
-        <v>10</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="60">
+      <c r="E27" s="62">
+        <v>10</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="56">
         <v>52.5</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H27" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="80">
+      <c r="J27" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="61">
         <v>15</v>
       </c>
-      <c r="E28" s="66">
-        <v>10</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="60">
+      <c r="E28" s="62">
+        <v>10</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="56">
         <v>52.5</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
-      <c r="J28" s="80">
+      <c r="J28" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="61">
         <v>15</v>
       </c>
-      <c r="E29" s="66">
-        <v>10</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="60">
+      <c r="E29" s="62">
+        <v>10</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="56">
         <v>52.5</v>
       </c>
-      <c r="H29" s="87">
+      <c r="H29" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="61">
         <v>15</v>
       </c>
-      <c r="E30" s="66">
-        <v>10</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="60">
+      <c r="E30" s="62">
+        <v>10</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="56">
         <v>52.5</v>
       </c>
-      <c r="H30" s="87">
+      <c r="H30" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I30" s="2">
         <v>10</v>
       </c>
-      <c r="J30" s="80">
+      <c r="J30" s="76">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="65">
-        <v>10</v>
-      </c>
-      <c r="E31" s="66">
+      <c r="D31" s="61">
+        <v>10</v>
+      </c>
+      <c r="E31" s="62">
         <v>15</v>
       </c>
-      <c r="F31" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="60">
+      <c r="F31" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="56">
         <v>52.5</v>
       </c>
-      <c r="H31" s="87">
+      <c r="H31" s="83">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="80">
+      <c r="J31" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="65">
-        <v>10</v>
-      </c>
-      <c r="E32" s="66">
+      <c r="C32" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="61">
+        <v>10</v>
+      </c>
+      <c r="E32" s="62">
         <v>15</v>
       </c>
-      <c r="F32" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="60">
+      <c r="F32" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="56">
         <v>52.5</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H32" s="83">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="80">
+      <c r="I32" s="2">
+        <v>40</v>
+      </c>
+      <c r="J32" s="76">
         <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="53">
+        <v>10</v>
+      </c>
+      <c r="E33" s="54">
+        <v>60</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="56">
+        <v>75</v>
+      </c>
+      <c r="H33" s="83">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I33" s="2">
+        <v>90</v>
+      </c>
+      <c r="J33" s="76">
+        <f t="shared" ref="J33:J64" si="2">(I33/60)*G33</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="53">
+        <v>10</v>
+      </c>
+      <c r="E34" s="54">
+        <v>30</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="56">
+        <v>75</v>
+      </c>
+      <c r="H34" s="83">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>20</v>
+      </c>
+      <c r="J34" s="76">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="53">
+        <v>10</v>
+      </c>
+      <c r="E35" s="54">
+        <v>30</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="56">
+        <v>75</v>
+      </c>
+      <c r="H35" s="83">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>20</v>
+      </c>
+      <c r="J35" s="76">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="53">
+        <v>10</v>
+      </c>
+      <c r="E36" s="54">
+        <v>30</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="56">
+        <v>75</v>
+      </c>
+      <c r="H36" s="83">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20</v>
+      </c>
+      <c r="J36" s="76">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="53">
+        <v>10</v>
+      </c>
+      <c r="E37" s="54">
+        <v>20</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H37" s="83">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="76">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="53">
+        <v>10</v>
+      </c>
+      <c r="E38" s="54">
+        <v>20</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H38" s="83">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="76">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="53">
+        <v>10</v>
+      </c>
+      <c r="E39" s="54">
+        <v>60</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H39" s="83">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>30</v>
+      </c>
+      <c r="J39" s="76">
+        <f t="shared" si="2"/>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="53">
+        <v>10</v>
+      </c>
+      <c r="E40" s="54">
+        <v>60</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H40" s="83">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="76">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="65">
-        <v>10</v>
-      </c>
-      <c r="E33" s="66">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="53">
+        <v>10</v>
+      </c>
+      <c r="E41" s="54">
         <v>15</v>
       </c>
-      <c r="F33" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="60">
+      <c r="F41" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="56">
         <v>52.5</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H41" s="83">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="57">
-        <v>10</v>
-      </c>
-      <c r="E34" s="58">
-        <v>60</v>
-      </c>
-      <c r="F34" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="60">
-        <v>75</v>
-      </c>
-      <c r="H34" s="87">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="80">
-        <f t="shared" ref="J34:J65" si="2">(I34/60)*G34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="57">
-        <v>10</v>
-      </c>
-      <c r="E35" s="58">
-        <v>30</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="60">
-        <v>75</v>
-      </c>
-      <c r="H35" s="87">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="80">
+      <c r="I41" s="2"/>
+      <c r="J41" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="5" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="53">
+        <v>10</v>
+      </c>
+      <c r="E42" s="54">
         <v>20</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="57">
-        <v>10</v>
-      </c>
-      <c r="E36" s="58">
-        <v>30</v>
-      </c>
-      <c r="F36" s="59" t="s">
+      <c r="F42" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="60">
-        <v>75</v>
-      </c>
-      <c r="H36" s="87">
+      <c r="G42" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H42" s="83">
         <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="80">
+        <v>17.5</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="5" t="s">
+    <row r="43" spans="1:10" s="88" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="61">
+        <v>10</v>
+      </c>
+      <c r="E43" s="62">
         <v>20</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="57">
-        <v>10</v>
-      </c>
-      <c r="E37" s="58">
-        <v>30</v>
-      </c>
-      <c r="F37" s="59" t="s">
+      <c r="F43" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="60">
-        <v>75</v>
-      </c>
-      <c r="H37" s="87">
+      <c r="G43" s="85">
+        <v>52.5</v>
+      </c>
+      <c r="H43" s="86">
         <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="80">
+        <v>17.5</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="57">
-        <v>10</v>
-      </c>
-      <c r="E38" s="58">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="60">
+      <c r="C44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="53">
+        <v>10</v>
+      </c>
+      <c r="E44" s="54">
+        <v>10</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="56">
         <v>52.5</v>
       </c>
-      <c r="H38" s="87">
+      <c r="H44" s="83">
         <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="I38" s="2">
-        <v>10</v>
-      </c>
-      <c r="J38" s="80">
+        <v>8.75</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5</v>
+      </c>
+      <c r="J44" s="76">
         <f t="shared" si="2"/>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="57">
-        <v>10</v>
-      </c>
-      <c r="E39" s="58">
-        <v>20</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H39" s="87">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="I39" s="2">
-        <v>10</v>
-      </c>
-      <c r="J39" s="80">
-        <f t="shared" si="2"/>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="57">
-        <v>10</v>
-      </c>
-      <c r="E40" s="58">
-        <v>60</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H40" s="87">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
-      </c>
-      <c r="I40" s="2">
-        <v>30</v>
-      </c>
-      <c r="J40" s="80">
-        <f t="shared" si="2"/>
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="57">
-        <v>10</v>
-      </c>
-      <c r="E41" s="58">
-        <v>60</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H41" s="87">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="57">
-        <v>10</v>
-      </c>
-      <c r="E42" s="58">
-        <v>15</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H42" s="87">
-        <f t="shared" si="1"/>
-        <v>13.125</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="57">
-        <v>10</v>
-      </c>
-      <c r="E43" s="58">
-        <v>20</v>
-      </c>
-      <c r="F43" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H43" s="87">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="92" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="65">
-        <v>10</v>
-      </c>
-      <c r="E44" s="66">
-        <v>20</v>
-      </c>
-      <c r="F44" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="89">
-        <v>52.5</v>
-      </c>
-      <c r="H44" s="90">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="57">
-        <v>10</v>
-      </c>
-      <c r="E45" s="58">
-        <v>10</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="60">
+        <v>146</v>
+      </c>
+      <c r="D45" s="53">
+        <v>10</v>
+      </c>
+      <c r="E45" s="54">
+        <v>10</v>
+      </c>
+      <c r="F45" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="56">
         <v>52.5</v>
       </c>
-      <c r="H45" s="87">
+      <c r="H45" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I45" s="2">
         <v>5</v>
       </c>
-      <c r="J45" s="80">
+      <c r="J45" s="76">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -7050,324 +7109,324 @@
       <c r="C46" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="57">
-        <v>10</v>
-      </c>
-      <c r="E46" s="58">
-        <v>10</v>
-      </c>
-      <c r="F46" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="60">
+      <c r="D46" s="53">
+        <v>10</v>
+      </c>
+      <c r="E46" s="54">
+        <v>10</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="56">
         <v>52.5</v>
       </c>
-      <c r="H46" s="87">
+      <c r="H46" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I46" s="2">
         <v>5</v>
       </c>
-      <c r="J46" s="80">
+      <c r="J46" s="76">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="57">
-        <v>10</v>
-      </c>
-      <c r="E47" s="58">
-        <v>10</v>
-      </c>
-      <c r="F47" s="61" t="s">
+      <c r="C47" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="60">
+      <c r="D47" s="53">
+        <v>10</v>
+      </c>
+      <c r="E47" s="54">
+        <v>15</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="56">
         <v>52.5</v>
       </c>
-      <c r="H47" s="87">
+      <c r="H47" s="83">
+        <f t="shared" si="1"/>
+        <v>13.125</v>
+      </c>
+      <c r="I47" s="64"/>
+      <c r="J47" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="53">
+        <v>20</v>
+      </c>
+      <c r="E48" s="54">
+        <v>10</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H48" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I48" s="2"/>
+      <c r="J48" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="53">
+        <v>10</v>
+      </c>
+      <c r="E49" s="54">
+        <v>10</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H49" s="83">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="53">
+        <v>10</v>
+      </c>
+      <c r="E50" s="54">
+        <v>10</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H50" s="83">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="53">
+        <v>10</v>
+      </c>
+      <c r="E51" s="54">
+        <v>10</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="56">
+        <v>52.5</v>
+      </c>
+      <c r="H51" s="83">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J47" s="80">
+      <c r="J51" s="76">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="57">
-        <v>10</v>
-      </c>
-      <c r="E48" s="58">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="53">
         <v>15</v>
       </c>
-      <c r="F48" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="60">
+      <c r="E52" s="54">
+        <v>15</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="56">
         <v>52.5</v>
       </c>
-      <c r="H48" s="87">
+      <c r="H52" s="83">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="80">
+      <c r="I52" s="2">
+        <v>15</v>
+      </c>
+      <c r="J52" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="57">
-        <v>20</v>
-      </c>
-      <c r="E49" s="58">
-        <v>10</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="60">
+        <v>13.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="53">
+        <v>10</v>
+      </c>
+      <c r="E53" s="54">
+        <v>10</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="56">
         <v>52.5</v>
       </c>
-      <c r="H49" s="87">
+      <c r="H53" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="80">
+      <c r="I53" s="2">
+        <v>10</v>
+      </c>
+      <c r="J53" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="57">
-        <v>10</v>
-      </c>
-      <c r="E50" s="58">
-        <v>10</v>
-      </c>
-      <c r="F50" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="60">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="53">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54">
+        <v>10</v>
+      </c>
+      <c r="F54" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="56">
         <v>52.5</v>
       </c>
-      <c r="H50" s="87">
+      <c r="H54" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="80">
+      <c r="I54" s="2">
+        <v>10</v>
+      </c>
+      <c r="J54" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="57">
-        <v>10</v>
-      </c>
-      <c r="E51" s="58">
-        <v>10</v>
-      </c>
-      <c r="F51" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="60">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="53">
+        <v>10</v>
+      </c>
+      <c r="E55" s="54">
+        <v>10</v>
+      </c>
+      <c r="F55" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="56">
         <v>52.5</v>
       </c>
-      <c r="H51" s="87">
+      <c r="H55" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="57">
-        <v>10</v>
-      </c>
-      <c r="E52" s="58">
-        <v>10</v>
-      </c>
-      <c r="F52" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H52" s="87">
-        <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
-      <c r="I52" s="2">
-        <v>5</v>
-      </c>
-      <c r="J52" s="80">
-        <f t="shared" si="2"/>
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="57">
-        <v>15</v>
-      </c>
-      <c r="E53" s="58">
-        <v>15</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H53" s="87">
-        <f t="shared" si="1"/>
-        <v>13.125</v>
-      </c>
-      <c r="I53" s="2">
-        <v>15</v>
-      </c>
-      <c r="J53" s="80">
-        <f t="shared" si="2"/>
-        <v>13.125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="57">
-        <v>10</v>
-      </c>
-      <c r="E54" s="58">
-        <v>10</v>
-      </c>
-      <c r="F54" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H54" s="87">
-        <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
-      <c r="I54" s="2">
-        <v>10</v>
-      </c>
-      <c r="J54" s="80">
-        <f t="shared" si="2"/>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="57">
-        <v>10</v>
-      </c>
-      <c r="E55" s="58">
-        <v>10</v>
-      </c>
-      <c r="F55" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H55" s="87">
-        <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
       <c r="I55" s="2">
         <v>10</v>
       </c>
-      <c r="J55" s="80">
+      <c r="J55" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7382,60 +7441,60 @@
       <c r="C56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="57">
-        <v>10</v>
-      </c>
-      <c r="E56" s="58">
-        <v>10</v>
-      </c>
-      <c r="F56" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="60">
+      <c r="D56" s="53">
+        <v>10</v>
+      </c>
+      <c r="E56" s="54">
+        <v>10</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="56">
         <v>52.5</v>
       </c>
-      <c r="H56" s="87">
+      <c r="H56" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I56" s="2">
         <v>10</v>
       </c>
-      <c r="J56" s="80">
+      <c r="J56" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="57">
-        <v>10</v>
-      </c>
-      <c r="E57" s="58">
-        <v>10</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G57" s="60">
+        <v>59</v>
+      </c>
+      <c r="D57" s="53">
+        <v>15</v>
+      </c>
+      <c r="E57" s="54">
+        <v>10</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="56">
         <v>52.5</v>
       </c>
-      <c r="H57" s="87">
+      <c r="H57" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I57" s="2">
         <v>10</v>
       </c>
-      <c r="J57" s="80">
+      <c r="J57" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7445,65 +7504,65 @@
         <v>39</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="57">
-        <v>15</v>
-      </c>
-      <c r="E58" s="58">
-        <v>10</v>
-      </c>
-      <c r="F58" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="60">
+        <v>61</v>
+      </c>
+      <c r="D58" s="53">
+        <v>10</v>
+      </c>
+      <c r="E58" s="54">
+        <v>10</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="56">
         <v>52.5</v>
       </c>
-      <c r="H58" s="87">
+      <c r="H58" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I58" s="2">
         <v>10</v>
       </c>
-      <c r="J58" s="80">
+      <c r="J58" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="57">
-        <v>10</v>
-      </c>
-      <c r="E59" s="58">
-        <v>10</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" s="60">
+        <v>66</v>
+      </c>
+      <c r="D59" s="53">
+        <v>15</v>
+      </c>
+      <c r="E59" s="54">
+        <v>10</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="56">
         <v>52.5</v>
       </c>
-      <c r="H59" s="87">
+      <c r="H59" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I59" s="2">
         <v>10</v>
       </c>
-      <c r="J59" s="80">
+      <c r="J59" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7513,65 +7572,65 @@
         <v>64</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="57">
+      <c r="D60" s="53">
         <v>15</v>
       </c>
-      <c r="E60" s="58">
-        <v>10</v>
-      </c>
-      <c r="F60" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G60" s="60">
+      <c r="E60" s="54">
+        <v>10</v>
+      </c>
+      <c r="F60" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="56">
         <v>52.5</v>
       </c>
-      <c r="H60" s="87">
+      <c r="H60" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I60" s="2">
         <v>10</v>
       </c>
-      <c r="J60" s="80">
+      <c r="J60" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="57">
-        <v>15</v>
-      </c>
-      <c r="E61" s="58">
-        <v>10</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G61" s="60">
+        <v>61</v>
+      </c>
+      <c r="D61" s="53">
+        <v>10</v>
+      </c>
+      <c r="E61" s="54">
+        <v>10</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="56">
         <v>52.5</v>
       </c>
-      <c r="H61" s="87">
+      <c r="H61" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I61" s="2">
         <v>10</v>
       </c>
-      <c r="J61" s="80">
+      <c r="J61" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7581,31 +7640,31 @@
         <v>39</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="57">
-        <v>10</v>
-      </c>
-      <c r="E62" s="58">
-        <v>10</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G62" s="60">
+      <c r="D62" s="53">
+        <v>10</v>
+      </c>
+      <c r="E62" s="54">
+        <v>10</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="56">
         <v>52.5</v>
       </c>
-      <c r="H62" s="87">
+      <c r="H62" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I62" s="2">
         <v>10</v>
       </c>
-      <c r="J62" s="80">
+      <c r="J62" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7615,31 +7674,31 @@
         <v>39</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="57">
-        <v>10</v>
-      </c>
-      <c r="E63" s="58">
-        <v>10</v>
-      </c>
-      <c r="F63" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G63" s="60">
+        <v>41</v>
+      </c>
+      <c r="D63" s="53">
+        <v>10</v>
+      </c>
+      <c r="E63" s="54">
+        <v>10</v>
+      </c>
+      <c r="F63" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" s="56">
         <v>52.5</v>
       </c>
-      <c r="H63" s="87">
+      <c r="H63" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I63" s="2">
         <v>10</v>
       </c>
-      <c r="J63" s="80">
+      <c r="J63" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7649,31 +7708,31 @@
         <v>39</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="57">
-        <v>10</v>
-      </c>
-      <c r="E64" s="58">
-        <v>10</v>
-      </c>
-      <c r="F64" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="60">
+        <v>61</v>
+      </c>
+      <c r="D64" s="53">
+        <v>10</v>
+      </c>
+      <c r="E64" s="54">
+        <v>10</v>
+      </c>
+      <c r="F64" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="56">
         <v>52.5</v>
       </c>
-      <c r="H64" s="87">
+      <c r="H64" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I64" s="2">
         <v>10</v>
       </c>
-      <c r="J64" s="80">
+      <c r="J64" s="76">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7683,360 +7742,326 @@
         <v>39</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="57">
-        <v>10</v>
-      </c>
-      <c r="E65" s="58">
-        <v>10</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65" s="60">
+        <v>41</v>
+      </c>
+      <c r="D65" s="53">
+        <v>10</v>
+      </c>
+      <c r="E65" s="54">
+        <v>10</v>
+      </c>
+      <c r="F65" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="56">
         <v>52.5</v>
       </c>
-      <c r="H65" s="87">
+      <c r="H65" s="83">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I65" s="2">
         <v>10</v>
       </c>
-      <c r="J65" s="80">
-        <f t="shared" si="2"/>
+      <c r="J65" s="76">
+        <f t="shared" ref="J65:J71" si="3">(I65/60)*G65</f>
         <v>8.75</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="57">
-        <v>10</v>
-      </c>
-      <c r="E66" s="58">
-        <v>10</v>
-      </c>
-      <c r="F66" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G66" s="60">
+        <v>64</v>
+      </c>
+      <c r="D66" s="53">
+        <v>10</v>
+      </c>
+      <c r="E66" s="54">
+        <v>10</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="56">
         <v>52.5</v>
       </c>
-      <c r="H66" s="87">
-        <f t="shared" si="1"/>
+      <c r="H66" s="83">
+        <f t="shared" ref="H66:H71" si="4">(E66/60)*G66</f>
         <v>8.75</v>
       </c>
       <c r="I66" s="2">
         <v>10</v>
       </c>
-      <c r="J66" s="80">
-        <f t="shared" ref="J66:J97" si="3">(I66/60)*G66</f>
+      <c r="J66" s="76">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="57">
-        <v>10</v>
-      </c>
-      <c r="E67" s="58">
-        <v>10</v>
-      </c>
-      <c r="F67" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G67" s="60">
-        <v>52.5</v>
-      </c>
-      <c r="H67" s="87">
-        <f t="shared" ref="H67:H72" si="4">(E67/60)*G67</f>
-        <v>8.75</v>
-      </c>
-      <c r="I67" s="2">
-        <v>10</v>
-      </c>
-      <c r="J67" s="80">
-        <f t="shared" si="3"/>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D67" s="53">
         <v>20</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E67" s="54">
         <v>30</v>
       </c>
-      <c r="F68" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="G68" s="60">
+      <c r="F67" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G67" s="56">
         <v>75</v>
       </c>
-      <c r="H68" s="87">
+      <c r="H67" s="83">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="I68" s="2">
-        <v>10</v>
-      </c>
-      <c r="J68" s="80">
+      <c r="I67" s="2">
+        <v>10</v>
+      </c>
+      <c r="J67" s="76">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="69" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B68" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C68" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="70">
+      <c r="D68" s="66">
         <v>20</v>
       </c>
-      <c r="E69" s="71">
+      <c r="E68" s="67">
         <v>30</v>
       </c>
-      <c r="F69" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="81">
+      <c r="F68" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="77">
         <v>75</v>
       </c>
-      <c r="H69" s="87">
-        <f>(E69/60)*G69</f>
+      <c r="H68" s="83">
+        <f>(E68/60)*G68</f>
         <v>37.5</v>
       </c>
-      <c r="I69" s="2">
-        <v>10</v>
-      </c>
-      <c r="J69" s="80">
+      <c r="I68" s="2">
+        <v>10</v>
+      </c>
+      <c r="J68" s="76">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="100"/>
+      <c r="E69" s="101">
+        <v>420</v>
+      </c>
+      <c r="F69" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="103">
+        <v>75</v>
+      </c>
+      <c r="H69" s="104">
+        <f>(E69/60)*G69</f>
+        <v>525</v>
+      </c>
+      <c r="I69" s="105">
+        <v>300</v>
+      </c>
+      <c r="J69" s="106">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+    </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="103" t="s">
+      <c r="A70" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="B70" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="104"/>
-      <c r="E70" s="105">
+      <c r="C70" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="100"/>
+      <c r="E70" s="101">
         <v>420</v>
       </c>
-      <c r="F70" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="G70" s="107">
+      <c r="F70" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="G70" s="103">
         <v>75</v>
       </c>
-      <c r="H70" s="108">
+      <c r="H70" s="104">
         <f>(E70/60)*G70</f>
         <v>525</v>
       </c>
-      <c r="I70" s="109">
-        <v>300</v>
-      </c>
-      <c r="J70" s="110">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="104"/>
-      <c r="E71" s="105">
-        <v>420</v>
-      </c>
-      <c r="F71" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71" s="107">
-        <v>75</v>
-      </c>
-      <c r="H71" s="108">
-        <f>(E71/60)*G71</f>
-        <v>525</v>
-      </c>
-      <c r="I71" s="109">
+      <c r="I70" s="105">
         <v>200</v>
       </c>
-      <c r="J71" s="110">
+      <c r="J70" s="106">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="111" t="s">
+    <row r="71" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="D72" s="113">
+      <c r="D71" s="109">
         <v>30</v>
       </c>
-      <c r="E72" s="114">
+      <c r="E71" s="110">
         <v>480</v>
       </c>
-      <c r="F72" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="G72" s="116">
+      <c r="F71" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G71" s="112">
         <v>52.5</v>
       </c>
-      <c r="H72" s="108">
+      <c r="H71" s="104">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="I72" s="109">
+      <c r="I71" s="105">
         <v>120</v>
       </c>
-      <c r="J72" s="110">
+      <c r="J71" s="106">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="90"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
+    </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="94"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="77"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C74" s="72"/>
-      <c r="D74" s="73"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="75"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="93" t="s">
+      <c r="C75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="75">
+        <f>SUM(D2:D71)/60</f>
+        <v>15.25</v>
+      </c>
+      <c r="E75" s="76">
+        <f>D75*60</f>
+        <v>915</v>
+      </c>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C76" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="75">
+        <f>SUM(E2:E71)/60</f>
+        <v>45.75</v>
+      </c>
+      <c r="E76" s="76">
+        <f>SUM(H2:H71)</f>
+        <v>2956.875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C77" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="75">
+        <f>SUM(I2:I71)/60</f>
+        <v>30.75</v>
+      </c>
+      <c r="E77" s="76">
+        <f>SUM(J2:J71)</f>
+        <v>2064.375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C78" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="75">
+        <f>D75+D76</f>
+        <v>61</v>
+      </c>
+      <c r="E78" s="76">
+        <f>E75+E76</f>
+        <v>3871.875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C79" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D75" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C76" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="79">
-        <f>SUM(D2:D72)/60</f>
-        <v>15.416666666666666</v>
-      </c>
-      <c r="E76" s="80">
-        <f>D76*60</f>
-        <v>925</v>
-      </c>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C77" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="79">
-        <f>SUM(E2:E72)/60</f>
+      <c r="D79" s="75">
+        <f>D75+D77</f>
         <v>46</v>
       </c>
-      <c r="E77" s="80">
-        <f>SUM(H2:H72)</f>
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C78" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="79">
-        <f>SUM(I2:I72)/60</f>
-        <v>27.583333333333332</v>
-      </c>
-      <c r="E78" s="80">
-        <f>SUM(J2:J72)</f>
-        <v>1841.875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C79" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="79">
-        <f>D76+D77</f>
-        <v>61.416666666666664</v>
-      </c>
-      <c r="E79" s="80">
-        <f>E76+E77</f>
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C80" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="79">
-        <f>D76+D78</f>
-        <v>43</v>
-      </c>
-      <c r="E80" s="80">
-        <f>E76+E78</f>
-        <v>2766.875</v>
+      <c r="E79" s="76">
+        <f>E75+E77</f>
+        <v>2979.375</v>
       </c>
     </row>
   </sheetData>
@@ -8062,40 +8087,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
-        <v>154</v>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
-        <v>155</v>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38" t="s">
-        <v>156</v>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8103,67 +8128,67 @@
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+    <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="38" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="39" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
+    <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="38" t="s">
+    </row>
+    <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42" t="s">
+    <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="43" t="s">
+    <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="42" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="44" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\novo\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6DA2F4-3E7F-4D00-BD1E-E7422DBF3152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A8D01D-405B-4014-BAB0-2C58CBA334D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Crítico</t>
-  </si>
-  <si>
-    <t>Não Atribuido</t>
   </si>
   <si>
     <t>João</t>
@@ -634,10 +631,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="167" formatCode="&quot;R$ &quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -878,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,22 +884,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,12 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,17 +934,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,12 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,12 +1094,6 @@
     <xf numFmtId="14" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,7 +1140,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,10 +1539,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1646,41 +1620,41 @@
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1688,406 +1662,406 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="103">
+        <v>44118</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="9">
-        <v>44118</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="103">
+        <v>44112</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="9">
-        <v>44112</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="L5" s="103">
         <v>44118</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="I6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="46">
+      <c r="L6" s="104">
         <v>44126</v>
       </c>
-      <c r="M6" s="43" t="s">
-        <v>35</v>
+      <c r="M6" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="L7" s="103">
         <v>44126</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="103">
+        <v>44119</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="9">
-        <v>44119</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="103">
+        <v>44119</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="9">
-        <v>44119</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>46</v>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="103">
+        <v>44119</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9">
-        <v>44119</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="103">
+        <v>44119</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="9">
-        <v>44119</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2096,133 +2070,133 @@
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>57</v>
+      <c r="I12" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="103">
+        <v>44119</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="9">
-        <v>44119</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="L14" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -2231,129 +2205,133 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="L15" s="103">
         <v>44126</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="104">
+        <v>44138</v>
+      </c>
+      <c r="M17" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -2362,264 +2340,268 @@
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="5"/>
+      <c r="L18" s="104">
+        <v>44139</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="9">
+        <v>74</v>
+      </c>
+      <c r="L19" s="103">
         <v>44118</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>27</v>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="9">
+        <v>74</v>
+      </c>
+      <c r="L20" s="103">
         <v>44118</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="9">
+        <v>74</v>
+      </c>
+      <c r="L21" s="103">
         <v>44118</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="H22" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="I22" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="9">
+      <c r="J22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="103">
         <v>44126</v>
       </c>
-      <c r="M22" s="43" t="s">
-        <v>35</v>
+      <c r="M22" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="L23" s="103">
         <v>44126</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -2628,445 +2610,455 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>27</v>
+      <c r="C24" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O24" s="5"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>22</v>
+      <c r="I25" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="6">
+        <v>82</v>
+      </c>
+      <c r="L25" s="103">
         <v>44122</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>25</v>
+      <c r="M25" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="B26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="J26" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="25" t="s">
+      <c r="L26" s="102">
+        <v>44138</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="20" t="s">
+      <c r="D27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="L27" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="D28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="H28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="L28" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="21" t="s">
+      <c r="D29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="L29" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="26" t="s">
+      <c r="D30" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="104">
+        <v>44140</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="25" t="s">
+      <c r="B31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="25"/>
-      <c r="O31" s="32"/>
+      <c r="I31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="106"/>
+      <c r="M31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="20"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="50" t="s">
+      <c r="D32" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="114"/>
-      <c r="M32" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N32" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="32"/>
+      <c r="H32" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="107">
+        <v>44144</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="24"/>
     </row>
     <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="50" t="s">
+      <c r="D33" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="113" t="s">
+      <c r="H33" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="107">
+        <v>44144</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="114"/>
-      <c r="M33" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,88 +3068,88 @@
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="F34" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="G34" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="44" t="s">
+      <c r="I34" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="J34" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="L34" s="6">
+      <c r="L34" s="103">
         <v>44122</v>
       </c>
-      <c r="M34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="5"/>
+      <c r="M34" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="48" t="s">
+      <c r="C35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="I35" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="103">
         <v>44122</v>
       </c>
-      <c r="M35" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="20"/>
+      <c r="M35" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="15"/>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -3166,41 +3158,41 @@
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="43" t="s">
+      <c r="C36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="H36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="I36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="J36" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="K36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="L36" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M36" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="43" t="s">
-        <v>87</v>
+      <c r="N36" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="O36" s="2"/>
     </row>
@@ -3211,250 +3203,250 @@
       <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="93" t="s">
+      <c r="C37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="F37" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="G37" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="94" t="s">
+      <c r="I37" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="I37" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="43" t="s">
+      <c r="J37" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M37" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M37" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="5"/>
+      <c r="N37" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="93" t="s">
+      <c r="F38" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="93" t="s">
+      <c r="H38" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="94" t="s">
+      <c r="I38" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="43" t="s">
+      <c r="J38" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M38" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M38" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="5"/>
+      <c r="N38" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="93" t="s">
+      <c r="F39" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="94" t="s">
+      <c r="I39" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="K39" s="43" t="s">
+      <c r="J39" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M39" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M39" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="5"/>
+      <c r="N39" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="93" t="s">
+      <c r="F40" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="94" t="s">
+      <c r="I40" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="43" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="103">
+        <v>44122</v>
+      </c>
+      <c r="M40" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="6">
-        <v>44122</v>
-      </c>
-      <c r="M40" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="5"/>
+      <c r="N40" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="B41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="H41" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="5"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="35"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="B42" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="5"/>
+      <c r="J42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3463,633 +3455,657 @@
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="5"/>
+      <c r="J43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="B44" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="I44" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="5"/>
+      <c r="J44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="93" t="s">
+      <c r="B45" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="94" t="s">
+      <c r="I45" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" s="95">
+      <c r="J45" s="85">
         <v>43840</v>
       </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="N45" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="52"/>
+      <c r="K45" s="85">
+        <v>44099</v>
+      </c>
+      <c r="L45" s="85">
+        <v>44139</v>
+      </c>
+      <c r="M45" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="42"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="93" t="s">
+      <c r="B46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="J46" s="95">
+      <c r="I46" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="85">
         <v>43840</v>
       </c>
-      <c r="K46" s="93"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="N46" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="5"/>
+      <c r="K46" s="85">
+        <v>44100</v>
+      </c>
+      <c r="L46" s="85">
+        <v>44140</v>
+      </c>
+      <c r="M46" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N46" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="93" t="s">
+      <c r="B47" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="G47" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="95">
+      <c r="I47" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="85">
         <v>43840</v>
       </c>
-      <c r="K47" s="93"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="N47" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="O47" s="5"/>
+      <c r="K47" s="85">
+        <v>44101</v>
+      </c>
+      <c r="L47" s="85">
+        <v>44141</v>
+      </c>
+      <c r="M47" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N47" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="93" t="s">
+      <c r="B48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="95">
+      <c r="I48" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="85">
         <v>43840</v>
       </c>
-      <c r="K48" s="93"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="N48" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="5"/>
+      <c r="K48" s="85">
+        <v>44102</v>
+      </c>
+      <c r="L48" s="85">
+        <v>44142</v>
+      </c>
+      <c r="M48" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="43" t="s">
+      <c r="G49" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="H49" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="I49" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="44" t="s">
+      <c r="J49" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="43" t="s">
+      <c r="K49" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K49" s="43" t="s">
+      <c r="L49" s="104">
+        <v>44126</v>
+      </c>
+      <c r="M49" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="46">
-        <v>44126</v>
-      </c>
-      <c r="M49" s="43" t="s">
+      <c r="N49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O49" s="5"/>
+      <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" s="43" t="s">
+      <c r="D50" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="H50" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="44" t="s">
+      <c r="I50" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="43" t="s">
+      <c r="K50" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="43" t="s">
+      <c r="L50" s="104">
+        <v>44126</v>
+      </c>
+      <c r="M50" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L50" s="46">
-        <v>44126</v>
-      </c>
-      <c r="M50" s="43" t="s">
+      <c r="N50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O50" s="5"/>
+      <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L51" s="9">
+      <c r="L51" s="103">
         <v>44118</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="43" t="s">
+      <c r="D52" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="45" t="s">
+      <c r="I52" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J52" s="43" t="s">
+      <c r="J52" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K52" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" s="46">
+      <c r="L52" s="104">
         <v>44126</v>
       </c>
-      <c r="M52" s="43" t="s">
-        <v>35</v>
+      <c r="M52" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="43" t="s">
+      <c r="G53" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" s="44" t="s">
+      <c r="I53" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53" s="43" t="s">
+      <c r="J53" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L53" s="46">
+      <c r="L53" s="104">
         <v>44126</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="98" t="s">
+      <c r="D54" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="94" t="s">
+      <c r="H54" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="93" t="s">
+      <c r="K54" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" s="96"/>
-      <c r="M54" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="5"/>
+      <c r="L54" s="85">
+        <v>44140</v>
+      </c>
+      <c r="M54" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" s="94" t="s">
+      <c r="D55" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="93" t="s">
+      <c r="K55" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" s="96"/>
-      <c r="M55" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="5"/>
+      <c r="L55" s="85">
+        <v>44141</v>
+      </c>
+      <c r="M55" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="93" t="s">
+      <c r="D56" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="93" t="s">
+      <c r="H56" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56" s="93" t="s">
+      <c r="I56" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K56" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L56" s="96"/>
-      <c r="M56" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="5"/>
+      <c r="L56" s="85">
+        <v>44142</v>
+      </c>
+      <c r="M56" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="93" t="s">
+      <c r="D57" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="93" t="s">
+      <c r="H57" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="94" t="s">
+      <c r="I57" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="I57" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" s="93" t="s">
+      <c r="J57" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L57" s="96"/>
-      <c r="M57" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="5"/>
+      <c r="L57" s="85">
+        <v>44143</v>
+      </c>
+      <c r="M57" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="4"/>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -4098,131 +4114,133 @@
       <c r="B58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="93" t="s">
+      <c r="C58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="H58" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="I58" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" s="93" t="s">
+      <c r="I58" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K58" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L58" s="96"/>
-      <c r="M58" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="O58" s="5"/>
+      <c r="L58" s="85">
+        <v>44144</v>
+      </c>
+      <c r="M58" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="O58" s="4"/>
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="43" t="s">
+      <c r="D59" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="I59" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="44" t="s">
+      <c r="J59" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M59" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J59" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M59" s="43" t="s">
-        <v>63</v>
-      </c>
       <c r="N59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O59" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O59" s="4"/>
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F60" s="43" t="s">
+      <c r="B60" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="H60" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="I60" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="I60" s="44" t="s">
+      <c r="L60" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M60" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="L60" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M60" s="43" t="s">
-        <v>63</v>
-      </c>
       <c r="N60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O60" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O60" s="4"/>
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -4231,131 +4249,133 @@
       <c r="B61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" s="43" t="s">
+      <c r="C61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="I61" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J61" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L61" s="9">
+      <c r="L61" s="103">
         <v>44126</v>
       </c>
-      <c r="M61" s="43" t="s">
-        <v>63</v>
+      <c r="M61" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O61" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="43" t="s">
+      <c r="D62" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="I62" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I62" s="44" t="s">
+      <c r="J62" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" s="103">
+        <v>44126</v>
+      </c>
+      <c r="M62" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J62" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="L62" s="9">
-        <v>44126</v>
-      </c>
-      <c r="M62" s="43" t="s">
-        <v>63</v>
-      </c>
       <c r="N62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O62" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O62" s="4"/>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="10" t="s">
+      <c r="D63" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="10" t="s">
+      <c r="L63" s="104">
+        <v>44140</v>
+      </c>
+      <c r="M63" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N63" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O63" s="5"/>
+      <c r="N63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="4"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
@@ -4364,264 +4384,268 @@
       <c r="B64" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="10" t="s">
+      <c r="C64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L64" s="15"/>
-      <c r="M64" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N64" s="10"/>
-      <c r="O64" s="5"/>
+      <c r="L64" s="104">
+        <v>44140</v>
+      </c>
+      <c r="M64" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="4"/>
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>111</v>
+      <c r="D65" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L65" s="9">
+        <v>74</v>
+      </c>
+      <c r="L65" s="103">
         <v>44118</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O65" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O65" s="4"/>
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>27</v>
+      <c r="B66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L66" s="9">
+        <v>74</v>
+      </c>
+      <c r="L66" s="103">
         <v>44118</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O66" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I67" s="5" t="s">
+      <c r="H67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L67" s="9">
+        <v>74</v>
+      </c>
+      <c r="L67" s="103">
         <v>44118</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O67" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O67" s="4"/>
     </row>
     <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="43" t="s">
+      <c r="B68" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="H68" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="I68" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="I68" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J68" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K68" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L68" s="9">
+      <c r="J68" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" s="103">
         <v>44126</v>
       </c>
-      <c r="M68" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="N68" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="O68" s="5"/>
+      <c r="M68" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>27</v>
+      <c r="B69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I69" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L69" s="9">
+      <c r="L69" s="103">
         <v>44126</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O69" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5565,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCABBE-0E49-485E-803F-BC21345278E9}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5584,2484 +5608,2484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="F1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="G1" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="80" t="s">
+      <c r="J1" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="81" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="43">
+        <v>20</v>
+      </c>
+      <c r="E2" s="44">
+        <v>360</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="53">
-        <v>20</v>
-      </c>
-      <c r="E2" s="54">
-        <v>360</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="56">
+      <c r="G2" s="46">
         <v>75</v>
       </c>
-      <c r="H2" s="83">
+      <c r="H2" s="73">
         <f>(E2/60)*G2</f>
         <v>450</v>
       </c>
       <c r="I2" s="2">
         <v>400</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="66">
         <f t="shared" ref="J2:J32" si="0">(I2/60)*G2</f>
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="53">
+      <c r="D3" s="43">
         <v>60</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="44">
         <v>60</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="56">
+      <c r="F3" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="46">
         <v>52.5</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="73">
         <f t="shared" ref="H3:H65" si="1">(E3/60)*G3</f>
         <v>52.5</v>
       </c>
       <c r="I3" s="2">
         <v>50</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="66">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53">
-        <v>10</v>
-      </c>
-      <c r="E4" s="54">
-        <v>10</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="56">
+      <c r="D4" s="43">
+        <v>10</v>
+      </c>
+      <c r="E4" s="44">
+        <v>10</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="46">
         <v>52.5</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="53">
-        <v>10</v>
-      </c>
-      <c r="E5" s="54">
-        <v>10</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="56">
+      <c r="D5" s="43">
+        <v>10</v>
+      </c>
+      <c r="E5" s="44">
+        <v>10</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="46">
         <v>52.5</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I5" s="2">
         <v>18</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="66">
         <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="43">
+        <v>15</v>
+      </c>
+      <c r="E6" s="44">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="53">
-        <v>15</v>
-      </c>
-      <c r="E6" s="54">
-        <v>20</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="56">
+      <c r="F6" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="46">
         <v>52.5</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="73">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="66">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="53">
+      <c r="D7" s="43">
         <v>15</v>
       </c>
-      <c r="E7" s="54">
-        <v>10</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="56">
+      <c r="E7" s="44">
+        <v>10</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="46">
         <v>75</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="73">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="I7" s="2">
         <v>20</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="66">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="53">
-        <v>10</v>
-      </c>
-      <c r="E8" s="54">
-        <v>10</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="56">
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="43">
+        <v>10</v>
+      </c>
+      <c r="E8" s="44">
+        <v>10</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="46">
         <v>52.5</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="53">
-        <v>10</v>
-      </c>
-      <c r="E9" s="54">
-        <v>10</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="56">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="43">
+        <v>10</v>
+      </c>
+      <c r="E9" s="44">
+        <v>10</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="46">
         <v>52.5</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="53">
-        <v>10</v>
-      </c>
-      <c r="E10" s="54">
-        <v>10</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="56">
+      <c r="D10" s="43">
+        <v>10</v>
+      </c>
+      <c r="E10" s="44">
+        <v>10</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="46">
         <v>52.5</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="53">
-        <v>10</v>
-      </c>
-      <c r="E11" s="54">
-        <v>10</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="56">
+      <c r="D11" s="43">
+        <v>10</v>
+      </c>
+      <c r="E11" s="44">
+        <v>10</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="46">
         <v>52.5</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="53">
-        <v>10</v>
-      </c>
-      <c r="E12" s="54">
-        <v>10</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="56">
+      <c r="D12" s="43">
+        <v>10</v>
+      </c>
+      <c r="E12" s="44">
+        <v>10</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="46">
         <v>52.5</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="53">
-        <v>10</v>
-      </c>
-      <c r="E13" s="54">
-        <v>10</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="56">
+      <c r="D13" s="43">
+        <v>10</v>
+      </c>
+      <c r="E13" s="44">
+        <v>10</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="46">
         <v>52.5</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="D14" s="43">
         <v>15</v>
       </c>
-      <c r="E14" s="54">
-        <v>10</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="56">
+      <c r="E14" s="44">
+        <v>10</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="46">
         <v>52.5</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="53">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="43">
         <v>15</v>
       </c>
-      <c r="E15" s="54">
-        <v>10</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="56">
+      <c r="E15" s="44">
+        <v>10</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="46">
         <v>52.5</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="53">
-        <v>10</v>
-      </c>
-      <c r="E16" s="54">
-        <v>10</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="56">
+      <c r="D16" s="43">
+        <v>10</v>
+      </c>
+      <c r="E16" s="44">
+        <v>10</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="46">
         <v>52.5</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="53">
-        <v>10</v>
-      </c>
-      <c r="E17" s="54">
-        <v>10</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="56">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="43">
+        <v>10</v>
+      </c>
+      <c r="E17" s="44">
+        <v>10</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="46">
         <v>52.5</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="53">
-        <v>10</v>
-      </c>
-      <c r="E18" s="54">
-        <v>10</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="56">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="43">
+        <v>10</v>
+      </c>
+      <c r="E18" s="44">
+        <v>10</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="46">
         <v>52.5</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="53">
-        <v>10</v>
-      </c>
-      <c r="E19" s="54">
-        <v>10</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="56">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="43">
+        <v>10</v>
+      </c>
+      <c r="E19" s="44">
+        <v>10</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="46">
         <v>52.5</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="53">
-        <v>10</v>
-      </c>
-      <c r="E20" s="54">
-        <v>10</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="56">
+      <c r="D20" s="43">
+        <v>10</v>
+      </c>
+      <c r="E20" s="44">
+        <v>10</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="46">
         <v>52.5</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="53">
+      <c r="C21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="43">
         <v>15</v>
       </c>
-      <c r="E21" s="54">
-        <v>10</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="56">
+      <c r="E21" s="44">
+        <v>10</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="46">
         <v>52.5</v>
       </c>
-      <c r="H21" s="83">
+      <c r="H21" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="53">
+      <c r="D22" s="43">
         <v>15</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="44">
         <v>15</v>
       </c>
-      <c r="F22" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="56">
+      <c r="F22" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="46">
         <v>75</v>
       </c>
-      <c r="H22" s="83">
+      <c r="H22" s="73">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I22" s="2">
         <v>40</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="66">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="53">
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="43">
         <v>15</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="44">
         <v>15</v>
       </c>
-      <c r="F23" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="56">
+      <c r="F23" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="46">
         <v>75</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="73">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I23" s="2">
         <v>30</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J23" s="66">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="53">
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="43">
         <v>30</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="44">
         <v>15</v>
       </c>
-      <c r="F24" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="56">
+      <c r="F24" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="46">
         <v>75</v>
       </c>
-      <c r="H24" s="83">
+      <c r="H24" s="73">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I24" s="2">
         <v>20</v>
       </c>
-      <c r="J24" s="76">
+      <c r="J24" s="66">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="53">
+      <c r="C25" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="43">
         <v>30</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="44">
         <v>15</v>
       </c>
-      <c r="F25" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="56">
+      <c r="F25" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="46">
         <v>75</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="73">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I25" s="2">
         <v>20</v>
       </c>
-      <c r="J25" s="76">
+      <c r="J25" s="66">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="D26" s="51">
         <v>20</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="61">
+      <c r="E26" s="52">
         <v>20</v>
       </c>
-      <c r="E26" s="62">
-        <v>20</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="56">
+      <c r="F26" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="46">
         <v>52.5</v>
       </c>
-      <c r="H26" s="83">
+      <c r="H26" s="73">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="76">
+      <c r="J26" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="61">
+      <c r="D27" s="51">
         <v>15</v>
       </c>
-      <c r="E27" s="62">
-        <v>10</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="56">
+      <c r="E27" s="52">
+        <v>10</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="46">
         <v>52.5</v>
       </c>
-      <c r="H27" s="83">
+      <c r="H27" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="76">
+      <c r="J27" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="60" t="s">
+      <c r="A28" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="61">
+      <c r="C28" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="51">
         <v>15</v>
       </c>
-      <c r="E28" s="62">
-        <v>10</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="56">
+      <c r="E28" s="52">
+        <v>10</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="46">
         <v>52.5</v>
       </c>
-      <c r="H28" s="83">
+      <c r="H28" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
-      <c r="J28" s="76">
+      <c r="J28" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="61">
+      <c r="A29" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="51">
         <v>15</v>
       </c>
-      <c r="E29" s="62">
-        <v>10</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="56">
+      <c r="E29" s="52">
+        <v>10</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="46">
         <v>52.5</v>
       </c>
-      <c r="H29" s="83">
+      <c r="H29" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="66">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="61">
+      <c r="A30" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="51">
         <v>15</v>
       </c>
-      <c r="E30" s="62">
-        <v>10</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="56">
+      <c r="E30" s="52">
+        <v>10</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="46">
         <v>52.5</v>
       </c>
-      <c r="H30" s="83">
+      <c r="H30" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I30" s="2">
-        <v>10</v>
-      </c>
-      <c r="J30" s="76">
+        <v>15</v>
+      </c>
+      <c r="J30" s="66">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="61">
-        <v>10</v>
-      </c>
-      <c r="E31" s="62">
+      <c r="D31" s="51">
+        <v>10</v>
+      </c>
+      <c r="E31" s="52">
         <v>15</v>
       </c>
-      <c r="F31" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="56">
+      <c r="F31" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="46">
         <v>52.5</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="73">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="76">
+      <c r="J31" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" s="61">
-        <v>10</v>
-      </c>
-      <c r="E32" s="62">
+      <c r="C32" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="51">
+        <v>10</v>
+      </c>
+      <c r="E32" s="52">
         <v>15</v>
       </c>
-      <c r="F32" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="56">
+      <c r="F32" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="46">
         <v>52.5</v>
       </c>
-      <c r="H32" s="83">
+      <c r="H32" s="73">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I32" s="2">
         <v>40</v>
       </c>
-      <c r="J32" s="76">
+      <c r="J32" s="66">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="53">
-        <v>10</v>
-      </c>
-      <c r="E33" s="54">
+      <c r="D33" s="43">
+        <v>10</v>
+      </c>
+      <c r="E33" s="44">
         <v>60</v>
       </c>
-      <c r="F33" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="56">
+      <c r="F33" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="46">
         <v>75</v>
       </c>
-      <c r="H33" s="83">
+      <c r="H33" s="73">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I33" s="2">
         <v>90</v>
       </c>
-      <c r="J33" s="76">
+      <c r="J33" s="66">
         <f t="shared" ref="J33:J64" si="2">(I33/60)*G33</f>
         <v>112.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="53">
-        <v>10</v>
-      </c>
-      <c r="E34" s="54">
+      <c r="C34" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="43">
+        <v>10</v>
+      </c>
+      <c r="E34" s="44">
         <v>30</v>
       </c>
-      <c r="F34" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="56">
+      <c r="F34" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="46">
         <v>75</v>
       </c>
-      <c r="H34" s="83">
+      <c r="H34" s="73">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I34" s="2">
         <v>20</v>
       </c>
-      <c r="J34" s="76">
+      <c r="J34" s="66">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="53">
-        <v>10</v>
-      </c>
-      <c r="E35" s="54">
+      <c r="D35" s="43">
+        <v>10</v>
+      </c>
+      <c r="E35" s="44">
         <v>30</v>
       </c>
-      <c r="F35" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="56">
+      <c r="F35" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="46">
         <v>75</v>
       </c>
-      <c r="H35" s="83">
+      <c r="H35" s="73">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I35" s="2">
         <v>20</v>
       </c>
-      <c r="J35" s="76">
+      <c r="J35" s="66">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="53">
-        <v>10</v>
-      </c>
-      <c r="E36" s="54">
+      <c r="D36" s="43">
+        <v>10</v>
+      </c>
+      <c r="E36" s="44">
         <v>30</v>
       </c>
-      <c r="F36" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="56">
+      <c r="F36" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="46">
         <v>75</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="73">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I36" s="2">
         <v>20</v>
       </c>
-      <c r="J36" s="76">
+      <c r="J36" s="66">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="53">
-        <v>10</v>
-      </c>
-      <c r="E37" s="54">
+      <c r="D37" s="43">
+        <v>10</v>
+      </c>
+      <c r="E37" s="44">
         <v>20</v>
       </c>
-      <c r="F37" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="56">
+      <c r="F37" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="46">
         <v>52.5</v>
       </c>
-      <c r="H37" s="83">
+      <c r="H37" s="73">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
-      <c r="J37" s="76">
+      <c r="J37" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="53">
-        <v>10</v>
-      </c>
-      <c r="E38" s="54">
+      <c r="D38" s="43">
+        <v>10</v>
+      </c>
+      <c r="E38" s="44">
         <v>20</v>
       </c>
-      <c r="F38" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="56">
+      <c r="F38" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="46">
         <v>52.5</v>
       </c>
-      <c r="H38" s="83">
+      <c r="H38" s="73">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I38" s="2">
         <v>10</v>
       </c>
-      <c r="J38" s="76">
+      <c r="J38" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="53">
-        <v>10</v>
-      </c>
-      <c r="E39" s="54">
+      <c r="D39" s="43">
+        <v>10</v>
+      </c>
+      <c r="E39" s="44">
         <v>60</v>
       </c>
-      <c r="F39" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="56">
+      <c r="F39" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="46">
         <v>52.5</v>
       </c>
-      <c r="H39" s="83">
+      <c r="H39" s="73">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="I39" s="2">
         <v>30</v>
       </c>
-      <c r="J39" s="76">
+      <c r="J39" s="66">
         <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="53">
-        <v>10</v>
-      </c>
-      <c r="E40" s="54">
+      <c r="D40" s="43">
+        <v>10</v>
+      </c>
+      <c r="E40" s="44">
         <v>60</v>
       </c>
-      <c r="F40" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="56">
+      <c r="F40" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="46">
         <v>52.5</v>
       </c>
-      <c r="H40" s="83">
+      <c r="H40" s="73">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="76">
+      <c r="J40" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="53">
-        <v>10</v>
-      </c>
-      <c r="E41" s="54">
+      <c r="D41" s="43">
+        <v>10</v>
+      </c>
+      <c r="E41" s="44">
         <v>15</v>
       </c>
-      <c r="F41" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="56">
+      <c r="F41" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="46">
         <v>52.5</v>
       </c>
-      <c r="H41" s="83">
+      <c r="H41" s="73">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="76">
+      <c r="J41" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="53">
-        <v>10</v>
-      </c>
-      <c r="E42" s="54">
+      <c r="D42" s="43">
+        <v>10</v>
+      </c>
+      <c r="E42" s="44">
         <v>20</v>
       </c>
-      <c r="F42" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="56">
+      <c r="F42" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="46">
         <v>52.5</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="73">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="76">
+      <c r="J42" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="88" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:10" s="78" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="61">
-        <v>10</v>
-      </c>
-      <c r="E43" s="62">
+      <c r="D43" s="51">
+        <v>10</v>
+      </c>
+      <c r="E43" s="52">
         <v>20</v>
       </c>
-      <c r="F43" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="85">
+      <c r="F43" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="75">
         <v>52.5</v>
       </c>
-      <c r="H43" s="86">
+      <c r="H43" s="76">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="87">
+      <c r="I43" s="15"/>
+      <c r="J43" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="53">
-        <v>10</v>
-      </c>
-      <c r="E44" s="54">
-        <v>10</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="56">
+      <c r="D44" s="43">
+        <v>10</v>
+      </c>
+      <c r="E44" s="44">
+        <v>10</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="46">
         <v>52.5</v>
       </c>
-      <c r="H44" s="83">
+      <c r="H44" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I44" s="2">
         <v>5</v>
       </c>
-      <c r="J44" s="76">
+      <c r="J44" s="66">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="53">
-        <v>10</v>
-      </c>
-      <c r="E45" s="54">
-        <v>10</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="56">
+      <c r="D45" s="43">
+        <v>10</v>
+      </c>
+      <c r="E45" s="44">
+        <v>10</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="46">
         <v>52.5</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H45" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I45" s="2">
         <v>5</v>
       </c>
-      <c r="J45" s="76">
+      <c r="J45" s="66">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="53">
-        <v>10</v>
-      </c>
-      <c r="E46" s="54">
-        <v>10</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="56">
+      <c r="D46" s="43">
+        <v>10</v>
+      </c>
+      <c r="E46" s="44">
+        <v>10</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="46">
         <v>52.5</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I46" s="2">
         <v>5</v>
       </c>
-      <c r="J46" s="76">
+      <c r="J46" s="66">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="53">
-        <v>10</v>
-      </c>
-      <c r="E47" s="54">
+      <c r="A47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="43">
+        <v>10</v>
+      </c>
+      <c r="E47" s="44">
         <v>15</v>
       </c>
-      <c r="F47" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="56">
+      <c r="F47" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="46">
         <v>52.5</v>
       </c>
-      <c r="H47" s="83">
+      <c r="H47" s="73">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="76">
+      <c r="I47" s="54"/>
+      <c r="J47" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="53">
+      <c r="D48" s="43">
         <v>20</v>
       </c>
-      <c r="E48" s="54">
-        <v>10</v>
-      </c>
-      <c r="F48" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" s="56">
+      <c r="E48" s="44">
+        <v>10</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="46">
         <v>52.5</v>
       </c>
-      <c r="H48" s="83">
+      <c r="H48" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="76">
+      <c r="J48" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="53">
-        <v>10</v>
-      </c>
-      <c r="E49" s="54">
-        <v>10</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="56">
+      <c r="D49" s="43">
+        <v>10</v>
+      </c>
+      <c r="E49" s="44">
+        <v>10</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="46">
         <v>52.5</v>
       </c>
-      <c r="H49" s="83">
+      <c r="H49" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="76">
+      <c r="J49" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="53">
-        <v>10</v>
-      </c>
-      <c r="E50" s="54">
-        <v>10</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="56">
+      <c r="D50" s="43">
+        <v>10</v>
+      </c>
+      <c r="E50" s="44">
+        <v>10</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="46">
         <v>52.5</v>
       </c>
-      <c r="H50" s="83">
+      <c r="H50" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="76">
+      <c r="J50" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="53">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54">
-        <v>10</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="56">
+      <c r="D51" s="43">
+        <v>10</v>
+      </c>
+      <c r="E51" s="44">
+        <v>10</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="46">
         <v>52.5</v>
       </c>
-      <c r="H51" s="83">
+      <c r="H51" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J51" s="76">
+      <c r="J51" s="66">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="53">
+      <c r="D52" s="43">
         <v>15</v>
       </c>
-      <c r="E52" s="54">
+      <c r="E52" s="44">
         <v>15</v>
       </c>
-      <c r="F52" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" s="56">
+      <c r="F52" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="46">
         <v>52.5</v>
       </c>
-      <c r="H52" s="83">
+      <c r="H52" s="73">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I52" s="2">
         <v>15</v>
       </c>
-      <c r="J52" s="76">
+      <c r="J52" s="66">
         <f t="shared" si="2"/>
         <v>13.125</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="53">
-        <v>10</v>
-      </c>
-      <c r="E53" s="54">
-        <v>10</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="56">
+      <c r="C53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="43">
+        <v>10</v>
+      </c>
+      <c r="E53" s="44">
+        <v>10</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="46">
         <v>52.5</v>
       </c>
-      <c r="H53" s="83">
+      <c r="H53" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
       </c>
-      <c r="J53" s="76">
+      <c r="J53" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="53">
-        <v>10</v>
-      </c>
-      <c r="E54" s="54">
-        <v>10</v>
-      </c>
-      <c r="F54" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="56">
+      <c r="A54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="43">
+        <v>10</v>
+      </c>
+      <c r="E54" s="44">
+        <v>10</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="46">
         <v>52.5</v>
       </c>
-      <c r="H54" s="83">
+      <c r="H54" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I54" s="2">
         <v>10</v>
       </c>
-      <c r="J54" s="76">
+      <c r="J54" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="53">
-        <v>10</v>
-      </c>
-      <c r="E55" s="54">
-        <v>10</v>
-      </c>
-      <c r="F55" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="56">
+      <c r="D55" s="43">
+        <v>10</v>
+      </c>
+      <c r="E55" s="44">
+        <v>10</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" s="46">
         <v>52.5</v>
       </c>
-      <c r="H55" s="83">
+      <c r="H55" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I55" s="2">
         <v>10</v>
       </c>
-      <c r="J55" s="76">
+      <c r="J55" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="53">
-        <v>10</v>
-      </c>
-      <c r="E56" s="54">
-        <v>10</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="56">
+      <c r="D56" s="43">
+        <v>10</v>
+      </c>
+      <c r="E56" s="44">
+        <v>10</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="46">
         <v>52.5</v>
       </c>
-      <c r="H56" s="83">
+      <c r="H56" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I56" s="2">
         <v>10</v>
       </c>
-      <c r="J56" s="76">
+      <c r="J56" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="53">
+      <c r="D57" s="43">
         <v>15</v>
       </c>
-      <c r="E57" s="54">
-        <v>10</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G57" s="56">
+      <c r="E57" s="44">
+        <v>10</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" s="46">
         <v>52.5</v>
       </c>
-      <c r="H57" s="83">
+      <c r="H57" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I57" s="2">
         <v>10</v>
       </c>
-      <c r="J57" s="76">
+      <c r="J57" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="53">
-        <v>10</v>
-      </c>
-      <c r="E58" s="54">
-        <v>10</v>
-      </c>
-      <c r="F58" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G58" s="56">
+      <c r="D58" s="43">
+        <v>10</v>
+      </c>
+      <c r="E58" s="44">
+        <v>10</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="46">
         <v>52.5</v>
       </c>
-      <c r="H58" s="83">
+      <c r="H58" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I58" s="2">
         <v>10</v>
       </c>
-      <c r="J58" s="76">
+      <c r="J58" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="53">
+      <c r="D59" s="43">
         <v>15</v>
       </c>
-      <c r="E59" s="54">
-        <v>10</v>
-      </c>
-      <c r="F59" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="56">
+      <c r="E59" s="44">
+        <v>10</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" s="46">
         <v>52.5</v>
       </c>
-      <c r="H59" s="83">
+      <c r="H59" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I59" s="2">
         <v>10</v>
       </c>
-      <c r="J59" s="76">
+      <c r="J59" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="53">
+      <c r="A60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="43">
         <v>15</v>
       </c>
-      <c r="E60" s="54">
-        <v>10</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60" s="56">
+      <c r="E60" s="44">
+        <v>10</v>
+      </c>
+      <c r="F60" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="46">
         <v>52.5</v>
       </c>
-      <c r="H60" s="83">
+      <c r="H60" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I60" s="2">
         <v>10</v>
       </c>
-      <c r="J60" s="76">
+      <c r="J60" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="53">
-        <v>10</v>
-      </c>
-      <c r="E61" s="54">
-        <v>10</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="56">
+      <c r="D61" s="43">
+        <v>10</v>
+      </c>
+      <c r="E61" s="44">
+        <v>10</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="46">
         <v>52.5</v>
       </c>
-      <c r="H61" s="83">
+      <c r="H61" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I61" s="2">
         <v>10</v>
       </c>
-      <c r="J61" s="76">
+      <c r="J61" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="53">
-        <v>10</v>
-      </c>
-      <c r="E62" s="54">
-        <v>10</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="56">
+      <c r="A62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="43">
+        <v>10</v>
+      </c>
+      <c r="E62" s="44">
+        <v>10</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="46">
         <v>52.5</v>
       </c>
-      <c r="H62" s="83">
+      <c r="H62" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I62" s="2">
         <v>10</v>
       </c>
-      <c r="J62" s="76">
+      <c r="J62" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="53">
-        <v>10</v>
-      </c>
-      <c r="E63" s="54">
-        <v>10</v>
-      </c>
-      <c r="F63" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G63" s="56">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="43">
+        <v>10</v>
+      </c>
+      <c r="E63" s="44">
+        <v>10</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="46">
         <v>52.5</v>
       </c>
-      <c r="H63" s="83">
+      <c r="H63" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I63" s="2">
         <v>10</v>
       </c>
-      <c r="J63" s="76">
+      <c r="J63" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="53">
-        <v>10</v>
-      </c>
-      <c r="E64" s="54">
-        <v>10</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="56">
+      <c r="A64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="43">
+        <v>10</v>
+      </c>
+      <c r="E64" s="44">
+        <v>10</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="46">
         <v>52.5</v>
       </c>
-      <c r="H64" s="83">
+      <c r="H64" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I64" s="2">
         <v>10</v>
       </c>
-      <c r="J64" s="76">
+      <c r="J64" s="66">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="53">
-        <v>10</v>
-      </c>
-      <c r="E65" s="54">
-        <v>10</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G65" s="56">
+      <c r="D65" s="43">
+        <v>10</v>
+      </c>
+      <c r="E65" s="44">
+        <v>10</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="46">
         <v>52.5</v>
       </c>
-      <c r="H65" s="83">
+      <c r="H65" s="73">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I65" s="2">
         <v>10</v>
       </c>
-      <c r="J65" s="76">
+      <c r="J65" s="66">
         <f t="shared" ref="J65:J71" si="3">(I65/60)*G65</f>
         <v>8.75</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="53">
-        <v>10</v>
-      </c>
-      <c r="E66" s="54">
-        <v>10</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="56">
+      <c r="C66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="43">
+        <v>10</v>
+      </c>
+      <c r="E66" s="44">
+        <v>10</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="46">
         <v>52.5</v>
       </c>
-      <c r="H66" s="83">
+      <c r="H66" s="73">
         <f t="shared" ref="H66:H71" si="4">(E66/60)*G66</f>
         <v>8.75</v>
       </c>
       <c r="I66" s="2">
         <v>10</v>
       </c>
-      <c r="J66" s="76">
+      <c r="J66" s="66">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="53">
+      <c r="D67" s="43">
         <v>20</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="44">
         <v>30</v>
       </c>
-      <c r="F67" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67" s="56">
+      <c r="F67" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="46">
         <v>75</v>
       </c>
-      <c r="H67" s="83">
+      <c r="H67" s="73">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
       <c r="I67" s="2">
         <v>10</v>
       </c>
-      <c r="J67" s="76">
+      <c r="J67" s="66">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="66">
+      <c r="B68" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="56">
         <v>20</v>
       </c>
-      <c r="E68" s="67">
+      <c r="E68" s="57">
         <v>30</v>
       </c>
-      <c r="F68" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="G68" s="77">
+      <c r="F68" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="67">
         <v>75</v>
       </c>
-      <c r="H68" s="83">
+      <c r="H68" s="73">
         <f>(E68/60)*G68</f>
         <v>37.5</v>
       </c>
       <c r="I68" s="2">
         <v>10</v>
       </c>
-      <c r="J68" s="76">
+      <c r="J68" s="66">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" s="99" t="s">
+      <c r="A69" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="99" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="100"/>
-      <c r="E69" s="101">
+      <c r="D69" s="88"/>
+      <c r="E69" s="89">
         <v>420</v>
       </c>
-      <c r="F69" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="G69" s="103">
+      <c r="F69" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="91">
         <v>75</v>
       </c>
-      <c r="H69" s="104">
+      <c r="H69" s="92">
         <f>(E69/60)*G69</f>
         <v>525</v>
       </c>
-      <c r="I69" s="105">
+      <c r="I69" s="93">
         <v>300</v>
       </c>
-      <c r="J69" s="106">
+      <c r="J69" s="94">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="99" t="s">
+      <c r="A70" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="99" t="s">
+      <c r="C70" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="99" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="100"/>
-      <c r="E70" s="101">
+      <c r="D70" s="88"/>
+      <c r="E70" s="89">
         <v>420</v>
       </c>
-      <c r="F70" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="G70" s="103">
+      <c r="F70" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="91">
         <v>75</v>
       </c>
-      <c r="H70" s="104">
+      <c r="H70" s="92">
         <f>(E70/60)*G70</f>
         <v>525</v>
       </c>
-      <c r="I70" s="105">
+      <c r="I70" s="93">
         <v>200</v>
       </c>
-      <c r="J70" s="106">
+      <c r="J70" s="94">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="107" t="s">
+      <c r="A71" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="107" t="s">
+      <c r="C71" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="109">
+      <c r="D71" s="97">
         <v>30</v>
       </c>
-      <c r="E71" s="110">
+      <c r="E71" s="98">
         <v>480</v>
       </c>
-      <c r="F71" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="G71" s="112">
+      <c r="F71" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="100">
         <v>52.5</v>
       </c>
-      <c r="H71" s="104">
+      <c r="H71" s="92">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="I71" s="105">
+      <c r="I71" s="93">
         <v>120</v>
       </c>
-      <c r="J71" s="106">
+      <c r="J71" s="94">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="90"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
+      <c r="A72" s="80"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="59"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="90"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="89" t="s">
+      <c r="A74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
+      <c r="E74" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C75" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" s="75">
+      <c r="C75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="65">
         <f>SUM(D2:D71)/60</f>
         <v>15.25</v>
       </c>
-      <c r="E75" s="76">
+      <c r="E75" s="66">
         <f>D75*60</f>
         <v>915</v>
       </c>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C76" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" s="75">
+      <c r="C76" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="65">
         <f>SUM(E2:E71)/60</f>
         <v>45.75</v>
       </c>
-      <c r="E76" s="76">
+      <c r="E76" s="66">
         <f>SUM(H2:H71)</f>
         <v>2956.875</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C77" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="75">
+      <c r="C77" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="65">
         <f>SUM(I2:I71)/60</f>
-        <v>30.75</v>
-      </c>
-      <c r="E77" s="76">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="E77" s="66">
         <f>SUM(J2:J71)</f>
-        <v>2064.375</v>
+        <v>2068.75</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C78" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="D78" s="75">
+      <c r="C78" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="65">
         <f>D75+D76</f>
         <v>61</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="66">
         <f>E75+E76</f>
         <v>3871.875</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C79" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="75">
+      <c r="C79" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="65">
         <f>D75+D77</f>
-        <v>46</v>
-      </c>
-      <c r="E79" s="76">
+        <v>46.083333333333329</v>
+      </c>
+      <c r="E79" s="66">
         <f>E75+E77</f>
-        <v>2979.375</v>
+        <v>2983.75</v>
       </c>
     </row>
   </sheetData>
@@ -8087,108 +8111,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+    <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+    <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="D7" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="36" t="s">
+    <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="29" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="D8" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="36" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="36" t="s">
+    <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
+      <c r="D10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="36" t="s">
+    </row>
+    <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
+    <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="33" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="41" t="s">
+    <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="41" t="s">
+    <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="34" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="42" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
+++ b/documento_projeto/Pixels - Relatório de Acessibilidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\novo\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A8D01D-405B-4014-BAB0-2C58CBA334D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C69CA8-55A5-45BE-B77C-6141110E8F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -614,10 +614,6 @@
   </si>
   <si>
     <t>Melhoria</t>
-  </si>
-  <si>
-    <t>Após escolher o artista que você quer acessar, não conseguimos 
-retornar ao link "artistas" a não ser pelomenu</t>
   </si>
   <si>
     <t>Após escolher o artista que você quer acessar, não conseguimos 
@@ -632,9 +628,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$ &quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -702,7 +698,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,12 +733,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF33CC66"/>
         <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -873,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,12 +886,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -921,19 +905,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,13 +923,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -993,7 +967,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,9 +992,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1033,7 +1004,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,26 +1015,26 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,69 +1043,69 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,11 +1120,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,10 +1511,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1530,7 @@
     <col min="9" max="9" width="58.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="99" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="22.140625" customWidth="1"/>
     <col min="15" max="15" width="47.42578125" customWidth="1"/>
@@ -1647,7 +1619,7 @@
       <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="103">
+      <c r="L2" s="96">
         <v>44122</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1692,7 +1664,7 @@
       <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="96">
         <v>44118</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1737,7 +1709,7 @@
       <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="96">
         <v>44112</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1782,7 +1754,7 @@
       <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="96">
         <v>44118</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1809,28 +1781,28 @@
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="104">
+      <c r="L6" s="97">
         <v>44126</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="29" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1842,7 +1814,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1863,7 +1835,7 @@
       <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1872,7 +1844,7 @@
       <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="96">
         <v>44126</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1899,7 +1871,7 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1917,7 +1889,7 @@
       <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="96">
         <v>44119</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1962,7 +1934,7 @@
       <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="96">
         <v>44119</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2007,7 +1979,7 @@
       <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="103">
+      <c r="L10" s="96">
         <v>44119</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -2052,7 +2024,7 @@
       <c r="K11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="96">
         <v>44119</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -2097,7 +2069,7 @@
       <c r="K12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="96">
         <v>44119</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -2142,7 +2114,7 @@
       <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="103">
+      <c r="L13" s="96">
         <v>44126</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -2157,7 +2129,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2187,7 +2159,7 @@
       <c r="K14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="103">
+      <c r="L14" s="96">
         <v>44126</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -2232,7 +2204,7 @@
       <c r="K15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="103">
+      <c r="L15" s="96">
         <v>44126</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -2277,7 +2249,7 @@
       <c r="K16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="103">
+      <c r="L16" s="96">
         <v>44126</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2295,40 +2267,40 @@
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="97">
         <v>44138</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="29" t="s">
         <v>72</v>
       </c>
       <c r="O17" s="4"/>
@@ -2340,40 +2312,40 @@
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="97">
         <v>44139</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="29" t="s">
         <v>72</v>
       </c>
       <c r="O18" s="4"/>
@@ -2412,7 +2384,7 @@
       <c r="K19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="103">
+      <c r="L19" s="96">
         <v>44118</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -2427,7 +2399,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2457,7 +2429,7 @@
       <c r="K20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="103">
+      <c r="L20" s="96">
         <v>44118</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -2502,7 +2474,7 @@
       <c r="K21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="103">
+      <c r="L21" s="96">
         <v>44118</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -2517,40 +2489,40 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="103">
+      <c r="L22" s="96">
         <v>44126</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="29" t="s">
         <v>34</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2562,7 +2534,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2592,7 +2564,7 @@
       <c r="K23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L23" s="103">
+      <c r="L23" s="96">
         <v>44126</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -2637,7 +2609,7 @@
       <c r="K24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="103">
+      <c r="L24" s="96">
         <v>44122</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2652,28 +2624,28 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -2682,61 +2654,61 @@
       <c r="K25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L25" s="103">
+      <c r="L25" s="96">
         <v>44122</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="15"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="102">
+      <c r="L26" s="95">
         <v>44138</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2744,46 +2716,46 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="103">
+      <c r="L27" s="96">
         <v>44126</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2791,46 +2763,46 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="103">
+      <c r="L28" s="96">
         <v>44126</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2838,46 +2810,46 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="103">
+      <c r="L29" s="96">
         <v>44126</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="22" t="s">
+      <c r="O29" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2885,46 +2857,46 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L30" s="104">
+      <c r="L30" s="97">
         <v>44140</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2932,133 +2904,137 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="106"/>
-      <c r="M31" s="20" t="s">
+      <c r="L31" s="98">
+        <v>44137</v>
+      </c>
+      <c r="M31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="24"/>
+      <c r="N31" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" s="41" t="s">
+      <c r="H32" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="107">
+      <c r="L32" s="98">
         <v>44144</v>
       </c>
-      <c r="M32" s="40" t="s">
+      <c r="M32" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="40" t="s">
+      <c r="N32" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O32" s="24"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="101" t="s">
+      <c r="H33" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="98">
+        <v>44144</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" s="107">
-        <v>44144</v>
-      </c>
-      <c r="M33" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3071,37 +3047,37 @@
       <c r="C34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="103">
+      <c r="L34" s="96">
         <v>44122</v>
       </c>
-      <c r="M34" s="35" t="s">
+      <c r="M34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="35" t="s">
+      <c r="N34" s="29" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="4"/>
@@ -3110,46 +3086,46 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="35" t="s">
+      <c r="K35" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="103">
+      <c r="L35" s="96">
         <v>44122</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="35" t="s">
+      <c r="N35" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O35" s="15"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -3161,37 +3137,37 @@
       <c r="C36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="103">
+      <c r="L36" s="96">
         <v>44122</v>
       </c>
-      <c r="M36" s="35" t="s">
+      <c r="M36" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="35" t="s">
+      <c r="N36" s="29" t="s">
         <v>86</v>
       </c>
       <c r="O36" s="2"/>
@@ -3206,37 +3182,37 @@
       <c r="C37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="83" t="s">
+      <c r="G37" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="84" t="s">
+      <c r="I37" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="83" t="s">
+      <c r="J37" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="103">
+      <c r="L37" s="96">
         <v>44122</v>
       </c>
-      <c r="M37" s="83" t="s">
+      <c r="M37" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="83" t="s">
+      <c r="N37" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O37" s="4"/>
@@ -3245,43 +3221,43 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="83" t="s">
+      <c r="F38" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="83" t="s">
+      <c r="G38" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="84" t="s">
+      <c r="I38" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="83" t="s">
+      <c r="J38" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K38" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="103">
+      <c r="L38" s="96">
         <v>44122</v>
       </c>
-      <c r="M38" s="83" t="s">
+      <c r="M38" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N38" s="83" t="s">
+      <c r="N38" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O38" s="4"/>
@@ -3290,43 +3266,43 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="84" t="s">
+      <c r="I39" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="83" t="s">
+      <c r="J39" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="35" t="s">
+      <c r="K39" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="103">
+      <c r="L39" s="96">
         <v>44122</v>
       </c>
-      <c r="M39" s="83" t="s">
+      <c r="M39" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="83" t="s">
+      <c r="N39" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="4"/>
@@ -3335,43 +3311,43 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="83" t="s">
+      <c r="G40" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="84" t="s">
+      <c r="I40" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="103">
+      <c r="L40" s="96">
         <v>44122</v>
       </c>
-      <c r="M40" s="83" t="s">
+      <c r="M40" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="83" t="s">
+      <c r="N40" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="4"/>
@@ -3380,72 +3356,88 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="35" t="s">
+      <c r="I41" s="30"/>
+      <c r="J41" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
+      <c r="K41" s="97">
+        <v>44101</v>
+      </c>
+      <c r="L41" s="97">
+        <v>44141</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="K42" s="97">
+        <v>44103</v>
+      </c>
+      <c r="L42" s="97">
+        <v>44142</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3455,159 +3447,175 @@
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
+      <c r="K43" s="97">
+        <v>44119</v>
+      </c>
+      <c r="L43" s="97">
+        <v>44140</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="K44" s="97">
+        <v>44111</v>
+      </c>
+      <c r="L44" s="97">
+        <v>44142</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="G45" s="83" t="s">
+      <c r="G45" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="84" t="s">
+      <c r="H45" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="84" t="s">
+      <c r="I45" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="J45" s="85">
+      <c r="J45" s="78">
         <v>43840</v>
       </c>
-      <c r="K45" s="85">
+      <c r="K45" s="78">
         <v>44099</v>
       </c>
-      <c r="L45" s="85">
+      <c r="L45" s="78">
         <v>44139</v>
       </c>
-      <c r="M45" s="83" t="s">
+      <c r="M45" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="83" t="s">
+      <c r="N45" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="O45" s="42"/>
+      <c r="O45" s="36"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="81" t="s">
+      <c r="D46" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G46" s="83" t="s">
+      <c r="G46" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="84" t="s">
+      <c r="H46" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="I46" s="84" t="s">
+      <c r="I46" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="85">
+      <c r="J46" s="78">
         <v>43840</v>
       </c>
-      <c r="K46" s="85">
+      <c r="K46" s="78">
         <v>44100</v>
       </c>
-      <c r="L46" s="85">
+      <c r="L46" s="78">
         <v>44140</v>
       </c>
-      <c r="M46" s="83" t="s">
+      <c r="M46" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="N46" s="83" t="s">
+      <c r="N46" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O46" s="4"/>
@@ -3616,43 +3624,43 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="G47" s="83" t="s">
+      <c r="G47" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="84" t="s">
+      <c r="H47" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="84" t="s">
+      <c r="I47" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="J47" s="85">
+      <c r="J47" s="78">
         <v>43840</v>
       </c>
-      <c r="K47" s="85">
+      <c r="K47" s="78">
         <v>44101</v>
       </c>
-      <c r="L47" s="85">
+      <c r="L47" s="78">
         <v>44141</v>
       </c>
-      <c r="M47" s="83" t="s">
+      <c r="M47" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="N47" s="83" t="s">
+      <c r="N47" s="76" t="s">
         <v>86</v>
       </c>
       <c r="O47" s="4"/>
@@ -3661,43 +3669,43 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="F48" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="83" t="s">
+      <c r="G48" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="I48" s="84" t="s">
+      <c r="I48" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="J48" s="85">
+      <c r="J48" s="78">
         <v>43840</v>
       </c>
-      <c r="K48" s="85">
+      <c r="K48" s="78">
         <v>44102</v>
       </c>
-      <c r="L48" s="85">
+      <c r="L48" s="78">
         <v>44142</v>
       </c>
-      <c r="M48" s="83" t="s">
+      <c r="M48" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="N48" s="83" t="s">
+      <c r="N48" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="4"/>
@@ -3712,34 +3720,34 @@
       <c r="C49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G49" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="35" t="s">
+      <c r="J49" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="35" t="s">
+      <c r="K49" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="97">
         <v>44126</v>
       </c>
-      <c r="M49" s="35" t="s">
+      <c r="M49" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3757,34 +3765,34 @@
       <c r="C50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="35" t="s">
+      <c r="J50" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="104">
+      <c r="L50" s="97">
         <v>44126</v>
       </c>
-      <c r="M50" s="35" t="s">
+      <c r="M50" s="29" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -3826,7 +3834,7 @@
       <c r="K51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="103">
+      <c r="L51" s="96">
         <v>44118</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -3847,34 +3855,34 @@
       <c r="C52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="J52" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="104">
+      <c r="L52" s="97">
         <v>44126</v>
       </c>
-      <c r="M52" s="35" t="s">
+      <c r="M52" s="29" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -3886,37 +3894,37 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="37" t="s">
+      <c r="I53" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J53" s="35" t="s">
+      <c r="J53" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K53" s="35" t="s">
+      <c r="K53" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="97">
         <v>44126</v>
       </c>
       <c r="M53" s="2" t="s">
@@ -3937,37 +3945,37 @@
       <c r="C54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="83" t="s">
+      <c r="E54" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="86" t="s">
+      <c r="F54" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="G54" s="83" t="s">
+      <c r="G54" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="84" t="s">
+      <c r="H54" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I54" s="84" t="s">
+      <c r="I54" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="83" t="s">
+      <c r="J54" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K54" s="83" t="s">
+      <c r="K54" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L54" s="85">
+      <c r="L54" s="78">
         <v>44140</v>
       </c>
-      <c r="M54" s="83" t="s">
+      <c r="M54" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="83" t="s">
+      <c r="N54" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O54" s="4"/>
@@ -3982,37 +3990,37 @@
       <c r="C55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="83" t="s">
+      <c r="E55" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="83" t="s">
+      <c r="F55" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="83" t="s">
+      <c r="G55" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="84" t="s">
+      <c r="H55" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I55" s="84" t="s">
+      <c r="I55" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="83" t="s">
+      <c r="J55" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K55" s="83" t="s">
+      <c r="K55" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L55" s="85">
+      <c r="L55" s="78">
         <v>44141</v>
       </c>
-      <c r="M55" s="83" t="s">
+      <c r="M55" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N55" s="83" t="s">
+      <c r="N55" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="4"/>
@@ -4027,37 +4035,37 @@
       <c r="C56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="83" t="s">
+      <c r="E56" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="83" t="s">
+      <c r="F56" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="83" t="s">
+      <c r="G56" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="84" t="s">
+      <c r="H56" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I56" s="84" t="s">
+      <c r="I56" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="J56" s="83" t="s">
+      <c r="J56" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="83" t="s">
+      <c r="K56" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L56" s="85">
+      <c r="L56" s="78">
         <v>44142</v>
       </c>
-      <c r="M56" s="83" t="s">
+      <c r="M56" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N56" s="83" t="s">
+      <c r="N56" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="4"/>
@@ -4072,37 +4080,37 @@
       <c r="C57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="83" t="s">
+      <c r="G57" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="H57" s="84" t="s">
+      <c r="H57" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I57" s="84" t="s">
+      <c r="I57" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="J57" s="83" t="s">
+      <c r="J57" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K57" s="83" t="s">
+      <c r="K57" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="85">
+      <c r="L57" s="78">
         <v>44143</v>
       </c>
-      <c r="M57" s="83" t="s">
+      <c r="M57" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N57" s="83" t="s">
+      <c r="N57" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O57" s="4"/>
@@ -4117,37 +4125,37 @@
       <c r="C58" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="F58" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="83" t="s">
+      <c r="G58" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="84" t="s">
+      <c r="H58" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="84" t="s">
+      <c r="I58" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="J58" s="83" t="s">
+      <c r="J58" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="K58" s="83" t="s">
+      <c r="K58" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="85">
+      <c r="L58" s="78">
         <v>44144</v>
       </c>
-      <c r="M58" s="83" t="s">
+      <c r="M58" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="83" t="s">
+      <c r="N58" s="76" t="s">
         <v>86</v>
       </c>
       <c r="O58" s="4"/>
@@ -4162,34 +4170,34 @@
       <c r="C59" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="G59" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I59" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J59" s="35" t="s">
+      <c r="J59" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="35" t="s">
+      <c r="K59" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L59" s="103">
+      <c r="L59" s="96">
         <v>44126</v>
       </c>
-      <c r="M59" s="35" t="s">
+      <c r="M59" s="29" t="s">
         <v>62</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4201,40 +4209,40 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="35" t="s">
+      <c r="G60" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J60" s="35" t="s">
+      <c r="J60" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K60" s="35" t="s">
+      <c r="K60" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L60" s="103">
+      <c r="L60" s="96">
         <v>44126</v>
       </c>
-      <c r="M60" s="35" t="s">
+      <c r="M60" s="29" t="s">
         <v>62</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4252,34 +4260,34 @@
       <c r="C61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="35" t="s">
+      <c r="G61" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I61" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J61" s="35" t="s">
+      <c r="J61" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="35" t="s">
+      <c r="K61" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L61" s="103">
+      <c r="L61" s="96">
         <v>44126</v>
       </c>
-      <c r="M61" s="35" t="s">
+      <c r="M61" s="29" t="s">
         <v>62</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4297,34 +4305,34 @@
       <c r="C62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H62" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I62" s="36" t="s">
+      <c r="I62" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="35" t="s">
+      <c r="J62" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K62" s="35" t="s">
+      <c r="K62" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L62" s="103">
+      <c r="L62" s="96">
         <v>44126</v>
       </c>
-      <c r="M62" s="35" t="s">
+      <c r="M62" s="29" t="s">
         <v>62</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4342,37 +4350,37 @@
       <c r="C63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F63" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="36" t="s">
+      <c r="I63" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J63" s="35" t="s">
+      <c r="J63" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="35" t="s">
+      <c r="K63" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="L63" s="104">
+      <c r="L63" s="97">
         <v>44140</v>
       </c>
-      <c r="M63" s="35" t="s">
+      <c r="M63" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N63" s="15" t="s">
+      <c r="N63" s="13" t="s">
         <v>33</v>
       </c>
       <c r="O63" s="4"/>
@@ -4387,37 +4395,37 @@
       <c r="C64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="G64" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H64" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I64" s="36" t="s">
+      <c r="I64" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J64" s="35" t="s">
+      <c r="J64" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K64" s="35" t="s">
+      <c r="K64" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L64" s="104">
+      <c r="L64" s="97">
         <v>44140</v>
       </c>
-      <c r="M64" s="35" t="s">
+      <c r="M64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N64" s="35" t="s">
+      <c r="N64" s="29" t="s">
         <v>72</v>
       </c>
       <c r="O64" s="4"/>
@@ -4432,10 +4440,10 @@
       <c r="C65" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -4456,7 +4464,7 @@
       <c r="K65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L65" s="103">
+      <c r="L65" s="96">
         <v>44118</v>
       </c>
       <c r="M65" s="2" t="s">
@@ -4471,7 +4479,7 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -4501,7 +4509,7 @@
       <c r="K66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L66" s="103">
+      <c r="L66" s="96">
         <v>44118</v>
       </c>
       <c r="M66" s="2" t="s">
@@ -4546,7 +4554,7 @@
       <c r="K67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L67" s="103">
+      <c r="L67" s="96">
         <v>44118</v>
       </c>
       <c r="M67" s="2" t="s">
@@ -4561,43 +4569,43 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="F68" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="G68" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I68" s="36" t="s">
+      <c r="I68" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="35" t="s">
+      <c r="J68" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="35" t="s">
+      <c r="K68" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L68" s="103">
+      <c r="L68" s="96">
         <v>44126</v>
       </c>
-      <c r="M68" s="35" t="s">
+      <c r="M68" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N68" s="35" t="s">
+      <c r="N68" s="29" t="s">
         <v>34</v>
       </c>
       <c r="O68" s="4"/>
@@ -4606,7 +4614,7 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -4636,7 +4644,7 @@
       <c r="K69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="103">
+      <c r="L69" s="96">
         <v>44126</v>
       </c>
       <c r="M69" s="2" t="s">
@@ -5589,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFCABBE-0E49-485E-803F-BC21345278E9}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5608,34 +5616,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="65" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5649,26 +5657,26 @@
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="37">
         <v>20</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="38">
         <v>360</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="40">
         <v>75</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="66">
         <f>(E2/60)*G2</f>
         <v>450</v>
       </c>
       <c r="I2" s="2">
         <v>400</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="59">
         <f t="shared" ref="J2:J32" si="0">(I2/60)*G2</f>
         <v>500</v>
       </c>
@@ -5683,26 +5691,26 @@
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="37">
         <v>60</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="38">
         <v>60</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="40">
         <v>52.5</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="66">
         <f t="shared" ref="H3:H65" si="1">(E3/60)*G3</f>
         <v>52.5</v>
       </c>
       <c r="I3" s="2">
         <v>50</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="59">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
@@ -5717,26 +5725,26 @@
       <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="43">
-        <v>10</v>
-      </c>
-      <c r="E4" s="44">
-        <v>10</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="37">
+        <v>10</v>
+      </c>
+      <c r="E4" s="38">
+        <v>10</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="40">
         <v>52.5</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5751,26 +5759,26 @@
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="43">
-        <v>10</v>
-      </c>
-      <c r="E5" s="44">
-        <v>10</v>
-      </c>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="37">
+        <v>10</v>
+      </c>
+      <c r="E5" s="38">
+        <v>10</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="40">
         <v>52.5</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I5" s="2">
         <v>18</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="59">
         <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
@@ -5782,29 +5790,29 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="37">
         <v>15</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="38">
         <v>20</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="40">
         <v>52.5</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="66">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="59">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -5819,32 +5827,32 @@
       <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="37">
         <v>15</v>
       </c>
-      <c r="E7" s="44">
-        <v>10</v>
-      </c>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="38">
+        <v>10</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="40">
         <v>75</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="66">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="I7" s="2">
         <v>20</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5853,26 +5861,26 @@
       <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="43">
-        <v>10</v>
-      </c>
-      <c r="E8" s="44">
-        <v>10</v>
-      </c>
-      <c r="F8" s="47" t="s">
+      <c r="D8" s="37">
+        <v>10</v>
+      </c>
+      <c r="E8" s="38">
+        <v>10</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="40">
         <v>52.5</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5887,26 +5895,26 @@
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="43">
-        <v>10</v>
-      </c>
-      <c r="E9" s="44">
-        <v>10</v>
-      </c>
-      <c r="F9" s="47" t="s">
+      <c r="D9" s="37">
+        <v>10</v>
+      </c>
+      <c r="E9" s="38">
+        <v>10</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="40">
         <v>52.5</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5921,26 +5929,26 @@
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="43">
-        <v>10</v>
-      </c>
-      <c r="E10" s="44">
-        <v>10</v>
-      </c>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="37">
+        <v>10</v>
+      </c>
+      <c r="E10" s="38">
+        <v>10</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="40">
         <v>52.5</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5955,26 +5963,26 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="43">
-        <v>10</v>
-      </c>
-      <c r="E11" s="44">
-        <v>10</v>
-      </c>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="37">
+        <v>10</v>
+      </c>
+      <c r="E11" s="38">
+        <v>10</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="40">
         <v>52.5</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -5989,26 +5997,26 @@
       <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="43">
-        <v>10</v>
-      </c>
-      <c r="E12" s="44">
-        <v>10</v>
-      </c>
-      <c r="F12" s="47" t="s">
+      <c r="D12" s="37">
+        <v>10</v>
+      </c>
+      <c r="E12" s="38">
+        <v>10</v>
+      </c>
+      <c r="F12" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="40">
         <v>52.5</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6023,26 +6031,26 @@
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="43">
-        <v>10</v>
-      </c>
-      <c r="E13" s="44">
-        <v>10</v>
-      </c>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="37">
+        <v>10</v>
+      </c>
+      <c r="E13" s="38">
+        <v>10</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="40">
         <v>52.5</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6057,26 +6065,26 @@
       <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="37">
         <v>15</v>
       </c>
-      <c r="E14" s="44">
-        <v>10</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="38">
+        <v>10</v>
+      </c>
+      <c r="F14" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="40">
         <v>52.5</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6091,26 +6099,26 @@
       <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="37">
         <v>15</v>
       </c>
-      <c r="E15" s="44">
-        <v>10</v>
-      </c>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="38">
+        <v>10</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="40">
         <v>52.5</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6125,26 +6133,26 @@
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="43">
-        <v>10</v>
-      </c>
-      <c r="E16" s="44">
-        <v>10</v>
-      </c>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="37">
+        <v>10</v>
+      </c>
+      <c r="E16" s="38">
+        <v>10</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="40">
         <v>52.5</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6159,26 +6167,26 @@
       <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="43">
-        <v>10</v>
-      </c>
-      <c r="E17" s="44">
-        <v>10</v>
-      </c>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="37">
+        <v>10</v>
+      </c>
+      <c r="E17" s="38">
+        <v>10</v>
+      </c>
+      <c r="F17" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="40">
         <v>52.5</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6193,26 +6201,26 @@
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="43">
-        <v>10</v>
-      </c>
-      <c r="E18" s="44">
-        <v>10</v>
-      </c>
-      <c r="F18" s="47" t="s">
+      <c r="D18" s="37">
+        <v>10</v>
+      </c>
+      <c r="E18" s="38">
+        <v>10</v>
+      </c>
+      <c r="F18" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="40">
         <v>52.5</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6227,26 +6235,26 @@
       <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="43">
-        <v>10</v>
-      </c>
-      <c r="E19" s="44">
-        <v>10</v>
-      </c>
-      <c r="F19" s="47" t="s">
+      <c r="D19" s="37">
+        <v>10</v>
+      </c>
+      <c r="E19" s="38">
+        <v>10</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="40">
         <v>52.5</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6261,26 +6269,26 @@
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="43">
-        <v>10</v>
-      </c>
-      <c r="E20" s="44">
-        <v>10</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="D20" s="37">
+        <v>10</v>
+      </c>
+      <c r="E20" s="38">
+        <v>10</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="40">
         <v>52.5</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6295,26 +6303,26 @@
       <c r="C21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="37">
         <v>15</v>
       </c>
-      <c r="E21" s="44">
-        <v>10</v>
-      </c>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="38">
+        <v>10</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="40">
         <v>52.5</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -6329,26 +6337,26 @@
       <c r="C22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="37">
         <v>15</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="38">
         <v>15</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="40">
         <v>75</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="66">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I22" s="2">
         <v>40</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="59">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -6363,26 +6371,26 @@
       <c r="C23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="37">
         <v>15</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="38">
         <v>15</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="40">
         <v>75</v>
       </c>
-      <c r="H23" s="73">
+      <c r="H23" s="66">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I23" s="2">
         <v>30</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="59">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -6397,294 +6405,296 @@
       <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="37">
         <v>30</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="38">
         <v>15</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="40">
         <v>75</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="66">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I24" s="2">
         <v>20</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="37">
         <v>30</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="38">
         <v>15</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="40">
         <v>75</v>
       </c>
-      <c r="H25" s="73">
+      <c r="H25" s="66">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="I25" s="2">
         <v>20</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="45">
         <v>20</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="46">
         <v>20</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="40">
         <v>52.5</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="66">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="66">
+      <c r="J26" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="45">
         <v>15</v>
       </c>
-      <c r="E27" s="52">
-        <v>10</v>
-      </c>
-      <c r="F27" s="47" t="s">
+      <c r="E27" s="46">
+        <v>10</v>
+      </c>
+      <c r="F27" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="40">
         <v>52.5</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="45">
         <v>15</v>
       </c>
-      <c r="E28" s="52">
-        <v>10</v>
-      </c>
-      <c r="F28" s="47" t="s">
+      <c r="E28" s="46">
+        <v>10</v>
+      </c>
+      <c r="F28" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="40">
         <v>52.5</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="45">
         <v>15</v>
       </c>
-      <c r="E29" s="52">
-        <v>10</v>
-      </c>
-      <c r="F29" s="47" t="s">
+      <c r="E29" s="46">
+        <v>10</v>
+      </c>
+      <c r="F29" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="40">
         <v>52.5</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="59">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="45">
         <v>15</v>
       </c>
-      <c r="E30" s="52">
-        <v>10</v>
-      </c>
-      <c r="F30" s="47" t="s">
+      <c r="E30" s="46">
+        <v>10</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="40">
         <v>52.5</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I30" s="2">
         <v>15</v>
       </c>
-      <c r="J30" s="66">
+      <c r="J30" s="59">
         <f t="shared" si="0"/>
         <v>13.125</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="51">
-        <v>10</v>
-      </c>
-      <c r="E31" s="52">
+      <c r="D31" s="45">
+        <v>10</v>
+      </c>
+      <c r="E31" s="46">
         <v>15</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="40">
         <v>52.5</v>
       </c>
-      <c r="H31" s="73">
+      <c r="H31" s="66">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="66">
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="51">
-        <v>10</v>
-      </c>
-      <c r="E32" s="52">
+      <c r="D32" s="45">
+        <v>10</v>
+      </c>
+      <c r="E32" s="46">
         <v>15</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="40">
         <v>52.5</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="66">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I32" s="2">
         <v>40</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="59">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -6699,60 +6709,60 @@
       <c r="C33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="43">
-        <v>10</v>
-      </c>
-      <c r="E33" s="44">
+      <c r="D33" s="37">
+        <v>10</v>
+      </c>
+      <c r="E33" s="38">
         <v>60</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="40">
         <v>75</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="66">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="I33" s="2">
         <v>90</v>
       </c>
-      <c r="J33" s="66">
+      <c r="J33" s="59">
         <f t="shared" ref="J33:J64" si="2">(I33/60)*G33</f>
         <v>112.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="43">
-        <v>10</v>
-      </c>
-      <c r="E34" s="44">
+      <c r="D34" s="37">
+        <v>10</v>
+      </c>
+      <c r="E34" s="38">
         <v>30</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="40">
         <v>75</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="66">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I34" s="2">
         <v>20</v>
       </c>
-      <c r="J34" s="66">
+      <c r="J34" s="59">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -6767,26 +6777,26 @@
       <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="43">
-        <v>10</v>
-      </c>
-      <c r="E35" s="44">
+      <c r="D35" s="37">
+        <v>10</v>
+      </c>
+      <c r="E35" s="38">
         <v>30</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="40">
         <v>75</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="66">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I35" s="2">
         <v>20</v>
       </c>
-      <c r="J35" s="66">
+      <c r="J35" s="59">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -6801,26 +6811,26 @@
       <c r="C36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="43">
-        <v>10</v>
-      </c>
-      <c r="E36" s="44">
+      <c r="D36" s="37">
+        <v>10</v>
+      </c>
+      <c r="E36" s="38">
         <v>30</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="40">
         <v>75</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="66">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="I36" s="2">
         <v>20</v>
       </c>
-      <c r="J36" s="66">
+      <c r="J36" s="59">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -6835,26 +6845,26 @@
       <c r="C37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="43">
-        <v>10</v>
-      </c>
-      <c r="E37" s="44">
+      <c r="D37" s="37">
+        <v>10</v>
+      </c>
+      <c r="E37" s="38">
         <v>20</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="40">
         <v>52.5</v>
       </c>
-      <c r="H37" s="73">
+      <c r="H37" s="66">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
-      <c r="J37" s="66">
+      <c r="J37" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -6869,26 +6879,26 @@
       <c r="C38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="43">
-        <v>10</v>
-      </c>
-      <c r="E38" s="44">
+      <c r="D38" s="37">
+        <v>10</v>
+      </c>
+      <c r="E38" s="38">
         <v>20</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="40">
         <v>52.5</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="66">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I38" s="2">
         <v>10</v>
       </c>
-      <c r="J38" s="66">
+      <c r="J38" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -6903,26 +6913,26 @@
       <c r="C39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="43">
-        <v>10</v>
-      </c>
-      <c r="E39" s="44">
+      <c r="D39" s="37">
+        <v>10</v>
+      </c>
+      <c r="E39" s="38">
         <v>60</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="40">
         <v>52.5</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="66">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="I39" s="2">
         <v>30</v>
       </c>
-      <c r="J39" s="66">
+      <c r="J39" s="59">
         <f t="shared" si="2"/>
         <v>26.25</v>
       </c>
@@ -6937,26 +6947,28 @@
       <c r="C40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="43">
-        <v>10</v>
-      </c>
-      <c r="E40" s="44">
+      <c r="D40" s="37">
+        <v>10</v>
+      </c>
+      <c r="E40" s="38">
         <v>60</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="40">
         <v>52.5</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="66">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="66">
+      <c r="I40" s="2">
+        <v>10</v>
+      </c>
+      <c r="J40" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -6969,26 +6981,28 @@
       <c r="C41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="43">
-        <v>10</v>
-      </c>
-      <c r="E41" s="44">
+      <c r="D41" s="37">
+        <v>10</v>
+      </c>
+      <c r="E41" s="38">
         <v>15</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="40">
         <v>52.5</v>
       </c>
-      <c r="H41" s="73">
+      <c r="H41" s="66">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="66">
+      <c r="I41" s="2">
+        <v>25</v>
+      </c>
+      <c r="J41" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -7001,58 +7015,62 @@
       <c r="C42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="43">
-        <v>10</v>
-      </c>
-      <c r="E42" s="44">
+      <c r="D42" s="37">
+        <v>10</v>
+      </c>
+      <c r="E42" s="38">
         <v>20</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="40">
         <v>52.5</v>
       </c>
-      <c r="H42" s="73">
+      <c r="H42" s="66">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="66">
+      <c r="I42" s="2">
+        <v>15</v>
+      </c>
+      <c r="J42" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="78" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+        <v>13.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="71" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="51">
-        <v>10</v>
-      </c>
-      <c r="E43" s="52">
+      <c r="D43" s="45">
+        <v>10</v>
+      </c>
+      <c r="E43" s="46">
         <v>20</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="75">
+      <c r="G43" s="68">
         <v>52.5</v>
       </c>
-      <c r="H43" s="76">
+      <c r="H43" s="69">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="77">
+      <c r="I43" s="13">
+        <v>25</v>
+      </c>
+      <c r="J43" s="70">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -7065,28 +7083,28 @@
       <c r="C44" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="43">
-        <v>10</v>
-      </c>
-      <c r="E44" s="44">
-        <v>10</v>
-      </c>
-      <c r="F44" s="47" t="s">
+      <c r="D44" s="37">
+        <v>10</v>
+      </c>
+      <c r="E44" s="38">
+        <v>10</v>
+      </c>
+      <c r="F44" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="40">
         <v>52.5</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I44" s="2">
-        <v>5</v>
-      </c>
-      <c r="J44" s="66">
+        <v>10</v>
+      </c>
+      <c r="J44" s="59">
         <f t="shared" si="2"/>
-        <v>4.375</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -7099,28 +7117,28 @@
       <c r="C45" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="43">
-        <v>10</v>
-      </c>
-      <c r="E45" s="44">
-        <v>10</v>
-      </c>
-      <c r="F45" s="47" t="s">
+      <c r="D45" s="37">
+        <v>10</v>
+      </c>
+      <c r="E45" s="38">
+        <v>10</v>
+      </c>
+      <c r="F45" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="40">
         <v>52.5</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I45" s="2">
-        <v>5</v>
-      </c>
-      <c r="J45" s="66">
+        <v>10</v>
+      </c>
+      <c r="J45" s="59">
         <f t="shared" si="2"/>
-        <v>4.375</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -7133,28 +7151,28 @@
       <c r="C46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="43">
-        <v>10</v>
-      </c>
-      <c r="E46" s="44">
-        <v>10</v>
-      </c>
-      <c r="F46" s="47" t="s">
+      <c r="D46" s="37">
+        <v>10</v>
+      </c>
+      <c r="E46" s="38">
+        <v>10</v>
+      </c>
+      <c r="F46" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="40">
         <v>52.5</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I46" s="2">
-        <v>5</v>
-      </c>
-      <c r="J46" s="66">
+        <v>10</v>
+      </c>
+      <c r="J46" s="59">
         <f t="shared" si="2"/>
-        <v>4.375</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7164,29 +7182,31 @@
       <c r="B47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D47" s="43">
-        <v>10</v>
-      </c>
-      <c r="E47" s="44">
+      <c r="D47" s="37">
+        <v>10</v>
+      </c>
+      <c r="E47" s="38">
         <v>15</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="40">
         <v>52.5</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="66">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
-      <c r="I47" s="54"/>
-      <c r="J47" s="66">
+      <c r="I47" s="2">
+        <v>10</v>
+      </c>
+      <c r="J47" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -7199,26 +7219,28 @@
       <c r="C48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="37">
         <v>20</v>
       </c>
-      <c r="E48" s="44">
-        <v>10</v>
-      </c>
-      <c r="F48" s="47" t="s">
+      <c r="E48" s="38">
+        <v>10</v>
+      </c>
+      <c r="F48" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="40">
         <v>52.5</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="66">
+      <c r="I48" s="2">
+        <v>35</v>
+      </c>
+      <c r="J48" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.625000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -7231,26 +7253,28 @@
       <c r="C49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="43">
-        <v>10</v>
-      </c>
-      <c r="E49" s="44">
-        <v>10</v>
-      </c>
-      <c r="F49" s="47" t="s">
+      <c r="D49" s="37">
+        <v>10</v>
+      </c>
+      <c r="E49" s="38">
+        <v>10</v>
+      </c>
+      <c r="F49" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="40">
         <v>52.5</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="66">
+      <c r="I49" s="2">
+        <v>15</v>
+      </c>
+      <c r="J49" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13.125</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -7263,26 +7287,28 @@
       <c r="C50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="43">
-        <v>10</v>
-      </c>
-      <c r="E50" s="44">
-        <v>10</v>
-      </c>
-      <c r="F50" s="47" t="s">
+      <c r="D50" s="37">
+        <v>10</v>
+      </c>
+      <c r="E50" s="38">
+        <v>10</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="40">
         <v>52.5</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="66">
+      <c r="I50" s="2">
+        <v>5</v>
+      </c>
+      <c r="J50" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7292,29 +7318,29 @@
       <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="43">
-        <v>10</v>
-      </c>
-      <c r="E51" s="44">
-        <v>10</v>
-      </c>
-      <c r="F51" s="47" t="s">
+      <c r="D51" s="37">
+        <v>10</v>
+      </c>
+      <c r="E51" s="38">
+        <v>10</v>
+      </c>
+      <c r="F51" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="40">
         <v>52.5</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J51" s="66">
+      <c r="J51" s="59">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -7329,32 +7355,32 @@
       <c r="C52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="37">
         <v>15</v>
       </c>
-      <c r="E52" s="44">
+      <c r="E52" s="38">
         <v>15</v>
       </c>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="40">
         <v>52.5</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="66">
         <f t="shared" si="1"/>
         <v>13.125</v>
       </c>
       <c r="I52" s="2">
         <v>15</v>
       </c>
-      <c r="J52" s="66">
+      <c r="J52" s="59">
         <f t="shared" si="2"/>
         <v>13.125</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -7363,26 +7389,26 @@
       <c r="C53" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="43">
-        <v>10</v>
-      </c>
-      <c r="E53" s="44">
-        <v>10</v>
-      </c>
-      <c r="F53" s="47" t="s">
+      <c r="D53" s="37">
+        <v>10</v>
+      </c>
+      <c r="E53" s="38">
+        <v>10</v>
+      </c>
+      <c r="F53" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="40">
         <v>52.5</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
       </c>
-      <c r="J53" s="66">
+      <c r="J53" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7397,26 +7423,26 @@
       <c r="C54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="43">
-        <v>10</v>
-      </c>
-      <c r="E54" s="44">
-        <v>10</v>
-      </c>
-      <c r="F54" s="47" t="s">
+      <c r="D54" s="37">
+        <v>10</v>
+      </c>
+      <c r="E54" s="38">
+        <v>10</v>
+      </c>
+      <c r="F54" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="40">
         <v>52.5</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I54" s="2">
         <v>10</v>
       </c>
-      <c r="J54" s="66">
+      <c r="J54" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7431,26 +7457,26 @@
       <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="43">
-        <v>10</v>
-      </c>
-      <c r="E55" s="44">
-        <v>10</v>
-      </c>
-      <c r="F55" s="47" t="s">
+      <c r="D55" s="37">
+        <v>10</v>
+      </c>
+      <c r="E55" s="38">
+        <v>10</v>
+      </c>
+      <c r="F55" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="40">
         <v>52.5</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H55" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I55" s="2">
         <v>10</v>
       </c>
-      <c r="J55" s="66">
+      <c r="J55" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7465,26 +7491,26 @@
       <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="43">
-        <v>10</v>
-      </c>
-      <c r="E56" s="44">
-        <v>10</v>
-      </c>
-      <c r="F56" s="47" t="s">
+      <c r="D56" s="37">
+        <v>10</v>
+      </c>
+      <c r="E56" s="38">
+        <v>10</v>
+      </c>
+      <c r="F56" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="40">
         <v>52.5</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I56" s="2">
         <v>10</v>
       </c>
-      <c r="J56" s="66">
+      <c r="J56" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7499,26 +7525,26 @@
       <c r="C57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="37">
         <v>15</v>
       </c>
-      <c r="E57" s="44">
-        <v>10</v>
-      </c>
-      <c r="F57" s="47" t="s">
+      <c r="E57" s="38">
+        <v>10</v>
+      </c>
+      <c r="F57" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="40">
         <v>52.5</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I57" s="2">
         <v>10</v>
       </c>
-      <c r="J57" s="66">
+      <c r="J57" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7533,26 +7559,26 @@
       <c r="C58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="43">
-        <v>10</v>
-      </c>
-      <c r="E58" s="44">
-        <v>10</v>
-      </c>
-      <c r="F58" s="47" t="s">
+      <c r="D58" s="37">
+        <v>10</v>
+      </c>
+      <c r="E58" s="38">
+        <v>10</v>
+      </c>
+      <c r="F58" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="40">
         <v>52.5</v>
       </c>
-      <c r="H58" s="73">
+      <c r="H58" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I58" s="2">
         <v>10</v>
       </c>
-      <c r="J58" s="66">
+      <c r="J58" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7567,26 +7593,26 @@
       <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="37">
         <v>15</v>
       </c>
-      <c r="E59" s="44">
-        <v>10</v>
-      </c>
-      <c r="F59" s="47" t="s">
+      <c r="E59" s="38">
+        <v>10</v>
+      </c>
+      <c r="F59" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G59" s="46">
+      <c r="G59" s="40">
         <v>52.5</v>
       </c>
-      <c r="H59" s="73">
+      <c r="H59" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I59" s="2">
         <v>10</v>
       </c>
-      <c r="J59" s="66">
+      <c r="J59" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7601,26 +7627,26 @@
       <c r="C60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="37">
         <v>15</v>
       </c>
-      <c r="E60" s="44">
-        <v>10</v>
-      </c>
-      <c r="F60" s="47" t="s">
+      <c r="E60" s="38">
+        <v>10</v>
+      </c>
+      <c r="F60" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="40">
         <v>52.5</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I60" s="2">
         <v>10</v>
       </c>
-      <c r="J60" s="66">
+      <c r="J60" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7635,26 +7661,26 @@
       <c r="C61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="43">
-        <v>10</v>
-      </c>
-      <c r="E61" s="44">
-        <v>10</v>
-      </c>
-      <c r="F61" s="47" t="s">
+      <c r="D61" s="37">
+        <v>10</v>
+      </c>
+      <c r="E61" s="38">
+        <v>10</v>
+      </c>
+      <c r="F61" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="40">
         <v>52.5</v>
       </c>
-      <c r="H61" s="73">
+      <c r="H61" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I61" s="2">
         <v>10</v>
       </c>
-      <c r="J61" s="66">
+      <c r="J61" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7669,26 +7695,26 @@
       <c r="C62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="43">
-        <v>10</v>
-      </c>
-      <c r="E62" s="44">
-        <v>10</v>
-      </c>
-      <c r="F62" s="47" t="s">
+      <c r="D62" s="37">
+        <v>10</v>
+      </c>
+      <c r="E62" s="38">
+        <v>10</v>
+      </c>
+      <c r="F62" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="40">
         <v>52.5</v>
       </c>
-      <c r="H62" s="73">
+      <c r="H62" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I62" s="2">
         <v>10</v>
       </c>
-      <c r="J62" s="66">
+      <c r="J62" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7703,26 +7729,26 @@
       <c r="C63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="43">
-        <v>10</v>
-      </c>
-      <c r="E63" s="44">
-        <v>10</v>
-      </c>
-      <c r="F63" s="47" t="s">
+      <c r="D63" s="37">
+        <v>10</v>
+      </c>
+      <c r="E63" s="38">
+        <v>10</v>
+      </c>
+      <c r="F63" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="40">
         <v>52.5</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I63" s="2">
         <v>10</v>
       </c>
-      <c r="J63" s="66">
+      <c r="J63" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7737,26 +7763,26 @@
       <c r="C64" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="43">
-        <v>10</v>
-      </c>
-      <c r="E64" s="44">
-        <v>10</v>
-      </c>
-      <c r="F64" s="47" t="s">
+      <c r="D64" s="37">
+        <v>10</v>
+      </c>
+      <c r="E64" s="38">
+        <v>10</v>
+      </c>
+      <c r="F64" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="40">
         <v>52.5</v>
       </c>
-      <c r="H64" s="73">
+      <c r="H64" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I64" s="2">
         <v>10</v>
       </c>
-      <c r="J64" s="66">
+      <c r="J64" s="59">
         <f t="shared" si="2"/>
         <v>8.75</v>
       </c>
@@ -7771,26 +7797,26 @@
       <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="43">
-        <v>10</v>
-      </c>
-      <c r="E65" s="44">
-        <v>10</v>
-      </c>
-      <c r="F65" s="47" t="s">
+      <c r="D65" s="37">
+        <v>10</v>
+      </c>
+      <c r="E65" s="38">
+        <v>10</v>
+      </c>
+      <c r="F65" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G65" s="46">
+      <c r="G65" s="40">
         <v>52.5</v>
       </c>
-      <c r="H65" s="73">
+      <c r="H65" s="66">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
       <c r="I65" s="2">
         <v>10</v>
       </c>
-      <c r="J65" s="66">
+      <c r="J65" s="59">
         <f t="shared" ref="J65:J71" si="3">(I65/60)*G65</f>
         <v>8.75</v>
       </c>
@@ -7805,26 +7831,26 @@
       <c r="C66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="43">
-        <v>10</v>
-      </c>
-      <c r="E66" s="44">
-        <v>10</v>
-      </c>
-      <c r="F66" s="47" t="s">
+      <c r="D66" s="37">
+        <v>10</v>
+      </c>
+      <c r="E66" s="38">
+        <v>10</v>
+      </c>
+      <c r="F66" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="40">
         <v>52.5</v>
       </c>
-      <c r="H66" s="73">
+      <c r="H66" s="66">
         <f t="shared" ref="H66:H71" si="4">(E66/60)*G66</f>
         <v>8.75</v>
       </c>
       <c r="I66" s="2">
         <v>10</v>
       </c>
-      <c r="J66" s="66">
+      <c r="J66" s="59">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
@@ -7839,257 +7865,258 @@
       <c r="C67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="37">
         <v>20</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="38">
         <v>30</v>
       </c>
-      <c r="F67" s="47" t="s">
+      <c r="F67" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="46">
+      <c r="G67" s="40">
         <v>75</v>
       </c>
-      <c r="H67" s="73">
+      <c r="H67" s="66">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
       <c r="I67" s="2">
         <v>10</v>
       </c>
-      <c r="J67" s="66">
+      <c r="J67" s="59">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D68" s="56">
+      <c r="D68" s="49">
         <v>20</v>
       </c>
-      <c r="E68" s="57">
+      <c r="E68" s="50">
         <v>30</v>
       </c>
-      <c r="F68" s="47" t="s">
+      <c r="F68" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="G68" s="67">
+      <c r="G68" s="60">
         <v>75</v>
       </c>
-      <c r="H68" s="73">
+      <c r="H68" s="66">
         <f>(E68/60)*G68</f>
         <v>37.5</v>
       </c>
       <c r="I68" s="2">
         <v>10</v>
       </c>
-      <c r="J68" s="66">
+      <c r="J68" s="59">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="87" t="s">
+      <c r="B69" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="C69" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="89">
+      <c r="D69" s="81"/>
+      <c r="E69" s="82">
         <v>420</v>
       </c>
-      <c r="F69" s="90" t="s">
+      <c r="F69" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="G69" s="91">
+      <c r="G69" s="84">
         <v>75</v>
       </c>
-      <c r="H69" s="92">
+      <c r="H69" s="85">
         <f>(E69/60)*G69</f>
         <v>525</v>
       </c>
-      <c r="I69" s="93">
+      <c r="I69" s="86">
         <v>300</v>
       </c>
-      <c r="J69" s="94">
+      <c r="J69" s="87">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="87" t="s">
+      <c r="B70" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="C70" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="88"/>
-      <c r="E70" s="89">
+      <c r="D70" s="81"/>
+      <c r="E70" s="82">
         <v>420</v>
       </c>
-      <c r="F70" s="90" t="s">
+      <c r="F70" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="91">
+      <c r="G70" s="84">
         <v>75</v>
       </c>
-      <c r="H70" s="92">
+      <c r="H70" s="85">
         <f>(E70/60)*G70</f>
         <v>525</v>
       </c>
-      <c r="I70" s="93">
+      <c r="I70" s="86">
         <v>200</v>
       </c>
-      <c r="J70" s="94">
+      <c r="J70" s="87">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="95" t="s">
+      <c r="B71" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="97">
+      <c r="D71" s="90">
         <v>30</v>
       </c>
-      <c r="E71" s="98">
+      <c r="E71" s="91">
         <v>480</v>
       </c>
-      <c r="F71" s="99" t="s">
+      <c r="F71" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="G71" s="100">
+      <c r="G71" s="93">
         <v>52.5</v>
       </c>
-      <c r="H71" s="92">
+      <c r="H71" s="85">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="I71" s="93">
+      <c r="I71" s="86">
         <v>120</v>
       </c>
-      <c r="J71" s="94">
+      <c r="J71" s="87">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="80"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
+      <c r="A72" s="73"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="56"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="79" t="s">
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="D74" s="79" t="s">
+      <c r="D74" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="79" t="s">
+      <c r="E74" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C75" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="65">
+      <c r="D75" s="58">
         <f>SUM(D2:D71)/60</f>
         <v>15.25</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="59">
         <f>D75*60</f>
         <v>915</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="65">
+      <c r="D76" s="58">
         <f>SUM(E2:E71)/60</f>
         <v>45.75</v>
       </c>
-      <c r="E76" s="66">
+      <c r="E76" s="59">
         <f>SUM(H2:H71)</f>
         <v>2956.875</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="65">
+      <c r="D77" s="58">
         <f>SUM(I2:I71)/60</f>
-        <v>30.833333333333332</v>
-      </c>
-      <c r="E77" s="66">
+        <v>33.583333333333336</v>
+      </c>
+      <c r="E77" s="59">
         <f>SUM(J2:J71)</f>
-        <v>2068.75</v>
+        <v>2213.125</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="65">
+      <c r="D78" s="58">
         <f>D75+D76</f>
         <v>61</v>
       </c>
-      <c r="E78" s="66">
+      <c r="E78" s="59">
         <f>E75+E76</f>
         <v>3871.875</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="D79" s="65">
+      <c r="D79" s="58">
         <f>D75+D77</f>
-        <v>46.083333333333329</v>
-      </c>
-      <c r="E79" s="66">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="E79" s="59">
         <f>E75+E77</f>
-        <v>2983.75</v>
+        <v>3128.125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8111,26 +8138,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8138,13 +8165,13 @@
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8152,66 +8179,66 @@
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="27" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="27" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="28" t="s">
         <v>163</v>
       </c>
     </row>
